--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A625451-74DB-6E44-8339-4EAEE53037F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3DB50F-A03E-7043-9359-22C6CC6D666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27260" yWindow="1640" windowWidth="20540" windowHeight="8020" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="478">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1587,12 +1587,206 @@
   <si>
     <t>6pm</t>
   </si>
+  <si>
+    <t xml:space="preserve">Charlie </t>
+  </si>
+  <si>
+    <t>client_login</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>admin_login</t>
+  </si>
+  <si>
+    <r>
+      <t>CLIENT_ID (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <r>
+      <t>ADMIN_ID (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>passcode</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Is_client</t>
+  </si>
+  <si>
+    <t>client_data</t>
+  </si>
+  <si>
+    <t>admin_data</t>
+  </si>
+  <si>
+    <r>
+      <t>CLIENT_DATA (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ADMIN_DATA (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>ADMIN_ID</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client premium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">client member </t>
+  </si>
+  <si>
+    <t>client not member</t>
+  </si>
+  <si>
+    <t>Non_client</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,7 +1818,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1647,8 +1841,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,8 +1896,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2003,11 +2280,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2032,6 +2349,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2083,25 +2419,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2156,24 +2527,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -2305,23 +2658,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2459,6 +2812,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -2473,12 +2842,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2793,6 +3164,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -2807,22 +3194,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -2832,21 +3203,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border>
@@ -3333,6 +3689,21 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3435,36 +3806,36 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="44"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="43"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="40"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:N95" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N85">
     <sortCondition ref="A1:A85"/>
@@ -3490,14 +3861,14 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3515,15 +3886,15 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
   </tableColumns>
@@ -3598,11 +3969,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="62">
   <autoFilter ref="G12:H15" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4003,9 +4374,9 @@
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="34" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="34" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
@@ -4016,2422 +4387,2422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="53" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="54" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="53" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="53" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="54" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="53" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="53" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="54" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="53" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="54" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="53" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="54" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="53" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="54" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="53" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="53" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="54" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="53" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="54" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="53" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="54" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="53" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="54" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="53" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="54" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="53" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="54" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="53" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="54" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="53" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="54" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="53" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="54" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="53" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="54" t="s">
+      <c r="F25" s="29"/>
+      <c r="G25" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="53" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="54" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H26" s="46"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="53" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="53" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="53" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="54" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="53" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="54" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="53" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H31" s="46"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="53" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="54" t="s">
+      <c r="F32" s="29"/>
+      <c r="G32" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="53" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="29"/>
+      <c r="G33" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H33" s="46"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="53" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="54" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="46"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="53" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="54" t="s">
+      <c r="F35" s="29"/>
+      <c r="G35" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H35" s="46"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="53" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="54" t="s">
+      <c r="F36" s="29"/>
+      <c r="G36" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="53" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="54" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H37" s="46"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="53" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="54" t="s">
+      <c r="F38" s="29"/>
+      <c r="G38" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H38" s="46"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="53" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="54" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H39" s="46"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="53" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="54" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H40" s="46"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="53" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="54" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H41" s="46"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="53" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="54" t="s">
+      <c r="F42" s="29"/>
+      <c r="G42" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H42" s="46"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="53" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="54" t="s">
+      <c r="F43" s="29"/>
+      <c r="G43" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H43" s="46"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="54" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="46"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="54" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H45" s="46"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="47"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="54" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H46" s="46"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="47"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="30"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="54" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H47" s="46"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="47"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="54" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H48" s="46"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="47"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="54" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H49" s="46"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="47"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="54" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H50" s="46"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="30"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="54" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="46"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="54" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H52" s="46"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="54" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H53" s="46"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="47"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="54" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H54" s="46"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="47"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="30"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="54" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H55" s="46"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="47"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="54" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H56" s="46"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="47"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="54" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H57" s="46"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="47"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="54" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="29"/>
+      <c r="G58" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H58" s="46"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="30"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="54" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H59" s="46"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="47"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="30"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="54" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H60" s="46"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="47"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="54" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H61" s="46"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="47"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="30"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="54" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H62" s="46"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="47"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="30"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="46"/>
-      <c r="G63" s="54" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H63" s="46"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="47"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="54" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="29"/>
+      <c r="G64" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H64" s="46"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="47"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="54" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="29"/>
+      <c r="G65" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H65" s="46"/>
+      <c r="H65" s="29"/>
       <c r="I65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="47"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="30"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="54" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="29"/>
+      <c r="G66" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H66" s="46"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="47"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="30"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="54" t="s">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H67" s="46"/>
+      <c r="H67" s="29"/>
       <c r="I67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="47"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="54" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="29"/>
+      <c r="G68" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H68" s="46"/>
+      <c r="H68" s="29"/>
       <c r="I68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="47"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="46"/>
-      <c r="G69" s="54" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="G69" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H69" s="46"/>
+      <c r="H69" s="29"/>
       <c r="I69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="47"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="30"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="54" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H70" s="46"/>
+      <c r="H70" s="29"/>
       <c r="I70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="47"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="30"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="46"/>
-      <c r="G71" s="54" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H71" s="46"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="47"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="30"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="54" t="s">
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="G72" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H72" s="46"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="47"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73" s="46"/>
-      <c r="G73" s="54" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="G73" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H73" s="46"/>
+      <c r="H73" s="29"/>
       <c r="I73" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="47"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="46"/>
-      <c r="G74" s="54" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="29"/>
+      <c r="G74" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H74" s="46"/>
+      <c r="H74" s="29"/>
       <c r="I74" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="47"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="30"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="46"/>
-      <c r="G75" s="54" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="29"/>
+      <c r="G75" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H75" s="46"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="47"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="54" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="29"/>
+      <c r="G76" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H76" s="46"/>
+      <c r="H76" s="29"/>
       <c r="I76" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="47"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="30"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="46"/>
-      <c r="G77" s="54" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="29"/>
+      <c r="G77" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H77" s="46"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="47"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="30"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="54" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="29"/>
+      <c r="G78" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H78" s="46"/>
+      <c r="H78" s="29"/>
       <c r="I78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="47"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="30"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="46"/>
-      <c r="G79" s="54" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="29"/>
+      <c r="G79" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H79" s="46"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="47"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="30"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="45" t="s">
+      <c r="A80" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="54" t="s">
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="29"/>
+      <c r="G80" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H80" s="46"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="47"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="30"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="46"/>
-      <c r="G81" s="54" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H81" s="46"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="47"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="30"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="53" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="54" t="s">
+      <c r="F82" s="29"/>
+      <c r="G82" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H82" s="46"/>
+      <c r="H82" s="29"/>
       <c r="I82" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="47"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="30"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="53" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="54" t="s">
+      <c r="F83" s="29"/>
+      <c r="G83" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H83" s="46"/>
+      <c r="H83" s="29"/>
       <c r="I83" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="47"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="30"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="53" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="F84" s="46"/>
-      <c r="G84" s="54" t="s">
+      <c r="F84" s="29"/>
+      <c r="G84" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H84" s="46"/>
+      <c r="H84" s="29"/>
       <c r="I84" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="47"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="30"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="48"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="50"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="33"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="49" t="s">
+      <c r="A86" s="31"/>
+      <c r="B86" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="55" t="s">
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="50"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="33"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="31"/>
+      <c r="B87" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="55" t="s">
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="50"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="33"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49" t="s">
+      <c r="A88" s="31"/>
+      <c r="B88" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="55" t="s">
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="50"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="33"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="55" t="s">
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="50"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="33"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
-      <c r="B90" s="49" t="s">
+      <c r="A90" s="31"/>
+      <c r="B90" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="55" t="s">
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="50"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="33"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
-      <c r="B91" s="49" t="s">
+      <c r="A91" s="31"/>
+      <c r="B91" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="55" t="s">
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="50"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="33"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
-      <c r="B92" s="49" t="s">
+      <c r="A92" s="31"/>
+      <c r="B92" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="55" t="s">
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="50"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="33"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="31"/>
+      <c r="B93" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="55" t="s">
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="50"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="33"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="31"/>
+      <c r="B94" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="55" t="s">
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="50"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="33"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="55" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="49"/>
-      <c r="N95" s="50"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6461,230 +6832,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="29">
         <v>250</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="30" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="29">
         <v>75</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="32">
         <v>25</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="33" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="26" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30">
         <v>20</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="26" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="28">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30">
         <v>20</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="29" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30">
         <v>15</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="29" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="28">
         <v>4</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30">
         <v>25</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="29" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
+      <c r="A12" s="28">
         <v>5</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30">
         <v>20</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="29" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30">
         <v>25</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="29" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="31">
         <v>7</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33">
         <v>25</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="32" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6701,7 +7072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE9A99-0F75-6C49-A0AA-F3F1DED00D9C}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -6713,27 +7084,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6759,30 +7130,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
@@ -6802,10 +7173,10 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
@@ -6882,16 +7253,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
@@ -6901,72 +7272,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -6989,22 +7360,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7015,16 +7386,16 @@
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7035,16 +7406,16 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7099,10 +7470,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
@@ -7177,18 +7548,18 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
@@ -7205,10 +7576,10 @@
       <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7235,12 +7606,621 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="20" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="G42" s="60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="G43" s="61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G51" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" s="57"/>
+      <c r="E52" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="57"/>
+      <c r="E54" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D56" s="57"/>
+      <c r="E56" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D58" s="57"/>
+      <c r="E58" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G58" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="57"/>
+      <c r="E60" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="66">
+        <v>5</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="68">
+        <v>4</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="70">
+        <v>3</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="72">
+        <v>2</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>475</v>
+      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="74">
+        <v>1</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+    </row>
+    <row r="69" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="76">
+        <v>0</v>
+      </c>
+      <c r="B69" s="77" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7275,46 +8255,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -7336,10 +8316,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
@@ -7468,72 +8448,72 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
@@ -7593,46 +8573,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7655,36 +8635,36 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="20" t="s">
         <v>78</v>
       </c>
       <c r="G9" t="s">
@@ -7704,10 +8684,10 @@
       <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7799,105 +8779,105 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7928,41 +8908,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7985,22 +8965,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8017,10 +8997,10 @@
       <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8065,10 +9045,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -8085,10 +9065,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
@@ -8131,10 +9111,10 @@
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8151,10 +9131,10 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8233,16 +9213,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8261,10 +9241,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8318,159 +9298,159 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\Database Tables Outlines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3DB50F-A03E-7043-9359-22C6CC6D666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84218E5D-7A0F-4081-8C52-E7303ABC5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="467">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1591,17 +1591,56 @@
     <t xml:space="preserve">Charlie </t>
   </si>
   <si>
-    <t>client_login</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
-    <t>admin_login</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>passcode</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
   <si>
     <r>
-      <t>CLIENT_ID (</t>
+      <t>USER_ID (</t>
     </r>
     <r>
       <rPr>
@@ -1626,11 +1665,8 @@
     </r>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <r>
-      <t>ADMIN_ID (</t>
+      <t>USER_DATA (</t>
     </r>
     <r>
       <rPr>
@@ -1655,131 +1691,16 @@
     </r>
   </si>
   <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-  </si>
-  <si>
-    <t>passcode</t>
-  </si>
-  <si>
-    <t>is_admin</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Is_client</t>
-  </si>
-  <si>
-    <t>client_data</t>
-  </si>
-  <si>
-    <t>admin_data</t>
-  </si>
-  <si>
-    <r>
-      <t>CLIENT_DATA (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AI PRIMARY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ADMIN_DATA (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AI PRIMARY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>CLIENT_ID</t>
-  </si>
-  <si>
-    <t>ADMIN_ID</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>mname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>phone1</t>
-  </si>
-  <si>
-    <t>phone2</t>
-  </si>
-  <si>
-    <t>access_level</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client premium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">client member </t>
-  </si>
-  <si>
-    <t>client not member</t>
-  </si>
-  <si>
-    <t>Non_client</t>
+    <t xml:space="preserve">premium </t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>not_registered</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2280,51 +2201,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2363,11 +2244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2380,7 +2267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2404,7 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2419,58 +2306,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4315,13 +4179,13 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4337,7 +4201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4345,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4369,24 +4233,24 @@
       <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>301</v>
       </c>
@@ -4399,13 +4263,13 @@
       <c r="D1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>302</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>303</v>
       </c>
       <c r="H1" s="26" t="s">
@@ -4430,7 +4294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>346</v>
       </c>
@@ -4439,11 +4303,11 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F2" s="26"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H2" s="29"/>
@@ -4456,7 +4320,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>338</v>
       </c>
@@ -4465,11 +4329,11 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H3" s="29"/>
@@ -4482,7 +4346,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>339</v>
       </c>
@@ -4491,11 +4355,11 @@
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H4" s="29"/>
@@ -4508,7 +4372,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>340</v>
       </c>
@@ -4517,11 +4381,11 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H5" s="29"/>
@@ -4534,7 +4398,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>341</v>
       </c>
@@ -4543,11 +4407,11 @@
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H6" s="29"/>
@@ -4560,7 +4424,7 @@
       <c r="M6" s="29"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>342</v>
       </c>
@@ -4569,11 +4433,11 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H7" s="29"/>
@@ -4586,7 +4450,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>343</v>
       </c>
@@ -4595,11 +4459,11 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H8" s="29"/>
@@ -4612,7 +4476,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>344</v>
       </c>
@@ -4621,11 +4485,11 @@
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H9" s="29"/>
@@ -4638,7 +4502,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>345</v>
       </c>
@@ -4647,11 +4511,11 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H10" s="29"/>
@@ -4664,7 +4528,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>358</v>
       </c>
@@ -4673,11 +4537,11 @@
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H11" s="29"/>
@@ -4690,7 +4554,7 @@
       <c r="M11" s="29"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>363</v>
       </c>
@@ -4699,11 +4563,11 @@
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H12" s="29"/>
@@ -4716,7 +4580,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>309</v>
       </c>
@@ -4725,11 +4589,11 @@
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H13" s="29"/>
@@ -4742,7 +4606,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>361</v>
       </c>
@@ -4751,11 +4615,11 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H14" s="29"/>
@@ -4768,7 +4632,7 @@
       <c r="M14" s="29"/>
       <c r="N14" s="30"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>362</v>
       </c>
@@ -4777,11 +4641,11 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H15" s="29"/>
@@ -4794,7 +4658,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>310</v>
       </c>
@@ -4803,11 +4667,11 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H16" s="29"/>
@@ -4820,7 +4684,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>360</v>
       </c>
@@ -4829,11 +4693,11 @@
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H17" s="29"/>
@@ -4846,7 +4710,7 @@
       <c r="M17" s="29"/>
       <c r="N17" s="30"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>347</v>
       </c>
@@ -4855,11 +4719,11 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H18" s="29"/>
@@ -4872,7 +4736,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>364</v>
       </c>
@@ -4881,11 +4745,11 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H19" s="29"/>
@@ -4898,7 +4762,7 @@
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>365</v>
       </c>
@@ -4907,11 +4771,11 @@
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H20" s="29"/>
@@ -4924,7 +4788,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>356</v>
       </c>
@@ -4933,11 +4797,11 @@
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H21" s="29"/>
@@ -4950,7 +4814,7 @@
       <c r="M21" s="29"/>
       <c r="N21" s="30"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>355</v>
       </c>
@@ -4959,11 +4823,11 @@
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H22" s="29"/>
@@ -4976,7 +4840,7 @@
       <c r="M22" s="29"/>
       <c r="N22" s="30"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>357</v>
       </c>
@@ -4985,11 +4849,11 @@
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H23" s="29"/>
@@ -5002,7 +4866,7 @@
       <c r="M23" s="29"/>
       <c r="N23" s="30"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>367</v>
       </c>
@@ -5011,11 +4875,11 @@
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H24" s="29"/>
@@ -5028,7 +4892,7 @@
       <c r="M24" s="29"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>368</v>
       </c>
@@ -5037,11 +4901,11 @@
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H25" s="29"/>
@@ -5054,7 +4918,7 @@
       <c r="M25" s="29"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>359</v>
       </c>
@@ -5063,11 +4927,11 @@
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H26" s="29"/>
@@ -5080,7 +4944,7 @@
       <c r="M26" s="29"/>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>366</v>
       </c>
@@ -5089,11 +4953,11 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H27" s="29"/>
@@ -5106,7 +4970,7 @@
       <c r="M27" s="29"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>369</v>
       </c>
@@ -5115,11 +4979,11 @@
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H28" s="29"/>
@@ -5132,7 +4996,7 @@
       <c r="M28" s="29"/>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>370</v>
       </c>
@@ -5141,11 +5005,11 @@
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H29" s="29"/>
@@ -5158,7 +5022,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>376</v>
       </c>
@@ -5167,11 +5031,11 @@
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F30" s="29"/>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H30" s="29"/>
@@ -5184,7 +5048,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>377</v>
       </c>
@@ -5193,11 +5057,11 @@
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H31" s="29"/>
@@ -5210,7 +5074,7 @@
       <c r="M31" s="29"/>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>378</v>
       </c>
@@ -5219,11 +5083,11 @@
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H32" s="29"/>
@@ -5236,7 +5100,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>379</v>
       </c>
@@ -5245,11 +5109,11 @@
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H33" s="29"/>
@@ -5262,7 +5126,7 @@
       <c r="M33" s="29"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>380</v>
       </c>
@@ -5271,11 +5135,11 @@
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F34" s="29"/>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H34" s="29"/>
@@ -5288,7 +5152,7 @@
       <c r="M34" s="29"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>381</v>
       </c>
@@ -5297,11 +5161,11 @@
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H35" s="29"/>
@@ -5314,7 +5178,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>382</v>
       </c>
@@ -5323,11 +5187,11 @@
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H36" s="29"/>
@@ -5340,7 +5204,7 @@
       <c r="M36" s="29"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>371</v>
       </c>
@@ -5349,11 +5213,11 @@
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H37" s="29"/>
@@ -5366,7 +5230,7 @@
       <c r="M37" s="29"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>372</v>
       </c>
@@ -5375,11 +5239,11 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H38" s="29"/>
@@ -5392,7 +5256,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>373</v>
       </c>
@@ -5401,11 +5265,11 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H39" s="29"/>
@@ -5418,7 +5282,7 @@
       <c r="M39" s="29"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>374</v>
       </c>
@@ -5427,11 +5291,11 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F40" s="29"/>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H40" s="29"/>
@@ -5444,7 +5308,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="30"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>384</v>
       </c>
@@ -5453,11 +5317,11 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F41" s="29"/>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H41" s="29"/>
@@ -5470,7 +5334,7 @@
       <c r="M41" s="29"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>383</v>
       </c>
@@ -5479,11 +5343,11 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F42" s="29"/>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H42" s="29"/>
@@ -5496,7 +5360,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>385</v>
       </c>
@@ -5505,11 +5369,11 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="35" t="s">
         <v>241</v>
       </c>
       <c r="F43" s="29"/>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H43" s="29"/>
@@ -5522,7 +5386,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>330</v>
       </c>
@@ -5531,11 +5395,11 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H44" s="29"/>
@@ -5548,7 +5412,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>329</v>
       </c>
@@ -5557,11 +5421,11 @@
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F45" s="29"/>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H45" s="29"/>
@@ -5574,7 +5438,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>313</v>
       </c>
@@ -5583,11 +5447,11 @@
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H46" s="29"/>
@@ -5600,7 +5464,7 @@
       <c r="M46" s="29"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>314</v>
       </c>
@@ -5609,11 +5473,11 @@
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F47" s="29"/>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H47" s="29"/>
@@ -5626,7 +5490,7 @@
       <c r="M47" s="29"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>332</v>
       </c>
@@ -5635,11 +5499,11 @@
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F48" s="29"/>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H48" s="29"/>
@@ -5652,7 +5516,7 @@
       <c r="M48" s="29"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>316</v>
       </c>
@@ -5661,11 +5525,11 @@
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F49" s="29"/>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H49" s="29"/>
@@ -5678,7 +5542,7 @@
       <c r="M49" s="29"/>
       <c r="N49" s="30"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>320</v>
       </c>
@@ -5687,11 +5551,11 @@
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H50" s="29"/>
@@ -5704,7 +5568,7 @@
       <c r="M50" s="29"/>
       <c r="N50" s="30"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>305</v>
       </c>
@@ -5713,11 +5577,11 @@
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F51" s="29"/>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H51" s="29"/>
@@ -5730,7 +5594,7 @@
       <c r="M51" s="29"/>
       <c r="N51" s="30"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>308</v>
       </c>
@@ -5739,11 +5603,11 @@
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F52" s="29"/>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H52" s="29"/>
@@ -5756,7 +5620,7 @@
       <c r="M52" s="29"/>
       <c r="N52" s="30"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>331</v>
       </c>
@@ -5765,11 +5629,11 @@
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F53" s="29"/>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H53" s="29"/>
@@ -5782,7 +5646,7 @@
       <c r="M53" s="29"/>
       <c r="N53" s="30"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>322</v>
       </c>
@@ -5791,11 +5655,11 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F54" s="29"/>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H54" s="29"/>
@@ -5808,7 +5672,7 @@
       <c r="M54" s="29"/>
       <c r="N54" s="30"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>349</v>
       </c>
@@ -5817,11 +5681,11 @@
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F55" s="29"/>
-      <c r="G55" s="37" t="s">
+      <c r="G55" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H55" s="29"/>
@@ -5834,7 +5698,7 @@
       <c r="M55" s="29"/>
       <c r="N55" s="30"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>350</v>
       </c>
@@ -5843,11 +5707,11 @@
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F56" s="29"/>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H56" s="29"/>
@@ -5860,7 +5724,7 @@
       <c r="M56" s="29"/>
       <c r="N56" s="30"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>351</v>
       </c>
@@ -5869,11 +5733,11 @@
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F57" s="29"/>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H57" s="29"/>
@@ -5886,7 +5750,7 @@
       <c r="M57" s="29"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>352</v>
       </c>
@@ -5895,11 +5759,11 @@
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F58" s="29"/>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H58" s="29"/>
@@ -5912,7 +5776,7 @@
       <c r="M58" s="29"/>
       <c r="N58" s="30"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>353</v>
       </c>
@@ -5921,11 +5785,11 @@
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="29"/>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H59" s="29"/>
@@ -5938,7 +5802,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="30"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>354</v>
       </c>
@@ -5947,11 +5811,11 @@
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F60" s="29"/>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H60" s="29"/>
@@ -5964,7 +5828,7 @@
       <c r="M60" s="29"/>
       <c r="N60" s="30"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>333</v>
       </c>
@@ -5973,11 +5837,11 @@
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F61" s="29"/>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H61" s="29"/>
@@ -5990,7 +5854,7 @@
       <c r="M61" s="29"/>
       <c r="N61" s="30"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>334</v>
       </c>
@@ -5999,11 +5863,11 @@
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="29"/>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H62" s="29"/>
@@ -6016,7 +5880,7 @@
       <c r="M62" s="29"/>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>335</v>
       </c>
@@ -6025,11 +5889,11 @@
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F63" s="29"/>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H63" s="29"/>
@@ -6042,7 +5906,7 @@
       <c r="M63" s="29"/>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>336</v>
       </c>
@@ -6051,11 +5915,11 @@
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F64" s="29"/>
-      <c r="G64" s="37" t="s">
+      <c r="G64" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H64" s="29"/>
@@ -6068,7 +5932,7 @@
       <c r="M64" s="29"/>
       <c r="N64" s="30"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>337</v>
       </c>
@@ -6077,11 +5941,11 @@
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F65" s="29"/>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H65" s="29"/>
@@ -6094,7 +5958,7 @@
       <c r="M65" s="29"/>
       <c r="N65" s="30"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>315</v>
       </c>
@@ -6103,11 +5967,11 @@
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F66" s="29"/>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H66" s="29"/>
@@ -6120,7 +5984,7 @@
       <c r="M66" s="29"/>
       <c r="N66" s="30"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
         <v>328</v>
       </c>
@@ -6129,11 +5993,11 @@
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="29"/>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H67" s="29"/>
@@ -6146,7 +6010,7 @@
       <c r="M67" s="29"/>
       <c r="N67" s="30"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>327</v>
       </c>
@@ -6155,11 +6019,11 @@
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F68" s="29"/>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H68" s="29"/>
@@ -6172,7 +6036,7 @@
       <c r="M68" s="29"/>
       <c r="N68" s="30"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>318</v>
       </c>
@@ -6181,11 +6045,11 @@
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F69" s="29"/>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H69" s="29"/>
@@ -6198,7 +6062,7 @@
       <c r="M69" s="29"/>
       <c r="N69" s="30"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>318</v>
       </c>
@@ -6207,11 +6071,11 @@
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F70" s="29"/>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H70" s="29"/>
@@ -6224,7 +6088,7 @@
       <c r="M70" s="29"/>
       <c r="N70" s="30"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>324</v>
       </c>
@@ -6233,11 +6097,11 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F71" s="29"/>
-      <c r="G71" s="37" t="s">
+      <c r="G71" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H71" s="29"/>
@@ -6250,7 +6114,7 @@
       <c r="M71" s="29"/>
       <c r="N71" s="30"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>306</v>
       </c>
@@ -6259,11 +6123,11 @@
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F72" s="29"/>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H72" s="29"/>
@@ -6276,7 +6140,7 @@
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>307</v>
       </c>
@@ -6285,11 +6149,11 @@
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="29"/>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H73" s="29"/>
@@ -6302,7 +6166,7 @@
       <c r="M73" s="29"/>
       <c r="N73" s="30"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>326</v>
       </c>
@@ -6311,11 +6175,11 @@
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F74" s="29"/>
-      <c r="G74" s="37" t="s">
+      <c r="G74" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H74" s="29"/>
@@ -6328,7 +6192,7 @@
       <c r="M74" s="29"/>
       <c r="N74" s="30"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>311</v>
       </c>
@@ -6337,11 +6201,11 @@
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F75" s="29"/>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H75" s="29"/>
@@ -6354,7 +6218,7 @@
       <c r="M75" s="29"/>
       <c r="N75" s="30"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>311</v>
       </c>
@@ -6363,11 +6227,11 @@
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F76" s="29"/>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H76" s="29"/>
@@ -6380,7 +6244,7 @@
       <c r="M76" s="29"/>
       <c r="N76" s="30"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>312</v>
       </c>
@@ -6389,11 +6253,11 @@
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F77" s="29"/>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H77" s="29"/>
@@ -6406,7 +6270,7 @@
       <c r="M77" s="29"/>
       <c r="N77" s="30"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
         <v>323</v>
       </c>
@@ -6415,11 +6279,11 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F78" s="29"/>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H78" s="29"/>
@@ -6432,7 +6296,7 @@
       <c r="M78" s="29"/>
       <c r="N78" s="30"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
         <v>319</v>
       </c>
@@ -6441,11 +6305,11 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F79" s="29"/>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H79" s="29"/>
@@ -6458,7 +6322,7 @@
       <c r="M79" s="29"/>
       <c r="N79" s="30"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
         <v>317</v>
       </c>
@@ -6467,11 +6331,11 @@
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F80" s="29"/>
-      <c r="G80" s="37" t="s">
+      <c r="G80" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H80" s="29"/>
@@ -6484,7 +6348,7 @@
       <c r="M80" s="29"/>
       <c r="N80" s="30"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>321</v>
       </c>
@@ -6493,11 +6357,11 @@
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F81" s="29"/>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H81" s="29"/>
@@ -6510,7 +6374,7 @@
       <c r="M81" s="29"/>
       <c r="N81" s="30"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
         <v>386</v>
       </c>
@@ -6519,11 +6383,11 @@
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="35" t="s">
         <v>287</v>
       </c>
       <c r="F82" s="29"/>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H82" s="29"/>
@@ -6536,7 +6400,7 @@
       <c r="M82" s="29"/>
       <c r="N82" s="30"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>387</v>
       </c>
@@ -6545,11 +6409,11 @@
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="35" t="s">
         <v>287</v>
       </c>
       <c r="F83" s="29"/>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H83" s="29"/>
@@ -6562,7 +6426,7 @@
       <c r="M83" s="29"/>
       <c r="N83" s="30"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>388</v>
       </c>
@@ -6571,11 +6435,11 @@
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>287</v>
       </c>
       <c r="F84" s="29"/>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="36" t="s">
         <v>304</v>
       </c>
       <c r="H84" s="29"/>
@@ -6588,14 +6452,14 @@
       <c r="M84" s="29"/>
       <c r="N84" s="30"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
-      <c r="E85" s="38"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="32"/>
-      <c r="G85" s="38"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="32"/>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
@@ -6604,16 +6468,16 @@
       <c r="M85" s="32"/>
       <c r="N85" s="33"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="32" t="s">
         <v>389</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
-      <c r="E86" s="38"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="32"/>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H86" s="32"/>
@@ -6624,16 +6488,16 @@
       <c r="M86" s="32"/>
       <c r="N86" s="33"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="31"/>
       <c r="B87" s="32" t="s">
         <v>390</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
-      <c r="E87" s="38"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="32"/>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H87" s="32"/>
@@ -6644,16 +6508,16 @@
       <c r="M87" s="32"/>
       <c r="N87" s="33"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="31"/>
       <c r="B88" s="32" t="s">
         <v>391</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
-      <c r="E88" s="38"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="32"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H88" s="32"/>
@@ -6664,16 +6528,16 @@
       <c r="M88" s="32"/>
       <c r="N88" s="33"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="31"/>
       <c r="B89" s="32" t="s">
         <v>392</v>
       </c>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
-      <c r="E89" s="38"/>
+      <c r="E89" s="37"/>
       <c r="F89" s="32"/>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H89" s="32"/>
@@ -6684,16 +6548,16 @@
       <c r="M89" s="32"/>
       <c r="N89" s="33"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="31"/>
       <c r="B90" s="32" t="s">
         <v>393</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
-      <c r="E90" s="38"/>
+      <c r="E90" s="37"/>
       <c r="F90" s="32"/>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H90" s="32"/>
@@ -6704,16 +6568,16 @@
       <c r="M90" s="32"/>
       <c r="N90" s="33"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="31"/>
       <c r="B91" s="32" t="s">
         <v>394</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
-      <c r="E91" s="38"/>
+      <c r="E91" s="37"/>
       <c r="F91" s="32"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H91" s="32"/>
@@ -6724,16 +6588,16 @@
       <c r="M91" s="32"/>
       <c r="N91" s="33"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="31"/>
       <c r="B92" s="32" t="s">
         <v>395</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
-      <c r="E92" s="38"/>
+      <c r="E92" s="37"/>
       <c r="F92" s="32"/>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H92" s="32"/>
@@ -6744,16 +6608,16 @@
       <c r="M92" s="32"/>
       <c r="N92" s="33"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="31"/>
       <c r="B93" s="32" t="s">
         <v>396</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
-      <c r="E93" s="38"/>
+      <c r="E93" s="37"/>
       <c r="F93" s="32"/>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H93" s="32"/>
@@ -6764,16 +6628,16 @@
       <c r="M93" s="32"/>
       <c r="N93" s="33"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="31"/>
       <c r="B94" s="32" t="s">
         <v>397</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
-      <c r="E94" s="38"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="32"/>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H94" s="32"/>
@@ -6784,16 +6648,16 @@
       <c r="M94" s="32"/>
       <c r="N94" s="33"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="31"/>
       <c r="B95" s="32" t="s">
         <v>398</v>
       </c>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
-      <c r="E95" s="38"/>
+      <c r="E95" s="37"/>
       <c r="F95" s="32"/>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="37" t="s">
         <v>399</v>
       </c>
       <c r="H95" s="32"/>
@@ -6821,17 +6685,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>403</v>
       </c>
@@ -6848,7 +6712,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -6863,7 +6727,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -6878,7 +6742,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -6893,7 +6757,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>407</v>
       </c>
@@ -6919,7 +6783,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -6939,7 +6803,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2</v>
       </c>
@@ -6959,7 +6823,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -6979,7 +6843,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>4</v>
       </c>
@@ -6999,7 +6863,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -7019,7 +6883,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -7039,7 +6903,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>7</v>
       </c>
@@ -7076,37 +6940,37 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>400</v>
       </c>
@@ -7129,7 +6993,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>403</v>
       </c>
@@ -7149,7 +7013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
@@ -7166,7 +7030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>406</v>
       </c>
@@ -7183,7 +7047,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>404</v>
       </c>
@@ -7200,7 +7064,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>405</v>
       </c>
@@ -7214,7 +7078,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>412</v>
       </c>
@@ -7222,7 +7086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>432</v>
       </c>
@@ -7230,7 +7094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>433</v>
       </c>
@@ -7255,91 +7119,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7359,7 +7224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
@@ -7379,7 +7244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7399,7 +7264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -7419,7 +7284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7433,7 +7298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -7447,7 +7312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>28</v>
       </c>
@@ -7455,7 +7320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7469,7 +7334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
@@ -7483,7 +7348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7497,7 +7362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7511,7 +7376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -7525,7 +7390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -7533,7 +7398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -7547,7 +7412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -7555,7 +7420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7569,7 +7434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7583,7 +7448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7597,7 +7462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -7605,7 +7470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
@@ -7613,614 +7478,470 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="G38" s="63"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="67">
+        <v>5</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="68">
+        <v>4</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="69">
+        <v>3</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="70">
+        <v>2</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="71">
+        <v>1</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="72">
+        <v>0</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="G44" s="39"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C47" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="58" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="59" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="F39" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="57" t="s">
+      <c r="B50" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="C50" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57" t="s">
+      <c r="B51" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="F40" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
+      <c r="C51" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="B41" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="F41" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
+      <c r="B52" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B58" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C42" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="G42" s="60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="C43" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="59" t="s">
-        <v>456</v>
-      </c>
-      <c r="F43" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="G43" s="61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="58" t="s">
+      <c r="B59" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="58" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" s="41" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="59" t="s">
-        <v>460</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57" t="s">
-        <v>462</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G51" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G53" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C54" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G55" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G56" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G57" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G59" s="57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
-        <v>469</v>
-      </c>
-      <c r="B61" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="64">
-        <v>1</v>
-      </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="62" t="s">
-        <v>469</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="66">
-        <v>5</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="68">
-        <v>4</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>473</v>
-      </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="70">
-        <v>3</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="72">
-        <v>2</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>475</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="74">
-        <v>1</v>
-      </c>
-      <c r="B68" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-    </row>
-    <row r="69" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="76">
-        <v>0</v>
-      </c>
-      <c r="B69" s="77" t="s">
-        <v>477</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="62"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8229,13 +7950,14 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="6">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8248,55 +7970,55 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -8304,7 +8026,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8315,7 +8037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
@@ -8326,7 +8048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8337,7 +8059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8348,7 +8070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8359,7 +8081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8370,7 +8092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8378,7 +8100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8386,7 +8108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -8394,7 +8116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -8402,7 +8124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -8410,7 +8132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -8418,7 +8140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -8445,104 +8167,104 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
     </row>
   </sheetData>
@@ -8561,10 +8283,10 @@
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -8572,49 +8294,49 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -8634,7 +8356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -8654,7 +8376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>300</v>
       </c>
@@ -8674,7 +8396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -8691,7 +8413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -8708,7 +8430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -8725,7 +8447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -8739,7 +8461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8747,7 +8469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -8776,108 +8498,108 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8895,56 +8617,56 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -8964,7 +8686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
@@ -8984,7 +8706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -9004,7 +8726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -9024,7 +8746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -9044,7 +8766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
@@ -9064,7 +8786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>70</v>
       </c>
@@ -9078,7 +8800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -9098,7 +8820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -9118,7 +8840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -9138,7 +8860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -9158,7 +8880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -9178,7 +8900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>84</v>
       </c>
@@ -9198,7 +8920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9212,7 +8934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>88</v>
       </c>
@@ -9226,7 +8948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -9240,7 +8962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>91</v>
       </c>
@@ -9248,7 +8970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -9256,7 +8978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -9264,7 +8986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -9295,165 +9017,165 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -9467,7 +9189,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -9481,7 +9203,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -9511,27 +9233,27 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -9584,7 +9306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -9615,7 +9337,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>124</v>
       </c>
@@ -9646,7 +9368,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -9677,7 +9399,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
@@ -9708,7 +9430,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
@@ -9739,7 +9461,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>134</v>
       </c>
@@ -9770,7 +9492,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>135</v>
       </c>
@@ -9801,7 +9523,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>138</v>
       </c>
@@ -9832,7 +9554,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
@@ -9863,7 +9585,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
@@ -9894,7 +9616,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -9925,7 +9647,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>146</v>
       </c>
@@ -9956,7 +9678,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>149</v>
       </c>
@@ -9987,7 +9709,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>152</v>
       </c>
@@ -10018,7 +9740,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>155</v>
       </c>
@@ -10049,7 +9771,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>158</v>
       </c>
@@ -10080,7 +9802,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>161</v>
       </c>
@@ -10111,7 +9833,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>164</v>
       </c>
@@ -10142,7 +9864,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>167</v>
       </c>
@@ -10173,7 +9895,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>170</v>
       </c>
@@ -10204,7 +9926,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>173</v>
       </c>
@@ -10235,7 +9957,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>176</v>
       </c>
@@ -10266,7 +9988,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>179</v>
       </c>
@@ -10297,7 +10019,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>182</v>
       </c>
@@ -10328,7 +10050,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>185</v>
       </c>
@@ -10359,7 +10081,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>188</v>
       </c>
@@ -10390,7 +10112,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>191</v>
       </c>
@@ -10421,7 +10143,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>194</v>
       </c>
@@ -10452,7 +10174,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>197</v>
       </c>
@@ -10483,7 +10205,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>200</v>
       </c>
@@ -10514,7 +10236,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>203</v>
       </c>
@@ -10545,7 +10267,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>204</v>
       </c>
@@ -10576,7 +10298,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>205</v>
       </c>
@@ -10607,7 +10329,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>206</v>
       </c>
@@ -10638,7 +10360,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>207</v>
       </c>
@@ -10669,7 +10391,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>211</v>
       </c>
@@ -10700,7 +10422,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>212</v>
       </c>
@@ -10731,7 +10453,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>213</v>
       </c>
@@ -10762,7 +10484,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -10793,7 +10515,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>215</v>
       </c>
@@ -10824,7 +10546,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>216</v>
       </c>
@@ -10855,7 +10577,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>219</v>
       </c>
@@ -10886,7 +10608,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>221</v>
       </c>
@@ -10917,7 +10639,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>222</v>
       </c>
@@ -10948,7 +10670,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>224</v>
       </c>
@@ -10979,7 +10701,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>227</v>
       </c>
@@ -11016,7 +10738,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>230</v>
       </c>
@@ -11047,7 +10769,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>232</v>
       </c>
@@ -11078,7 +10800,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>234</v>
       </c>
@@ -11109,7 +10831,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>236</v>
       </c>
@@ -11140,7 +10862,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>238</v>
       </c>
@@ -11171,7 +10893,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>240</v>
       </c>
@@ -11200,7 +10922,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>242</v>
       </c>
@@ -11229,7 +10951,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>243</v>
       </c>
@@ -11258,7 +10980,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>244</v>
       </c>
@@ -11287,7 +11009,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>246</v>
       </c>
@@ -11316,7 +11038,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>248</v>
       </c>
@@ -11345,7 +11067,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>249</v>
       </c>
@@ -11374,7 +11096,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>250</v>
       </c>
@@ -11403,7 +11125,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>252</v>
       </c>
@@ -11432,7 +11154,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
@@ -11461,7 +11183,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>255</v>
       </c>
@@ -11490,7 +11212,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>256</v>
       </c>
@@ -11519,7 +11241,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>257</v>
       </c>
@@ -11548,7 +11270,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>259</v>
       </c>
@@ -11577,7 +11299,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>261</v>
       </c>
@@ -11606,7 +11328,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>262</v>
       </c>
@@ -11635,7 +11357,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>264</v>
       </c>
@@ -11664,7 +11386,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>265</v>
       </c>
@@ -11693,7 +11415,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>266</v>
       </c>
@@ -11722,7 +11444,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>267</v>
       </c>
@@ -11751,7 +11473,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>269</v>
       </c>
@@ -11780,7 +11502,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>271</v>
       </c>
@@ -11809,7 +11531,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>273</v>
       </c>
@@ -11838,7 +11560,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>274</v>
       </c>
@@ -11867,7 +11589,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>275</v>
       </c>
@@ -11896,7 +11618,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>276</v>
       </c>
@@ -11925,7 +11647,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>277</v>
       </c>
@@ -11954,7 +11676,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>279</v>
       </c>
@@ -11983,7 +11705,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>281</v>
       </c>
@@ -12012,7 +11734,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>282</v>
       </c>
@@ -12041,7 +11763,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>283</v>
       </c>
@@ -12070,7 +11792,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>285</v>
       </c>
@@ -12097,7 +11819,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>288</v>
       </c>
@@ -12124,7 +11846,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>289</v>
       </c>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\Database Tables Outlines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84218E5D-7A0F-4081-8C52-E7303ABC5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DFE68-2EED-7E47-A83F-A55B94F2F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="468">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t>not_registered</t>
+  </si>
+  <si>
+    <t>ç</t>
   </si>
 </sst>
 </file>
@@ -2255,6 +2258,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2305,37 +2339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3593,6 +3596,40 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}" name="Table15526" displayName="Table15526" ref="D9:E14" totalsRowShown="0">
+  <autoFilter ref="D9:E14" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4D2D2720-BA12-4B4C-A04F-B3D2DB0B2F3D}" name="sales_details"/>
+    <tableColumn id="2" xr3:uid="{6967D3E5-8319-DA42-BF2B-F54307F6206C}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}" name="Table91527" displayName="Table91527" ref="G9:I15" totalsRowShown="0">
+  <autoFilter ref="G9:I15" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8D42ECBB-047F-0C4A-986A-D29CDD20DCDF}" name="prod_sales"/>
+    <tableColumn id="2" xr3:uid="{41E7D70D-B061-2D4C-ADBD-E7010CB23182}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{32D12888-6453-7543-9448-D625A827EC8B}" name="ç"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}" name="Table11" displayName="Table11" ref="A7:B15" totalsRowShown="0">
+  <autoFilter ref="A7:B15" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A70E2D6B-6988-49C6-B102-5D940C03D8A4}" name="invoice"/>
+    <tableColumn id="2" xr3:uid="{4D9C4735-0D32-45DB-B042-737ABFC2EBD5}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}" name="Table155" displayName="Table155" ref="D7:E12" totalsRowShown="0">
   <autoFilter ref="D7:E12" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}"/>
   <tableColumns count="2">
@@ -3603,18 +3640,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:H13" totalsRowShown="0">
-  <autoFilter ref="G7:H13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
-  <tableColumns count="2">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:I13" totalsRowShown="0">
+  <autoFilter ref="G7:I13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5281FA9C-99EC-4D45-889C-8643F65C7BB9}" name="prod_sales"/>
     <tableColumn id="2" xr3:uid="{B556F5FC-DC14-4F40-B8DB-8BBDAC8FDFC1}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{FA4E6681-908E-5F4C-AB2A-874A62115624}" name="ç"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
   <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
   <tableColumns count="2">
@@ -3625,7 +3663,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}" name="Table10" displayName="Table10" ref="D21:E23" totalsRowShown="0">
   <autoFilter ref="D21:E23" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}"/>
   <tableColumns count="2">
@@ -3636,7 +3674,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
   <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
   <tableColumns count="2">
@@ -3647,7 +3685,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
   <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
   <tableColumns count="2">
@@ -3658,7 +3696,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}" name="Table15" displayName="Table15" ref="G14:H19" totalsRowShown="0">
   <autoFilter ref="G14:H19" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}"/>
   <tableColumns count="2">
@@ -3669,7 +3707,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CBDE4DA-7C0B-4503-8EDB-ADF0A7222A1A}" name="Table1" displayName="Table1" ref="A12:B17" totalsRowShown="0">
+  <autoFilter ref="A12:B17" xr:uid="{3CBDE4DA-7C0B-4503-8EDB-ADF0A7222A1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6C99A95B-B00D-4300-B101-D3D75563C294}" name="user_login"/>
+    <tableColumn id="2" xr3:uid="{C0FF947C-9527-4405-AB17-B6D40DD8B496}" name="Datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
@@ -3698,7 +3747,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:N95" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N85">
@@ -3724,7 +3773,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
@@ -3738,18 +3787,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CBDE4DA-7C0B-4503-8EDB-ADF0A7222A1A}" name="Table1" displayName="Table1" ref="A12:B17" totalsRowShown="0">
-  <autoFilter ref="A12:B17" xr:uid="{3CBDE4DA-7C0B-4503-8EDB-ADF0A7222A1A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6C99A95B-B00D-4300-B101-D3D75563C294}" name="user_login"/>
-    <tableColumn id="2" xr3:uid="{C0FF947C-9527-4405-AB17-B6D40DD8B496}" name="Datatype"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
@@ -3766,7 +3804,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
   <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
   <tableColumns count="2">
@@ -3777,7 +3815,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
   <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
   <tableColumns count="2">
@@ -3788,7 +3826,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}" name="Table22" displayName="Table22" ref="G5:H9" totalsRowShown="0">
   <autoFilter ref="G5:H9" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}"/>
   <tableColumns count="2">
@@ -3866,11 +3904,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}" name="Table11" displayName="Table11" ref="A7:B15" totalsRowShown="0">
-  <autoFilter ref="A7:B15" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}" name="Table1119" displayName="Table1119" ref="A9:B17" totalsRowShown="0">
+  <autoFilter ref="A9:B17" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A70E2D6B-6988-49C6-B102-5D940C03D8A4}" name="invoice"/>
-    <tableColumn id="2" xr3:uid="{4D9C4735-0D32-45DB-B042-737ABFC2EBD5}" name="datatype"/>
+    <tableColumn id="1" xr3:uid="{544EBB55-3AE7-8449-951E-19BAB458A288}" name="invoice"/>
+    <tableColumn id="2" xr3:uid="{687EF95B-432F-6649-A88D-8C791FCDD2A4}" name="datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4179,13 +4217,13 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4209,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4229,28 +4267,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>301</v>
       </c>
@@ -4294,7 +4332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>346</v>
       </c>
@@ -4320,7 +4358,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>338</v>
       </c>
@@ -4346,7 +4384,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>339</v>
       </c>
@@ -4372,7 +4410,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>340</v>
       </c>
@@ -4398,7 +4436,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>341</v>
       </c>
@@ -4424,7 +4462,7 @@
       <c r="M6" s="29"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>342</v>
       </c>
@@ -4450,7 +4488,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>343</v>
       </c>
@@ -4476,7 +4514,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>344</v>
       </c>
@@ -4502,7 +4540,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>345</v>
       </c>
@@ -4528,7 +4566,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>358</v>
       </c>
@@ -4554,7 +4592,7 @@
       <c r="M11" s="29"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>363</v>
       </c>
@@ -4580,7 +4618,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>309</v>
       </c>
@@ -4606,7 +4644,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>361</v>
       </c>
@@ -4632,7 +4670,7 @@
       <c r="M14" s="29"/>
       <c r="N14" s="30"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>362</v>
       </c>
@@ -4658,7 +4696,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>310</v>
       </c>
@@ -4684,7 +4722,7 @@
       <c r="M16" s="29"/>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>360</v>
       </c>
@@ -4710,7 +4748,7 @@
       <c r="M17" s="29"/>
       <c r="N17" s="30"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>347</v>
       </c>
@@ -4736,7 +4774,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>364</v>
       </c>
@@ -4762,7 +4800,7 @@
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>365</v>
       </c>
@@ -4788,7 +4826,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>356</v>
       </c>
@@ -4814,7 +4852,7 @@
       <c r="M21" s="29"/>
       <c r="N21" s="30"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>355</v>
       </c>
@@ -4840,7 +4878,7 @@
       <c r="M22" s="29"/>
       <c r="N22" s="30"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>357</v>
       </c>
@@ -4866,7 +4904,7 @@
       <c r="M23" s="29"/>
       <c r="N23" s="30"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>367</v>
       </c>
@@ -4892,7 +4930,7 @@
       <c r="M24" s="29"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>368</v>
       </c>
@@ -4918,7 +4956,7 @@
       <c r="M25" s="29"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>359</v>
       </c>
@@ -4944,7 +4982,7 @@
       <c r="M26" s="29"/>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>366</v>
       </c>
@@ -4970,7 +5008,7 @@
       <c r="M27" s="29"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>369</v>
       </c>
@@ -4996,7 +5034,7 @@
       <c r="M28" s="29"/>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>370</v>
       </c>
@@ -5022,7 +5060,7 @@
       <c r="M29" s="29"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>376</v>
       </c>
@@ -5048,7 +5086,7 @@
       <c r="M30" s="29"/>
       <c r="N30" s="30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>377</v>
       </c>
@@ -5074,7 +5112,7 @@
       <c r="M31" s="29"/>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>378</v>
       </c>
@@ -5100,7 +5138,7 @@
       <c r="M32" s="29"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>379</v>
       </c>
@@ -5126,7 +5164,7 @@
       <c r="M33" s="29"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>380</v>
       </c>
@@ -5152,7 +5190,7 @@
       <c r="M34" s="29"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>381</v>
       </c>
@@ -5178,7 +5216,7 @@
       <c r="M35" s="29"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>382</v>
       </c>
@@ -5204,7 +5242,7 @@
       <c r="M36" s="29"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>371</v>
       </c>
@@ -5230,7 +5268,7 @@
       <c r="M37" s="29"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>372</v>
       </c>
@@ -5256,7 +5294,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>373</v>
       </c>
@@ -5282,7 +5320,7 @@
       <c r="M39" s="29"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>374</v>
       </c>
@@ -5308,7 +5346,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="30"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>384</v>
       </c>
@@ -5334,7 +5372,7 @@
       <c r="M41" s="29"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>383</v>
       </c>
@@ -5360,7 +5398,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>385</v>
       </c>
@@ -5386,7 +5424,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>330</v>
       </c>
@@ -5412,7 +5450,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>329</v>
       </c>
@@ -5438,7 +5476,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>313</v>
       </c>
@@ -5464,7 +5502,7 @@
       <c r="M46" s="29"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>314</v>
       </c>
@@ -5490,7 +5528,7 @@
       <c r="M47" s="29"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>332</v>
       </c>
@@ -5516,7 +5554,7 @@
       <c r="M48" s="29"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>316</v>
       </c>
@@ -5542,7 +5580,7 @@
       <c r="M49" s="29"/>
       <c r="N49" s="30"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>320</v>
       </c>
@@ -5568,7 +5606,7 @@
       <c r="M50" s="29"/>
       <c r="N50" s="30"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>305</v>
       </c>
@@ -5594,7 +5632,7 @@
       <c r="M51" s="29"/>
       <c r="N51" s="30"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>308</v>
       </c>
@@ -5620,7 +5658,7 @@
       <c r="M52" s="29"/>
       <c r="N52" s="30"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>331</v>
       </c>
@@ -5646,7 +5684,7 @@
       <c r="M53" s="29"/>
       <c r="N53" s="30"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>322</v>
       </c>
@@ -5672,7 +5710,7 @@
       <c r="M54" s="29"/>
       <c r="N54" s="30"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>349</v>
       </c>
@@ -5698,7 +5736,7 @@
       <c r="M55" s="29"/>
       <c r="N55" s="30"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>350</v>
       </c>
@@ -5724,7 +5762,7 @@
       <c r="M56" s="29"/>
       <c r="N56" s="30"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>351</v>
       </c>
@@ -5750,7 +5788,7 @@
       <c r="M57" s="29"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>352</v>
       </c>
@@ -5776,7 +5814,7 @@
       <c r="M58" s="29"/>
       <c r="N58" s="30"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>353</v>
       </c>
@@ -5802,7 +5840,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="30"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>354</v>
       </c>
@@ -5828,7 +5866,7 @@
       <c r="M60" s="29"/>
       <c r="N60" s="30"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>333</v>
       </c>
@@ -5854,7 +5892,7 @@
       <c r="M61" s="29"/>
       <c r="N61" s="30"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>334</v>
       </c>
@@ -5880,7 +5918,7 @@
       <c r="M62" s="29"/>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>335</v>
       </c>
@@ -5906,7 +5944,7 @@
       <c r="M63" s="29"/>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>336</v>
       </c>
@@ -5932,7 +5970,7 @@
       <c r="M64" s="29"/>
       <c r="N64" s="30"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>337</v>
       </c>
@@ -5958,7 +5996,7 @@
       <c r="M65" s="29"/>
       <c r="N65" s="30"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>315</v>
       </c>
@@ -5984,7 +6022,7 @@
       <c r="M66" s="29"/>
       <c r="N66" s="30"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>328</v>
       </c>
@@ -6010,7 +6048,7 @@
       <c r="M67" s="29"/>
       <c r="N67" s="30"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>327</v>
       </c>
@@ -6036,7 +6074,7 @@
       <c r="M68" s="29"/>
       <c r="N68" s="30"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>318</v>
       </c>
@@ -6062,7 +6100,7 @@
       <c r="M69" s="29"/>
       <c r="N69" s="30"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>318</v>
       </c>
@@ -6088,7 +6126,7 @@
       <c r="M70" s="29"/>
       <c r="N70" s="30"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>324</v>
       </c>
@@ -6114,7 +6152,7 @@
       <c r="M71" s="29"/>
       <c r="N71" s="30"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>306</v>
       </c>
@@ -6140,7 +6178,7 @@
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>307</v>
       </c>
@@ -6166,7 +6204,7 @@
       <c r="M73" s="29"/>
       <c r="N73" s="30"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>326</v>
       </c>
@@ -6192,7 +6230,7 @@
       <c r="M74" s="29"/>
       <c r="N74" s="30"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>311</v>
       </c>
@@ -6218,7 +6256,7 @@
       <c r="M75" s="29"/>
       <c r="N75" s="30"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>311</v>
       </c>
@@ -6244,7 +6282,7 @@
       <c r="M76" s="29"/>
       <c r="N76" s="30"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>312</v>
       </c>
@@ -6270,7 +6308,7 @@
       <c r="M77" s="29"/>
       <c r="N77" s="30"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>323</v>
       </c>
@@ -6296,7 +6334,7 @@
       <c r="M78" s="29"/>
       <c r="N78" s="30"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>319</v>
       </c>
@@ -6322,7 +6360,7 @@
       <c r="M79" s="29"/>
       <c r="N79" s="30"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>317</v>
       </c>
@@ -6348,7 +6386,7 @@
       <c r="M80" s="29"/>
       <c r="N80" s="30"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>321</v>
       </c>
@@ -6374,7 +6412,7 @@
       <c r="M81" s="29"/>
       <c r="N81" s="30"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>386</v>
       </c>
@@ -6400,7 +6438,7 @@
       <c r="M82" s="29"/>
       <c r="N82" s="30"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>387</v>
       </c>
@@ -6426,7 +6464,7 @@
       <c r="M83" s="29"/>
       <c r="N83" s="30"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>388</v>
       </c>
@@ -6452,7 +6490,7 @@
       <c r="M84" s="29"/>
       <c r="N84" s="30"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -6468,7 +6506,7 @@
       <c r="M85" s="32"/>
       <c r="N85" s="33"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="32" t="s">
         <v>389</v>
@@ -6488,7 +6526,7 @@
       <c r="M86" s="32"/>
       <c r="N86" s="33"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="32" t="s">
         <v>390</v>
@@ -6508,7 +6546,7 @@
       <c r="M87" s="32"/>
       <c r="N87" s="33"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="32" t="s">
         <v>391</v>
@@ -6528,7 +6566,7 @@
       <c r="M88" s="32"/>
       <c r="N88" s="33"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="32" t="s">
         <v>392</v>
@@ -6548,7 +6586,7 @@
       <c r="M89" s="32"/>
       <c r="N89" s="33"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="32" t="s">
         <v>393</v>
@@ -6568,7 +6606,7 @@
       <c r="M90" s="32"/>
       <c r="N90" s="33"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="32" t="s">
         <v>394</v>
@@ -6588,7 +6626,7 @@
       <c r="M91" s="32"/>
       <c r="N91" s="33"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="32" t="s">
         <v>395</v>
@@ -6608,7 +6646,7 @@
       <c r="M92" s="32"/>
       <c r="N92" s="33"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="32" t="s">
         <v>396</v>
@@ -6628,7 +6666,7 @@
       <c r="M93" s="32"/>
       <c r="N93" s="33"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="32" t="s">
         <v>397</v>
@@ -6648,7 +6686,7 @@
       <c r="M94" s="32"/>
       <c r="N94" s="33"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="32" t="s">
         <v>398</v>
@@ -6685,17 +6723,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>403</v>
       </c>
@@ -6712,7 +6750,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -6727,7 +6765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -6742,7 +6780,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -6757,7 +6795,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>407</v>
       </c>
@@ -6783,7 +6821,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -6803,7 +6841,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>2</v>
       </c>
@@ -6823,7 +6861,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -6843,7 +6881,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>4</v>
       </c>
@@ -6863,7 +6901,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -6883,7 +6921,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -6903,7 +6941,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>7</v>
       </c>
@@ -6940,37 +6978,37 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>400</v>
       </c>
@@ -6993,7 +7031,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>403</v>
       </c>
@@ -7013,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>91</v>
       </c>
@@ -7030,7 +7068,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>406</v>
       </c>
@@ -7047,7 +7085,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>404</v>
       </c>
@@ -7064,7 +7102,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>405</v>
       </c>
@@ -7078,7 +7116,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>412</v>
       </c>
@@ -7086,7 +7124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>432</v>
       </c>
@@ -7094,7 +7132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>433</v>
       </c>
@@ -7119,92 +7157,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7224,7 +7262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
@@ -7244,7 +7282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7264,7 +7302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7298,7 +7336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -7312,7 +7350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>28</v>
       </c>
@@ -7320,7 +7358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7334,7 +7372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
@@ -7348,7 +7386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7362,7 +7400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7376,7 +7414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -7390,7 +7428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -7398,7 +7436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -7412,7 +7450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -7420,7 +7458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7434,7 +7472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7448,7 +7486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7462,7 +7500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -7470,7 +7508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
@@ -7478,7 +7516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>444</v>
       </c>
@@ -7489,7 +7527,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -7498,7 +7536,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>2</v>
       </c>
@@ -7509,15 +7547,15 @@
         <v>445</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>461</v>
       </c>
@@ -7528,15 +7566,15 @@
         <v>446</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="67">
+      <c r="E39" s="50">
         <v>5</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="G39" s="61"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>447</v>
       </c>
@@ -7547,15 +7585,15 @@
         <v>446</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="68">
+      <c r="E40" s="51">
         <v>4</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="G40" s="61"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
         <v>449</v>
       </c>
@@ -7566,15 +7604,15 @@
         <v>446</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="69">
+      <c r="E41" s="52">
         <v>3</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="G41" s="61"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>460</v>
       </c>
@@ -7585,15 +7623,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="70">
+      <c r="E42" s="53">
         <v>2</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="53" t="s">
         <v>464</v>
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>27</v>
       </c>
@@ -7604,28 +7642,28 @@
         <v>446</v>
       </c>
       <c r="D43" s="39"/>
-      <c r="E43" s="71">
+      <c r="E43" s="54">
         <v>1</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="54" t="s">
         <v>465</v>
       </c>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="72">
+      <c r="E44" s="55">
         <v>0</v>
       </c>
-      <c r="F44" s="72" t="s">
+      <c r="F44" s="55" t="s">
         <v>466</v>
       </c>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -7634,7 +7672,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -7643,7 +7681,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>9</v>
       </c>
@@ -7654,11 +7692,11 @@
         <v>445</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
         <v>462</v>
       </c>
@@ -7669,11 +7707,11 @@
         <v>446</v>
       </c>
       <c r="D48" s="39"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>91</v>
       </c>
@@ -7684,11 +7722,11 @@
         <v>446</v>
       </c>
       <c r="D49" s="39"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
         <v>450</v>
       </c>
@@ -7699,11 +7737,11 @@
         <v>446</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>452</v>
       </c>
@@ -7714,11 +7752,11 @@
         <v>446</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
         <v>453</v>
       </c>
@@ -7729,11 +7767,11 @@
         <v>446</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
         <v>29</v>
       </c>
@@ -7744,11 +7782,11 @@
         <v>446</v>
       </c>
       <c r="D53" s="39"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
         <v>31</v>
       </c>
@@ -7759,11 +7797,11 @@
         <v>446</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>33</v>
       </c>
@@ -7774,11 +7812,11 @@
         <v>446</v>
       </c>
       <c r="D55" s="39"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
         <v>34</v>
       </c>
@@ -7789,11 +7827,11 @@
         <v>446</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
         <v>35</v>
       </c>
@@ -7804,11 +7842,11 @@
         <v>446</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
         <v>454</v>
       </c>
@@ -7819,11 +7857,11 @@
         <v>446</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>455</v>
       </c>
@@ -7834,11 +7872,11 @@
         <v>446</v>
       </c>
       <c r="D59" s="39"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
         <v>37</v>
       </c>
@@ -7849,20 +7887,20 @@
         <v>446</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="62"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -7871,73 +7909,73 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="64"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="64"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="64"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="64"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="64"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="64"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39"/>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
@@ -7970,55 +8008,55 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -8026,7 +8064,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8037,7 +8075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
@@ -8048,7 +8086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8059,7 +8097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8070,7 +8108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8081,7 +8119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8092,7 +8130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8100,7 +8138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8108,7 +8146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -8116,7 +8154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -8124,7 +8162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -8132,7 +8170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -8140,7 +8178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -8161,132 +8199,251 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A01C55C-4E51-4874-BC12-52D39A06ACCB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -8294,49 +8451,50 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -8355,8 +8513,11 @@
       <c r="H7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -8376,7 +8537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>300</v>
       </c>
@@ -8396,7 +8557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -8413,7 +8574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -8430,7 +8591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -8447,7 +8608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -8461,7 +8622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8469,7 +8630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -8498,108 +8659,108 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8617,56 +8778,56 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -8686,7 +8847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
@@ -8706,7 +8867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -8726,7 +8887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -8746,7 +8907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -8766,7 +8927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
@@ -8786,7 +8947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>70</v>
       </c>
@@ -8800,7 +8961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -8820,7 +8981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -8840,7 +9001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -8860,7 +9021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -8880,7 +9041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -8900,7 +9061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>84</v>
       </c>
@@ -8920,7 +9081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -8934,7 +9095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>88</v>
       </c>
@@ -8948,7 +9109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -8962,7 +9123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>91</v>
       </c>
@@ -8970,7 +9131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -8978,7 +9139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -8986,7 +9147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -9017,165 +9178,165 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -9189,7 +9350,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -9203,7 +9364,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -9233,27 +9394,27 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -9306,7 +9467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -9337,7 +9498,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>124</v>
       </c>
@@ -9368,7 +9529,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -9399,7 +9560,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
@@ -9430,7 +9591,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
@@ -9461,7 +9622,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>134</v>
       </c>
@@ -9492,7 +9653,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>135</v>
       </c>
@@ -9523,7 +9684,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>138</v>
       </c>
@@ -9554,7 +9715,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
@@ -9585,7 +9746,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
@@ -9616,7 +9777,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -9647,7 +9808,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>146</v>
       </c>
@@ -9678,7 +9839,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>149</v>
       </c>
@@ -9709,7 +9870,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>152</v>
       </c>
@@ -9740,7 +9901,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>155</v>
       </c>
@@ -9771,7 +9932,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>158</v>
       </c>
@@ -9802,7 +9963,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>161</v>
       </c>
@@ -9833,7 +9994,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>164</v>
       </c>
@@ -9864,7 +10025,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>167</v>
       </c>
@@ -9895,7 +10056,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>170</v>
       </c>
@@ -9926,7 +10087,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>173</v>
       </c>
@@ -9957,7 +10118,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>176</v>
       </c>
@@ -9988,7 +10149,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>179</v>
       </c>
@@ -10019,7 +10180,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>182</v>
       </c>
@@ -10050,7 +10211,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>185</v>
       </c>
@@ -10081,7 +10242,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>188</v>
       </c>
@@ -10112,7 +10273,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>191</v>
       </c>
@@ -10143,7 +10304,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>194</v>
       </c>
@@ -10174,7 +10335,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>197</v>
       </c>
@@ -10205,7 +10366,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>200</v>
       </c>
@@ -10236,7 +10397,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>203</v>
       </c>
@@ -10267,7 +10428,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>204</v>
       </c>
@@ -10298,7 +10459,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>205</v>
       </c>
@@ -10329,7 +10490,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>206</v>
       </c>
@@ -10360,7 +10521,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>207</v>
       </c>
@@ -10391,7 +10552,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>211</v>
       </c>
@@ -10422,7 +10583,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>212</v>
       </c>
@@ -10453,7 +10614,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>213</v>
       </c>
@@ -10484,7 +10645,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -10515,7 +10676,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>215</v>
       </c>
@@ -10546,7 +10707,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>216</v>
       </c>
@@ -10577,7 +10738,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>219</v>
       </c>
@@ -10608,7 +10769,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>221</v>
       </c>
@@ -10639,7 +10800,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>222</v>
       </c>
@@ -10670,7 +10831,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>224</v>
       </c>
@@ -10701,7 +10862,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>227</v>
       </c>
@@ -10738,7 +10899,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>230</v>
       </c>
@@ -10769,7 +10930,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>232</v>
       </c>
@@ -10800,7 +10961,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>234</v>
       </c>
@@ -10831,7 +10992,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>236</v>
       </c>
@@ -10862,7 +11023,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>238</v>
       </c>
@@ -10893,7 +11054,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>240</v>
       </c>
@@ -10922,7 +11083,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>242</v>
       </c>
@@ -10951,7 +11112,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>243</v>
       </c>
@@ -10980,7 +11141,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>244</v>
       </c>
@@ -11009,7 +11170,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>246</v>
       </c>
@@ -11038,7 +11199,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>248</v>
       </c>
@@ -11067,7 +11228,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>249</v>
       </c>
@@ -11096,7 +11257,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>250</v>
       </c>
@@ -11125,7 +11286,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>252</v>
       </c>
@@ -11154,7 +11315,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
@@ -11183,7 +11344,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>255</v>
       </c>
@@ -11212,7 +11373,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>256</v>
       </c>
@@ -11241,7 +11402,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>257</v>
       </c>
@@ -11270,7 +11431,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>259</v>
       </c>
@@ -11299,7 +11460,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>261</v>
       </c>
@@ -11328,7 +11489,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>262</v>
       </c>
@@ -11357,7 +11518,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>264</v>
       </c>
@@ -11386,7 +11547,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>265</v>
       </c>
@@ -11415,7 +11576,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>266</v>
       </c>
@@ -11444,7 +11605,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>267</v>
       </c>
@@ -11473,7 +11634,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>269</v>
       </c>
@@ -11502,7 +11663,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>271</v>
       </c>
@@ -11531,7 +11692,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>273</v>
       </c>
@@ -11560,7 +11721,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>274</v>
       </c>
@@ -11589,7 +11750,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>275</v>
       </c>
@@ -11618,7 +11779,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>276</v>
       </c>
@@ -11647,7 +11808,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>277</v>
       </c>
@@ -11676,7 +11837,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>279</v>
       </c>
@@ -11705,7 +11866,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>281</v>
       </c>
@@ -11734,7 +11895,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>282</v>
       </c>
@@ -11763,7 +11924,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>283</v>
       </c>
@@ -11792,7 +11953,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>285</v>
       </c>
@@ -11819,7 +11980,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>288</v>
       </c>
@@ -11846,7 +12007,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>289</v>
       </c>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DFE68-2EED-7E47-A83F-A55B94F2F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECDF062-BB17-A24C-BEA0-F5704AE453E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="475">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -178,25 +178,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>matrix</t>
-  </si>
-  <si>
     <t>VDID</t>
   </si>
   <si>
-    <t>precor</t>
-  </si>
-  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>lifefitness</t>
-  </si>
-  <si>
-    <t>woodway</t>
-  </si>
-  <si>
-    <t>Rogue</t>
   </si>
   <si>
     <t>Ultra</t>
@@ -1704,6 +1689,42 @@
   </si>
   <si>
     <t>ç</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>role_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access </t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>ROLES_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">datatype </t>
+  </si>
+  <si>
+    <t>landging_page</t>
+  </si>
+  <si>
+    <t>ACCESS_ID</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2340,11 +2361,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3596,6 +3763,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}" name="Table3" displayName="Table3" ref="A7:B19" totalsRowShown="0">
+  <autoFilter ref="A7:B19" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4575348C-264F-4E2B-8EE4-C3278F9042D9}" name="vendor_data"/>
+    <tableColumn id="2" xr3:uid="{B0CCE0B4-11B6-4A27-A81B-74939D52DBAB}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}" name="Table1119" displayName="Table1119" ref="A9:B17" totalsRowShown="0">
+  <autoFilter ref="A9:B17" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{544EBB55-3AE7-8449-951E-19BAB458A288}" name="invoice"/>
+    <tableColumn id="2" xr3:uid="{687EF95B-432F-6649-A88D-8C791FCDD2A4}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}" name="Table15526" displayName="Table15526" ref="D9:E14" totalsRowShown="0">
   <autoFilter ref="D9:E14" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}"/>
   <tableColumns count="2">
@@ -3606,19 +3795,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}" name="Table91527" displayName="Table91527" ref="G9:I15" totalsRowShown="0">
   <autoFilter ref="G9:I15" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D42ECBB-047F-0C4A-986A-D29CDD20DCDF}" name="prod_sales"/>
     <tableColumn id="2" xr3:uid="{41E7D70D-B061-2D4C-ADBD-E7010CB23182}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{32D12888-6453-7543-9448-D625A827EC8B}" name="ç"/>
+    <tableColumn id="3" xr3:uid="{32D12888-6453-7543-9448-D625A827EC8B}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}" name="Table11" displayName="Table11" ref="A7:B15" totalsRowShown="0">
   <autoFilter ref="A7:B15" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}"/>
   <tableColumns count="2">
@@ -3629,7 +3818,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}" name="Table155" displayName="Table155" ref="D7:E12" totalsRowShown="0">
   <autoFilter ref="D7:E12" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}"/>
   <tableColumns count="2">
@@ -3640,7 +3829,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:I13" totalsRowShown="0">
   <autoFilter ref="G7:I13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
   <tableColumns count="3">
@@ -3652,7 +3841,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
   <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
   <tableColumns count="2">
@@ -3663,7 +3852,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}" name="Table10" displayName="Table10" ref="D21:E23" totalsRowShown="0">
   <autoFilter ref="D21:E23" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}"/>
   <tableColumns count="2">
@@ -3674,34 +3863,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
   <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39523F8C-90AB-4AEA-A3D2-20DFC202F1DC}" name="vendor_data"/>
     <tableColumn id="2" xr3:uid="{03645BD0-2188-4258-BB3B-69E23F9F460D}" name="datatype"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
-  <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07BEEE8C-BA09-431E-9510-C61D750EB2C2}" name="prod_sales"/>
-    <tableColumn id="2" xr3:uid="{0CD4467A-3F44-4FA5-AC1E-210E75F126D2}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}" name="Table15" displayName="Table15" ref="G14:H19" totalsRowShown="0">
-  <autoFilter ref="G14:H19" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D282986B-9478-434A-9041-A20B12B98983}" name="sales_details"/>
-    <tableColumn id="2" xr3:uid="{E3CC7569-5D8C-4649-9713-FC05C1630E65}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3719,92 +3886,114 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
-  <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
-    <sortCondition ref="F1:F86"/>
-  </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="41"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="40"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
+  <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07BEEE8C-BA09-431E-9510-C61D750EB2C2}" name="prod_sales"/>
+    <tableColumn id="2" xr3:uid="{0CD4467A-3F44-4FA5-AC1E-210E75F126D2}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A1:N95" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N85">
-    <sortCondition ref="A1:A85"/>
-  </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}" name="Table15" displayName="Table15" ref="G14:H19" totalsRowShown="0">
+  <autoFilter ref="G14:H19" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D282986B-9478-434A-9041-A20B12B98983}" name="sales_details"/>
+    <tableColumn id="2" xr3:uid="{E3CC7569-5D8C-4649-9713-FC05C1630E65}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
+    <sortCondition ref="F1:F86"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <autoFilter ref="A1:N95" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N85">
+    <sortCondition ref="A1:A85"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
   <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
   <tableColumns count="2">
@@ -3815,7 +4004,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
   <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
   <tableColumns count="2">
@@ -3826,7 +4015,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}" name="Table22" displayName="Table22" ref="G5:H9" totalsRowShown="0">
   <autoFilter ref="G5:H9" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}"/>
   <tableColumns count="2">
@@ -3871,11 +4060,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="68">
   <autoFilter ref="G12:H15" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3893,22 +4082,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}" name="Table3" displayName="Table3" ref="A7:B19" totalsRowShown="0">
-  <autoFilter ref="A7:B19" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{FAD552B3-B6E5-794E-8487-4C6FD31B16DE}" name="Table1728" displayName="Table1728" ref="E48:F51" totalsRowShown="0">
+  <autoFilter ref="E48:F51" xr:uid="{FAD552B3-B6E5-794E-8487-4C6FD31B16DE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4575348C-264F-4E2B-8EE4-C3278F9042D9}" name="vendor_data"/>
-    <tableColumn id="2" xr3:uid="{B0CCE0B4-11B6-4A27-A81B-74939D52DBAB}" name="datatype"/>
+    <tableColumn id="1" xr3:uid="{EF830D82-A56C-DA40-96FE-A63F8703FA39}" name="roles"/>
+    <tableColumn id="2" xr3:uid="{C17430B9-D465-DD4B-A38C-3FF70FF293BD}" name="datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}" name="Table1119" displayName="Table1119" ref="A9:B17" totalsRowShown="0">
-  <autoFilter ref="A9:B17" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="E56:F58" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{544EBB55-3AE7-8449-951E-19BAB458A288}" name="invoice"/>
-    <tableColumn id="2" xr3:uid="{687EF95B-432F-6649-A88D-8C791FCDD2A4}" name="datatype"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4214,7 +4403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4290,67 +4479,67 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="G1" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>71</v>
-      </c>
       <c r="J1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>79</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -4360,23 +4549,23 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -4386,23 +4575,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -4412,23 +4601,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -4438,23 +4627,23 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -4464,23 +4653,23 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -4490,23 +4679,23 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -4516,23 +4705,23 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -4542,23 +4731,23 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -4568,23 +4757,23 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -4594,23 +4783,23 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -4620,23 +4809,23 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -4646,23 +4835,23 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -4672,23 +4861,23 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -4698,23 +4887,23 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -4724,23 +4913,23 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -4750,23 +4939,23 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -4776,23 +4965,23 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -4802,23 +4991,23 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -4828,23 +5017,23 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -4854,23 +5043,23 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -4880,23 +5069,23 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -4906,23 +5095,23 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -4932,23 +5121,23 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -4958,23 +5147,23 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -4984,23 +5173,23 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -5010,23 +5199,23 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -5036,23 +5225,23 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -5062,23 +5251,23 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -5088,23 +5277,23 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -5114,23 +5303,23 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -5140,23 +5329,23 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -5166,23 +5355,23 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -5192,23 +5381,23 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -5218,23 +5407,23 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -5244,23 +5433,23 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -5270,23 +5459,23 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -5296,23 +5485,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -5322,23 +5511,23 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -5348,23 +5537,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -5374,23 +5563,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -5400,23 +5589,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -5426,23 +5615,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -5452,23 +5641,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -5478,23 +5667,23 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -5504,23 +5693,23 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -5530,23 +5719,23 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -5556,23 +5745,23 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
@@ -5582,23 +5771,23 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -5608,23 +5797,23 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
@@ -5634,23 +5823,23 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
@@ -5660,23 +5849,23 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -5686,23 +5875,23 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -5712,23 +5901,23 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
@@ -5738,23 +5927,23 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -5764,23 +5953,23 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
@@ -5790,23 +5979,23 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -5816,23 +6005,23 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -5842,23 +6031,23 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -5868,23 +6057,23 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -5894,23 +6083,23 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -5920,23 +6109,23 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -5946,23 +6135,23 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
@@ -5972,23 +6161,23 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -5998,23 +6187,23 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -6024,23 +6213,23 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H67" s="29"/>
       <c r="I67" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
@@ -6050,23 +6239,23 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -6076,23 +6265,23 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -6102,23 +6291,23 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
@@ -6128,23 +6317,23 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
@@ -6154,23 +6343,23 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
@@ -6180,23 +6369,23 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
       <c r="E73" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -6206,23 +6395,23 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
       <c r="E74" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
@@ -6232,23 +6421,23 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
       <c r="E75" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
@@ -6258,23 +6447,23 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
       <c r="E76" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H76" s="29"/>
       <c r="I76" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
@@ -6284,23 +6473,23 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
       <c r="E77" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H77" s="29"/>
       <c r="I77" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
@@ -6310,23 +6499,23 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
       <c r="E78" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
@@ -6336,23 +6525,23 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
       <c r="E79" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
@@ -6362,23 +6551,23 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
@@ -6388,23 +6577,23 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
@@ -6414,23 +6603,23 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="35" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
@@ -6440,23 +6629,23 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="35" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
@@ -6466,23 +6655,23 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="35" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H84" s="29"/>
       <c r="I84" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
@@ -6509,14 +6698,14 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="32" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="37"/>
       <c r="F86" s="32"/>
       <c r="G86" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H86" s="32"/>
       <c r="I86" s="32"/>
@@ -6529,14 +6718,14 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="32" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="37"/>
       <c r="F87" s="32"/>
       <c r="G87" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="32"/>
@@ -6549,14 +6738,14 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="32" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="37"/>
       <c r="F88" s="32"/>
       <c r="G88" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="32"/>
@@ -6569,14 +6758,14 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="37"/>
       <c r="F89" s="32"/>
       <c r="G89" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H89" s="32"/>
       <c r="I89" s="32"/>
@@ -6589,14 +6778,14 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="37"/>
       <c r="F90" s="32"/>
       <c r="G90" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H90" s="32"/>
       <c r="I90" s="32"/>
@@ -6609,14 +6798,14 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="32" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="37"/>
       <c r="F91" s="32"/>
       <c r="G91" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="32"/>
@@ -6629,14 +6818,14 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="37"/>
       <c r="F92" s="32"/>
       <c r="G92" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="32"/>
@@ -6649,14 +6838,14 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="37"/>
       <c r="F93" s="32"/>
       <c r="G93" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="32"/>
@@ -6669,14 +6858,14 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="37"/>
       <c r="F94" s="32"/>
       <c r="G94" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H94" s="32"/>
       <c r="I94" s="32"/>
@@ -6689,14 +6878,14 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="37"/>
       <c r="F95" s="32"/>
       <c r="G95" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H95" s="32"/>
       <c r="I95" s="32"/>
@@ -6735,19 +6924,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6756,13 +6945,13 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D2" s="29">
         <v>250</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6771,13 +6960,13 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D3" s="29">
         <v>75</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6786,39 +6975,39 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D4" s="32">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>412</v>
-      </c>
       <c r="G7" s="26" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6826,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -6835,10 +7024,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6846,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -6855,10 +7044,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6866,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -6875,10 +7064,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6886,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -6895,10 +7084,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6906,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -6915,10 +7104,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6926,7 +7115,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -6935,10 +7124,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6946,7 +7135,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -6955,10 +7144,10 @@
         <v>25</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6987,7 +7176,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -7010,42 +7199,42 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>17</v>
@@ -7053,80 +7242,80 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -7134,7 +7323,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -7155,10 +7344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7170,13 +7359,14 @@
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -7207,7 +7397,7 @@
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -7290,7 +7480,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>19</v>
@@ -7419,7 +7609,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -7516,9 +7706,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -7527,7 +7717,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -7536,7 +7726,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>2</v>
       </c>
@@ -7544,77 +7734,77 @@
         <v>8</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
         <v>456</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="G38" s="46"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>461</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="50">
         <v>5</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G39" s="44"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="51">
         <v>4</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G40" s="44"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="52">
         <v>3</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G41" s="44"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>19</v>
@@ -7627,30 +7817,30 @@
         <v>2</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="54">
         <v>1</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -7659,11 +7849,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -7672,7 +7862,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -7681,7 +7871,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>9</v>
       </c>
@@ -7689,209 +7879,261 @@
         <v>8</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D48" s="39"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
+      <c r="E48" t="s">
+        <v>464</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="44"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>467</v>
+      </c>
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>468</v>
+      </c>
+      <c r="K48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B49" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="B50" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>451</v>
-      </c>
       <c r="C50" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" t="s">
+        <v>466</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="44"/>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="C51" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="44"/>
+      <c r="E51" s="44" t="s">
+        <v>474</v>
+      </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
+      <c r="E56" s="75" t="s">
+        <v>471</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>472</v>
+      </c>
       <c r="G56" s="44"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="74"/>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B58" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>451</v>
-      </c>
       <c r="C58" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="77" t="s">
+        <v>470</v>
+      </c>
+      <c r="F58" s="78"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B59" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="C59" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="43"/>
       <c r="B61" s="44"/>
       <c r="C61" s="45"/>
@@ -7900,7 +8142,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="45"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -7909,7 +8151,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="47"/>
@@ -7918,7 +8160,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="47"/>
@@ -7989,13 +8231,15 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8005,7 +8249,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8016,7 +8260,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8071,30 +8315,21 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -8104,9 +8339,6 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8115,9 +8347,6 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8126,9 +8355,6 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8148,7 +8374,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -8156,7 +8382,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -8164,7 +8390,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -8172,7 +8398,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -8180,7 +8406,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -8201,15 +8427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8277,25 +8503,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8306,13 +8532,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>17</v>
@@ -8320,36 +8546,36 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>20</v>
@@ -8357,16 +8583,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -8374,16 +8600,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -8391,29 +8617,29 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -8453,7 +8679,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8496,25 +8722,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8525,13 +8751,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>17</v>
@@ -8539,36 +8765,36 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>20</v>
@@ -8576,16 +8802,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -8593,16 +8819,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -8610,29 +8836,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -8663,7 +8889,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8775,7 +9001,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8792,7 +9018,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8829,7 +9055,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -8841,7 +9067,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>10</v>
@@ -8849,19 +9075,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>17</v>
@@ -8869,19 +9095,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>20</v>
@@ -8889,7 +9115,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -8901,15 +9127,15 @@
         <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -8921,15 +9147,15 @@
         <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
@@ -8941,15 +9167,15 @@
         <v>43</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>20</v>
@@ -8963,7 +9189,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -8975,121 +9201,121 @@
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -9097,13 +9323,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>17</v>
@@ -9111,13 +9337,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
@@ -9125,7 +9351,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>20</v>
@@ -9133,7 +9359,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -9141,7 +9367,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -9149,10 +9375,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9182,7 +9408,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -9390,7 +9616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E477509-D44B-43BE-9C52-BD956702792C}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -9416,76 +9642,76 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9">
         <v>21440</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -9500,23 +9726,23 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F3" s="9">
         <v>21530</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -9531,23 +9757,23 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -9562,23 +9788,23 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -9593,23 +9819,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -9624,23 +9850,23 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -9655,23 +9881,23 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -9686,23 +9912,23 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -9717,23 +9943,23 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -9748,23 +9974,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -9779,23 +10005,23 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -9810,23 +10036,23 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -9841,23 +10067,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -9872,23 +10098,23 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -9903,23 +10129,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -9934,23 +10160,23 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -9965,23 +10191,23 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -9996,23 +10222,23 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -10027,23 +10253,23 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -10058,23 +10284,23 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -10089,23 +10315,23 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -10120,23 +10346,23 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -10151,23 +10377,23 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -10182,23 +10408,23 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -10213,23 +10439,23 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -10244,23 +10470,23 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -10275,23 +10501,23 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -10306,23 +10532,23 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -10337,23 +10563,23 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -10368,23 +10594,23 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -10399,23 +10625,23 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -10430,23 +10656,23 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -10461,23 +10687,23 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -10492,23 +10718,23 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -10523,23 +10749,23 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -10554,23 +10780,23 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -10585,23 +10811,23 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -10616,23 +10842,23 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -10647,23 +10873,23 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -10678,23 +10904,23 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -10709,23 +10935,23 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -10740,23 +10966,23 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -10771,23 +10997,23 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -10802,23 +11028,23 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -10833,23 +11059,23 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -10864,23 +11090,23 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -10901,23 +11127,23 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -10932,23 +11158,23 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -10963,23 +11189,23 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -10994,23 +11220,23 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -11025,23 +11251,23 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -11056,21 +11282,21 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -11085,21 +11311,21 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -11114,21 +11340,21 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -11143,21 +11369,21 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -11172,21 +11398,21 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -11201,21 +11427,21 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -11230,21 +11456,21 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -11259,21 +11485,21 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -11288,21 +11514,21 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -11317,21 +11543,21 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -11346,21 +11572,21 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -11375,21 +11601,21 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -11404,21 +11630,21 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -11433,21 +11659,21 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -11462,21 +11688,21 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -11491,21 +11717,21 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -11520,21 +11746,21 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -11549,21 +11775,21 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -11578,21 +11804,21 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -11607,21 +11833,21 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -11636,21 +11862,21 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -11665,21 +11891,21 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -11694,21 +11920,21 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -11723,21 +11949,21 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -11752,21 +11978,21 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -11781,21 +12007,21 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -11810,21 +12036,21 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -11839,21 +12065,21 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -11868,21 +12094,21 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -11897,21 +12123,21 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -11926,21 +12152,21 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -11955,19 +12181,19 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="9"/>
       <c r="G84" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -11982,19 +12208,19 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="9"/>
       <c r="G85" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -12009,19 +12235,19 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="9"/>
       <c r="G86" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECDF062-BB17-A24C-BEA0-F5704AE453E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D38EAE-C40E-E241-AA0E-1CED06F55934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="476">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1725,6 +1725,9 @@
   </si>
   <si>
     <t>ACCESS_ID</t>
+  </si>
+  <si>
+    <t>Birdie</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2310,6 +2313,12 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2361,155 +2370,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3725,6 +3611,146 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
     </dxf>
@@ -3908,86 +3934,87 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="46"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="41"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:N95" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="A1:N95" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
     <sortCondition ref="A1:A85"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="27"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4060,11 +4087,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="69">
   <autoFilter ref="G12:H15" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4093,11 +4120,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="E56:F58" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4454,30 +4481,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>296</v>
       </c>
@@ -4493,35 +4521,38 @@
       <c r="E1" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>341</v>
       </c>
@@ -4533,21 +4564,22 @@
       <c r="E2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>333</v>
       </c>
@@ -4559,21 +4591,22 @@
       <c r="E3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>334</v>
       </c>
@@ -4585,21 +4618,22 @@
       <c r="E4" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>335</v>
       </c>
@@ -4611,21 +4645,22 @@
       <c r="E5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>336</v>
       </c>
@@ -4637,21 +4672,22 @@
       <c r="E6" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>337</v>
       </c>
@@ -4663,21 +4699,22 @@
       <c r="E7" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>338</v>
       </c>
@@ -4689,21 +4726,22 @@
       <c r="E8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>339</v>
       </c>
@@ -4715,21 +4753,22 @@
       <c r="E9" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>340</v>
       </c>
@@ -4741,21 +4780,22 @@
       <c r="E10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>353</v>
       </c>
@@ -4767,21 +4807,22 @@
       <c r="E11" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>358</v>
       </c>
@@ -4793,21 +4834,22 @@
       <c r="E12" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>304</v>
       </c>
@@ -4819,21 +4861,22 @@
       <c r="E13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>356</v>
       </c>
@@ -4845,21 +4888,22 @@
       <c r="E14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>357</v>
       </c>
@@ -4871,21 +4915,22 @@
       <c r="E15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>305</v>
       </c>
@@ -4897,21 +4942,22 @@
       <c r="E16" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="79"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>355</v>
       </c>
@@ -4923,21 +4969,22 @@
       <c r="E17" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>342</v>
       </c>
@@ -4949,21 +4996,22 @@
       <c r="E18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>359</v>
       </c>
@@ -4975,21 +5023,22 @@
       <c r="E19" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="29"/>
+      <c r="J19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>360</v>
       </c>
@@ -5001,21 +5050,22 @@
       <c r="E20" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="36" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>351</v>
       </c>
@@ -5027,21 +5077,22 @@
       <c r="E21" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>350</v>
       </c>
@@ -5053,21 +5104,22 @@
       <c r="E22" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>352</v>
       </c>
@@ -5079,21 +5131,22 @@
       <c r="E23" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="36" t="s">
+      <c r="F23" s="79"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>362</v>
       </c>
@@ -5105,21 +5158,22 @@
       <c r="E24" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="29"/>
+      <c r="J24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>363</v>
       </c>
@@ -5131,21 +5185,22 @@
       <c r="E25" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="79"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>354</v>
       </c>
@@ -5157,21 +5212,22 @@
       <c r="E26" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>361</v>
       </c>
@@ -5183,21 +5239,22 @@
       <c r="E27" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>364</v>
       </c>
@@ -5209,21 +5266,22 @@
       <c r="E28" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="30"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>365</v>
       </c>
@@ -5235,21 +5293,22 @@
       <c r="E29" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="79"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="30"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>371</v>
       </c>
@@ -5261,21 +5320,22 @@
       <c r="E30" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="79"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="30"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>372</v>
       </c>
@@ -5287,21 +5347,22 @@
       <c r="E31" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="79"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="30"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>373</v>
       </c>
@@ -5313,21 +5374,22 @@
       <c r="E32" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="36" t="s">
+      <c r="F32" s="79"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="29"/>
+      <c r="J32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="30"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>374</v>
       </c>
@@ -5339,21 +5401,22 @@
       <c r="E33" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="36" t="s">
+      <c r="F33" s="79"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="29"/>
+      <c r="J33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="30"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>375</v>
       </c>
@@ -5365,21 +5428,22 @@
       <c r="E34" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="36" t="s">
+      <c r="F34" s="79"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>376</v>
       </c>
@@ -5391,21 +5455,22 @@
       <c r="E35" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="36" t="s">
+      <c r="F35" s="79"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="29"/>
+      <c r="J35" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="30"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>377</v>
       </c>
@@ -5417,21 +5482,22 @@
       <c r="E36" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="79"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="29"/>
+      <c r="J36" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N36" s="29"/>
+      <c r="O36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>366</v>
       </c>
@@ -5443,21 +5509,22 @@
       <c r="E37" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="36" t="s">
+      <c r="F37" s="79"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="29"/>
+      <c r="J37" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N37" s="29"/>
+      <c r="O37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>367</v>
       </c>
@@ -5469,21 +5536,22 @@
       <c r="E38" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="79"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="29"/>
+      <c r="J38" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="30"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>368</v>
       </c>
@@ -5495,21 +5563,22 @@
       <c r="E39" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="36" t="s">
+      <c r="F39" s="79"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="29"/>
+      <c r="J39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="30"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39" s="29"/>
+      <c r="O39" s="30"/>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>369</v>
       </c>
@@ -5521,21 +5590,22 @@
       <c r="E40" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="79"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="29"/>
+      <c r="J40" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="30"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>379</v>
       </c>
@@ -5547,21 +5617,22 @@
       <c r="E41" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="79"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="29"/>
+      <c r="J41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="30"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>378</v>
       </c>
@@ -5573,21 +5644,22 @@
       <c r="E42" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="79"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="29"/>
+      <c r="J42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="30"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>380</v>
       </c>
@@ -5599,21 +5671,22 @@
       <c r="E43" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="36" t="s">
+      <c r="F43" s="79"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="29"/>
+      <c r="J43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="30"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>325</v>
       </c>
@@ -5625,21 +5698,22 @@
       <c r="E44" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="36" t="s">
+      <c r="F44" s="79"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="30"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>324</v>
       </c>
@@ -5651,21 +5725,22 @@
       <c r="E45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="36" t="s">
+      <c r="F45" s="79"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="30"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>308</v>
       </c>
@@ -5677,21 +5752,22 @@
       <c r="E46" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="36" t="s">
+      <c r="F46" s="79"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="30"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>309</v>
       </c>
@@ -5703,21 +5779,22 @@
       <c r="E47" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="36" t="s">
+      <c r="F47" s="79"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="30"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>327</v>
       </c>
@@ -5729,21 +5806,22 @@
       <c r="E48" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="36" t="s">
+      <c r="F48" s="79"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="30"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>311</v>
       </c>
@@ -5755,21 +5833,22 @@
       <c r="E49" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="36" t="s">
+      <c r="F49" s="79"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="30"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>315</v>
       </c>
@@ -5781,21 +5860,22 @@
       <c r="E50" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="36" t="s">
+      <c r="F50" s="79"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="30"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>300</v>
       </c>
@@ -5807,21 +5887,22 @@
       <c r="E51" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="36" t="s">
+      <c r="F51" s="79"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="30"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="29"/>
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>303</v>
       </c>
@@ -5833,21 +5914,22 @@
       <c r="E52" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="36" t="s">
+      <c r="F52" s="79"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="30"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="29"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>326</v>
       </c>
@@ -5859,21 +5941,22 @@
       <c r="E53" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="36" t="s">
+      <c r="F53" s="79"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="30"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="29"/>
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>317</v>
       </c>
@@ -5885,21 +5968,22 @@
       <c r="E54" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="36" t="s">
+      <c r="F54" s="79"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="30"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>344</v>
       </c>
@@ -5911,21 +5995,22 @@
       <c r="E55" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="36" t="s">
+      <c r="F55" s="79"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>345</v>
       </c>
@@ -5937,21 +6022,22 @@
       <c r="E56" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="36" t="s">
+      <c r="F56" s="79"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="30"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>346</v>
       </c>
@@ -5963,21 +6049,22 @@
       <c r="E57" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="36" t="s">
+      <c r="F57" s="79"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="30"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>347</v>
       </c>
@@ -5989,21 +6076,22 @@
       <c r="E58" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="36" t="s">
+      <c r="F58" s="79"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="30"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="29"/>
+      <c r="O58" s="30"/>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>348</v>
       </c>
@@ -6015,21 +6103,22 @@
       <c r="E59" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="36" t="s">
+      <c r="F59" s="79"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="30"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="29"/>
+      <c r="O59" s="30"/>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>349</v>
       </c>
@@ -6041,21 +6130,22 @@
       <c r="E60" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="36" t="s">
+      <c r="F60" s="79"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="30"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="29"/>
+      <c r="O60" s="30"/>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>328</v>
       </c>
@@ -6067,21 +6157,22 @@
       <c r="E61" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="36" t="s">
+      <c r="F61" s="79"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="30"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="29"/>
+      <c r="O61" s="30"/>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>329</v>
       </c>
@@ -6093,21 +6184,22 @@
       <c r="E62" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="36" t="s">
+      <c r="F62" s="79"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="30"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>330</v>
       </c>
@@ -6119,21 +6211,22 @@
       <c r="E63" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="36" t="s">
+      <c r="F63" s="79"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H63" s="29"/>
-      <c r="I63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="30"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
+    </row>
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>331</v>
       </c>
@@ -6145,21 +6238,22 @@
       <c r="E64" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="36" t="s">
+      <c r="F64" s="79"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H64" s="29"/>
-      <c r="I64" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="30"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>332</v>
       </c>
@@ -6171,21 +6265,22 @@
       <c r="E65" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="36" t="s">
+      <c r="F65" s="79"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H65" s="29"/>
-      <c r="I65" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="30"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>310</v>
       </c>
@@ -6197,21 +6292,22 @@
       <c r="E66" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="36" t="s">
+      <c r="F66" s="79"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="30"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="29"/>
+      <c r="O66" s="30"/>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>323</v>
       </c>
@@ -6223,21 +6319,22 @@
       <c r="E67" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="36" t="s">
+      <c r="F67" s="79"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H67" s="29"/>
-      <c r="I67" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="30"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
+    </row>
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>322</v>
       </c>
@@ -6249,21 +6346,22 @@
       <c r="E68" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="36" t="s">
+      <c r="F68" s="79"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H68" s="29"/>
-      <c r="I68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="30"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="29"/>
+      <c r="O68" s="30"/>
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>313</v>
       </c>
@@ -6275,21 +6373,22 @@
       <c r="E69" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="36" t="s">
+      <c r="F69" s="79"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="30"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="29"/>
+      <c r="O69" s="30"/>
+    </row>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>313</v>
       </c>
@@ -6301,21 +6400,22 @@
       <c r="E70" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="36" t="s">
+      <c r="F70" s="79"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="30"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="29"/>
+      <c r="O70" s="30"/>
+    </row>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>319</v>
       </c>
@@ -6327,21 +6427,22 @@
       <c r="E71" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="36" t="s">
+      <c r="F71" s="79"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="30"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="29"/>
+      <c r="O71" s="30"/>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>301</v>
       </c>
@@ -6353,21 +6454,22 @@
       <c r="E72" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="36" t="s">
+      <c r="F72" s="79"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
-      <c r="N72" s="30"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="29"/>
+      <c r="O72" s="30"/>
+    </row>
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>302</v>
       </c>
@@ -6379,21 +6481,22 @@
       <c r="E73" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="36" t="s">
+      <c r="F73" s="79"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="30"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="29"/>
+      <c r="O73" s="30"/>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>321</v>
       </c>
@@ -6405,21 +6508,22 @@
       <c r="E74" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="36" t="s">
+      <c r="F74" s="79"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="30"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="29"/>
+      <c r="O74" s="30"/>
+    </row>
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>306</v>
       </c>
@@ -6431,21 +6535,22 @@
       <c r="E75" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="36" t="s">
+      <c r="F75" s="79"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="30"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="29"/>
+      <c r="O75" s="30"/>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>306</v>
       </c>
@@ -6457,21 +6562,22 @@
       <c r="E76" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="36" t="s">
+      <c r="F76" s="79"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
-      <c r="N76" s="30"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="29"/>
+      <c r="O76" s="30"/>
+    </row>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>307</v>
       </c>
@@ -6483,21 +6589,22 @@
       <c r="E77" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="36" t="s">
+      <c r="F77" s="79"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
-      <c r="N77" s="30"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
+    </row>
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>318</v>
       </c>
@@ -6509,21 +6616,22 @@
       <c r="E78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="36" t="s">
+      <c r="F78" s="79"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="30"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N78" s="29"/>
+      <c r="O78" s="30"/>
+    </row>
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>314</v>
       </c>
@@ -6535,21 +6643,22 @@
       <c r="E79" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="36" t="s">
+      <c r="F79" s="79"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="30"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N79" s="29"/>
+      <c r="O79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>312</v>
       </c>
@@ -6561,21 +6670,22 @@
       <c r="E80" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="36" t="s">
+      <c r="F80" s="79"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
       <c r="M80" s="29"/>
-      <c r="N80" s="30"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="29"/>
+      <c r="O80" s="30"/>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>316</v>
       </c>
@@ -6587,21 +6697,22 @@
       <c r="E81" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="36" t="s">
+      <c r="F81" s="79"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
-      <c r="N81" s="30"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="29"/>
+      <c r="O81" s="30"/>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>381</v>
       </c>
@@ -6613,21 +6724,22 @@
       <c r="E82" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="36" t="s">
+      <c r="F82" s="79"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H82" s="29"/>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="29"/>
+      <c r="J82" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J82" s="29"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
       <c r="M82" s="29"/>
-      <c r="N82" s="30"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N82" s="29"/>
+      <c r="O82" s="30"/>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>382</v>
       </c>
@@ -6639,21 +6751,22 @@
       <c r="E83" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="36" t="s">
+      <c r="F83" s="79"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="29"/>
+      <c r="J83" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
-      <c r="N83" s="30"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="29"/>
+      <c r="O83" s="30"/>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>383</v>
       </c>
@@ -6665,235 +6778,1117 @@
       <c r="E84" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="36" t="s">
+      <c r="F84" s="79"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H84" s="29"/>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="29"/>
+      <c r="J84" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
-      <c r="N84" s="30"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="29"/>
+      <c r="O84" s="30"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
       <c r="E85" s="37"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="32"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="37"/>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
-      <c r="N85" s="33"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="33"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="31">
+        <v>1</v>
+      </c>
       <c r="B86" s="32" t="s">
         <v>384</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="37"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="37" t="s">
+      <c r="F86" s="37">
+        <v>4</v>
+      </c>
+      <c r="G86" s="32"/>
+      <c r="H86" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H86" s="32"/>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
-      <c r="N86" s="33"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="33"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="31">
+        <v>2</v>
+      </c>
       <c r="B87" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="37"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="37" t="s">
+      <c r="F87" s="37"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H87" s="32"/>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
-      <c r="N87" s="33"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="33"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="31">
+        <v>3</v>
+      </c>
       <c r="B88" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="37"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="37" t="s">
+      <c r="F88" s="37"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H88" s="32"/>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
       <c r="M88" s="32"/>
-      <c r="N88" s="33"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="33"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="31">
+        <v>4</v>
+      </c>
       <c r="B89" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="37"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="37" t="s">
+      <c r="F89" s="37"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H89" s="32"/>
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
-      <c r="N89" s="33"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="33"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="31">
+        <v>5</v>
+      </c>
       <c r="B90" s="32" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="37" t="s">
+      <c r="F90" s="37">
+        <v>4</v>
+      </c>
+      <c r="G90" s="32"/>
+      <c r="H90" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H90" s="32"/>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32"/>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
-      <c r="N90" s="33"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="33"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="31">
+        <v>6</v>
+      </c>
       <c r="B91" s="32" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="37"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="37" t="s">
+      <c r="F91" s="37"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H91" s="32"/>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32"/>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
-      <c r="N91" s="33"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="33"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="31">
+        <v>7</v>
+      </c>
       <c r="B92" s="32" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="37"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="37" t="s">
+      <c r="F92" s="37"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H92" s="32"/>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32"/>
       <c r="L92" s="32"/>
       <c r="M92" s="32"/>
-      <c r="N92" s="33"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="33"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="31">
+        <v>8</v>
+      </c>
       <c r="B93" s="32" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="37"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="37" t="s">
+      <c r="F93" s="37"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H93" s="32"/>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32"/>
-      <c r="N93" s="33"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="33"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="31">
+        <v>9</v>
+      </c>
       <c r="B94" s="32" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="37"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="37" t="s">
+      <c r="F94" s="37">
+        <v>6</v>
+      </c>
+      <c r="G94" s="32"/>
+      <c r="H94" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H94" s="32"/>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
       <c r="K94" s="32"/>
       <c r="L94" s="32"/>
       <c r="M94" s="32"/>
-      <c r="N94" s="33"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="33"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="31">
+        <v>10</v>
+      </c>
       <c r="B95" s="32" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="37"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="37" t="s">
+      <c r="F95" s="37"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="H95" s="32"/>
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
       <c r="K95" s="32"/>
       <c r="L95" s="32"/>
       <c r="M95" s="32"/>
-      <c r="N95" s="33"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="33"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="31">
+        <v>11</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="33"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="31">
+        <v>12</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="33"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="31">
+        <v>13</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="33"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="31">
+        <v>14</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="33"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="31">
+        <v>15</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37">
+        <v>6</v>
+      </c>
+      <c r="G100" s="32"/>
+      <c r="H100" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="33"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="31">
+        <v>16</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="33"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="31">
+        <v>17</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="33"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="31">
+        <v>18</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="33"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="31">
+        <v>19</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="33"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="31">
+        <v>20</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="33"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="31">
+        <v>21</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37">
+        <v>4</v>
+      </c>
+      <c r="G106" s="32"/>
+      <c r="H106" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="33"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="31">
+        <v>22</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="33"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="31">
+        <v>23</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="33"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="31">
+        <v>24</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="33"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="31">
+        <v>25</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37">
+        <v>3</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="33"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="31">
+        <v>26</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="33"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="31">
+        <v>27</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="33"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="31">
+        <v>28</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37">
+        <v>3</v>
+      </c>
+      <c r="G113" s="32"/>
+      <c r="H113" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="33"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="31">
+        <v>29</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="33"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="31">
+        <v>30</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="33"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="31">
+        <v>31</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37">
+        <v>6</v>
+      </c>
+      <c r="G116" s="32"/>
+      <c r="H116" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="33"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="31">
+        <v>32</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="33"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="31">
+        <v>33</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="33"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="31">
+        <v>34</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="33"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="31">
+        <v>35</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="33"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="31">
+        <v>36</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="33"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="31">
+        <v>37</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37">
+        <v>4</v>
+      </c>
+      <c r="G122" s="32"/>
+      <c r="H122" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="33"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="31">
+        <v>38</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="33"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="31">
+        <v>39</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="33"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="31">
+        <v>40</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="33"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="31">
+        <v>41</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37">
+        <v>4</v>
+      </c>
+      <c r="G126" s="32"/>
+      <c r="H126" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="33"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="31">
+        <v>42</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="33"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="31">
+        <v>43</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="33"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="31">
+        <v>44</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="33"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="31">
+        <v>45</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37">
+        <v>2</v>
+      </c>
+      <c r="G130" s="32"/>
+      <c r="H130" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="33"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="31">
+        <v>46</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -7175,27 +8170,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7346,7 +8341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7365,72 +8360,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8061,10 +9056,10 @@
         <v>441</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="59" t="s">
         <v>472</v>
       </c>
       <c r="G56" s="44"/>
@@ -8080,10 +9075,10 @@
         <v>441</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="74"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -8097,10 +9092,10 @@
         <v>441</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="77" t="s">
+      <c r="E58" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="F58" s="78"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -8259,46 +9254,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -8434,72 +9429,72 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8678,47 +9673,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8888,105 +9883,105 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9017,41 +10012,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9407,159 +10402,159 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -9616,8 +10611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E477509-D44B-43BE-9C52-BD956702792C}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D38EAE-C40E-E241-AA0E-1CED06F55934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0272A93C-4663-104D-BD4A-9F3F9B4642C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SECURITY" sheetId="11" r:id="rId6"/>
     <sheet name="PRODUCTS" sheetId="7" r:id="rId7"/>
     <sheet name="REPORTS" sheetId="4" r:id="rId8"/>
-    <sheet name="INVENTORY-WITH DATA" sheetId="6" r:id="rId9"/>
+    <sheet name="INVENTORY-WITH DATA" sheetId="6" state="hidden" r:id="rId9"/>
     <sheet name="INVENTORY-WITH DATA1" sheetId="12" r:id="rId10"/>
     <sheet name="SERVICES-WITH DATA" sheetId="13" r:id="rId11"/>
     <sheet name="SERVICES" sheetId="10" r:id="rId12"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="490">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -58,9 +58,6 @@
     <t>Refrences the user's login information and login success logs</t>
   </si>
   <si>
-    <t>user_profile</t>
-  </si>
-  <si>
     <t>Refrences the users personal information</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>PRODUCT</t>
   </si>
   <si>
-    <t>PROD_QUANTITY</t>
-  </si>
-  <si>
     <t>prod_name</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
   </si>
   <si>
     <t>VENDOR_ID</t>
-  </si>
-  <si>
-    <t>prod_sold</t>
   </si>
   <si>
     <t>PRODUCT_CATEGORY</t>
@@ -1447,9 +1438,6 @@
     <t>Classes</t>
   </si>
   <si>
-    <t xml:space="preserve">Apperal </t>
-  </si>
-  <si>
     <t>MEMBERSHIP_ID</t>
   </si>
   <si>
@@ -1480,18 +1468,6 @@
     <t>class_max_capacity</t>
   </si>
   <si>
-    <t>APPERAL_ID</t>
-  </si>
-  <si>
-    <t>apperal_name</t>
-  </si>
-  <si>
-    <t>apperal_size</t>
-  </si>
-  <si>
-    <t>apperal_cost</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annual </t>
   </si>
   <si>
@@ -1532,9 +1508,6 @@
   </si>
   <si>
     <t>Advanced Yoga</t>
-  </si>
-  <si>
-    <t>??? Or this is inventory</t>
   </si>
   <si>
     <t>class_time</t>
@@ -1728,6 +1701,75 @@
   </si>
   <si>
     <t>Birdie</t>
+  </si>
+  <si>
+    <t>access_rules</t>
+  </si>
+  <si>
+    <t>landing_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_rules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines different user types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">defines different user permissions </t>
+  </si>
+  <si>
+    <t>keys_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connects user permission to the user login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrences the different products that live in inventory </t>
+  </si>
+  <si>
+    <t>product_quanity</t>
+  </si>
+  <si>
+    <t>tracks how much of each item we have instock</t>
+  </si>
+  <si>
+    <t>memberships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrences types of memberships, prices, and length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">classes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrences classes offered with dates and times offered </t>
+  </si>
+  <si>
+    <t>USER TABLES</t>
+  </si>
+  <si>
+    <t>VENDOR TABLES</t>
+  </si>
+  <si>
+    <t>PRODUCT TABLES</t>
+  </si>
+  <si>
+    <t>SERVICES TABLES</t>
+  </si>
+  <si>
+    <t>prod_price</t>
+  </si>
+  <si>
+    <t>prod_desc</t>
+  </si>
+  <si>
+    <t>PROD_Q_ID</t>
+  </si>
+  <si>
+    <t>product_data</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1902,6 +1944,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2232,7 +2298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2371,11 +2437,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3778,8 +3864,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition sortBy="cellColor" ref="B1:B11" dxfId="1"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name "/>
     <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose"/>
@@ -3868,10 +3957,10 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
-  <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B18" totalsRowShown="0">
+  <autoFilter ref="A7:B18" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product"/>
+    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product_data"/>
     <tableColumn id="2" xr3:uid="{B5B00082-450C-4BC9-8030-E1C02C9744F1}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3934,87 +4023,87 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="45"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="44"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="43"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="41"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="46"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="44"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="43"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
     <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4037,17 +4126,6 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2EDC312-993E-404D-A78D-6FD2570A6CDE}" name="Classes"/>
     <tableColumn id="2" xr3:uid="{594888AA-0D1B-2545-8CF0-9AB7F6A479A1}" name="Datatype"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}" name="Table22" displayName="Table22" ref="G5:H9" totalsRowShown="0">
-  <autoFilter ref="G5:H9" xr:uid="{9B4BE8D4-A97F-0745-9A27-A264F92DA22A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{933D8AD6-9BEE-B346-BC60-1FF9F02C33FD}" name="Apperal "/>
-    <tableColumn id="2" xr3:uid="{15F3A295-7EC8-6B45-A2E0-1B702F7202BE}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4087,11 +4165,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="G12:H15" totalsRowShown="0" dataDxfId="71">
   <autoFilter ref="G12:H15" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4120,11 +4198,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66" totalsRowBorderDxfId="65">
   <autoFilter ref="E56:F58" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4427,19 +4505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C445BC9-7E32-414B-9C85-01A82BEB6FF4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4447,28 +4526,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="80" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
@@ -4507,71 +4654,71 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>72</v>
-      </c>
       <c r="M1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="O1" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="26"/>
       <c r="H2" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -4581,24 +4728,24 @@
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="29"/>
       <c r="H3" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -4608,24 +4755,24 @@
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="29"/>
       <c r="H4" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -4635,24 +4782,24 @@
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="29"/>
       <c r="H5" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -4662,24 +4809,24 @@
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="29"/>
       <c r="H6" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -4689,24 +4836,24 @@
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="29"/>
       <c r="H7" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -4716,24 +4863,24 @@
     </row>
     <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="29"/>
       <c r="H8" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -4743,24 +4890,24 @@
     </row>
     <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="29"/>
       <c r="H9" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -4770,24 +4917,24 @@
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F10" s="79"/>
       <c r="G10" s="29"/>
       <c r="H10" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -4797,24 +4944,24 @@
     </row>
     <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="29"/>
       <c r="H11" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -4824,24 +4971,24 @@
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="79"/>
       <c r="G12" s="29"/>
       <c r="H12" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -4851,24 +4998,24 @@
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="29"/>
       <c r="H13" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -4878,24 +5025,24 @@
     </row>
     <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="29"/>
       <c r="H14" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -4905,24 +5052,24 @@
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="29"/>
       <c r="H15" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -4932,24 +5079,24 @@
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="29"/>
       <c r="H16" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -4959,24 +5106,24 @@
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="29"/>
       <c r="H17" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -4986,24 +5133,24 @@
     </row>
     <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="29"/>
       <c r="H18" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -5013,24 +5160,24 @@
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19" s="79"/>
       <c r="G19" s="29"/>
       <c r="H19" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
@@ -5040,24 +5187,24 @@
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="79"/>
       <c r="G20" s="29"/>
       <c r="H20" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -5067,24 +5214,24 @@
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="29"/>
       <c r="H21" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
@@ -5094,24 +5241,24 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F22" s="79"/>
       <c r="G22" s="29"/>
       <c r="H22" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -5121,24 +5268,24 @@
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F23" s="79"/>
       <c r="G23" s="29"/>
       <c r="H23" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -5148,24 +5295,24 @@
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="29"/>
       <c r="H24" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -5175,24 +5322,24 @@
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="29"/>
       <c r="H25" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -5202,24 +5349,24 @@
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="29"/>
       <c r="H26" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -5229,24 +5376,24 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="29"/>
       <c r="H27" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -5256,24 +5403,24 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F28" s="79"/>
       <c r="G28" s="29"/>
       <c r="H28" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -5283,24 +5430,24 @@
     </row>
     <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F29" s="79"/>
       <c r="G29" s="29"/>
       <c r="H29" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -5310,24 +5457,24 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F30" s="79"/>
       <c r="G30" s="29"/>
       <c r="H30" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
@@ -5337,24 +5484,24 @@
     </row>
     <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="29"/>
       <c r="H31" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
@@ -5364,24 +5511,24 @@
     </row>
     <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F32" s="79"/>
       <c r="G32" s="29"/>
       <c r="H32" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
@@ -5391,24 +5538,24 @@
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="29"/>
       <c r="H33" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
@@ -5418,24 +5565,24 @@
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F34" s="79"/>
       <c r="G34" s="29"/>
       <c r="H34" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
@@ -5445,24 +5592,24 @@
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F35" s="79"/>
       <c r="G35" s="29"/>
       <c r="H35" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
@@ -5472,24 +5619,24 @@
     </row>
     <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F36" s="79"/>
       <c r="G36" s="29"/>
       <c r="H36" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
@@ -5499,24 +5646,24 @@
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F37" s="79"/>
       <c r="G37" s="29"/>
       <c r="H37" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
@@ -5526,24 +5673,24 @@
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="29"/>
       <c r="H38" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
@@ -5553,24 +5700,24 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="29"/>
       <c r="H39" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
@@ -5580,24 +5727,24 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F40" s="79"/>
       <c r="G40" s="29"/>
       <c r="H40" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
@@ -5607,24 +5754,24 @@
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F41" s="79"/>
       <c r="G41" s="29"/>
       <c r="H41" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
@@ -5634,24 +5781,24 @@
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F42" s="79"/>
       <c r="G42" s="29"/>
       <c r="H42" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
@@ -5661,24 +5808,24 @@
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F43" s="79"/>
       <c r="G43" s="29"/>
       <c r="H43" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
@@ -5688,24 +5835,24 @@
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F44" s="79"/>
       <c r="G44" s="29"/>
       <c r="H44" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
@@ -5715,24 +5862,24 @@
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F45" s="79"/>
       <c r="G45" s="29"/>
       <c r="H45" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
@@ -5742,24 +5889,24 @@
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="29"/>
       <c r="H46" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -5769,24 +5916,24 @@
     </row>
     <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F47" s="79"/>
       <c r="G47" s="29"/>
       <c r="H47" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5796,24 +5943,24 @@
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="29"/>
       <c r="H48" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I48" s="29"/>
       <c r="J48" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
@@ -5823,24 +5970,24 @@
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F49" s="79"/>
       <c r="G49" s="29"/>
       <c r="H49" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
@@ -5850,24 +5997,24 @@
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F50" s="79"/>
       <c r="G50" s="29"/>
       <c r="H50" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
@@ -5877,24 +6024,24 @@
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="29"/>
       <c r="H51" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
@@ -5904,24 +6051,24 @@
     </row>
     <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F52" s="79"/>
       <c r="G52" s="29"/>
       <c r="H52" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
@@ -5931,24 +6078,24 @@
     </row>
     <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F53" s="79"/>
       <c r="G53" s="29"/>
       <c r="H53" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
@@ -5958,24 +6105,24 @@
     </row>
     <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F54" s="79"/>
       <c r="G54" s="29"/>
       <c r="H54" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -5985,24 +6132,24 @@
     </row>
     <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F55" s="79"/>
       <c r="G55" s="29"/>
       <c r="H55" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
@@ -6012,24 +6159,24 @@
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F56" s="79"/>
       <c r="G56" s="29"/>
       <c r="H56" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
@@ -6039,24 +6186,24 @@
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F57" s="79"/>
       <c r="G57" s="29"/>
       <c r="H57" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
@@ -6066,24 +6213,24 @@
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F58" s="79"/>
       <c r="G58" s="29"/>
       <c r="H58" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
@@ -6093,24 +6240,24 @@
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F59" s="79"/>
       <c r="G59" s="29"/>
       <c r="H59" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I59" s="29"/>
       <c r="J59" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
@@ -6120,24 +6267,24 @@
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F60" s="79"/>
       <c r="G60" s="29"/>
       <c r="H60" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I60" s="29"/>
       <c r="J60" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
@@ -6147,24 +6294,24 @@
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="29"/>
       <c r="H61" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I61" s="29"/>
       <c r="J61" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
@@ -6174,24 +6321,24 @@
     </row>
     <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" s="79"/>
       <c r="G62" s="29"/>
       <c r="H62" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
@@ -6201,24 +6348,24 @@
     </row>
     <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" s="79"/>
       <c r="G63" s="29"/>
       <c r="H63" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
@@ -6228,24 +6375,24 @@
     </row>
     <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" s="79"/>
       <c r="G64" s="29"/>
       <c r="H64" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
@@ -6255,24 +6402,24 @@
     </row>
     <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F65" s="79"/>
       <c r="G65" s="29"/>
       <c r="H65" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
@@ -6282,24 +6429,24 @@
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F66" s="79"/>
       <c r="G66" s="29"/>
       <c r="H66" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
@@ -6309,24 +6456,24 @@
     </row>
     <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" s="79"/>
       <c r="G67" s="29"/>
       <c r="H67" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
@@ -6336,24 +6483,24 @@
     </row>
     <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F68" s="79"/>
       <c r="G68" s="29"/>
       <c r="H68" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
@@ -6363,24 +6510,24 @@
     </row>
     <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F69" s="79"/>
       <c r="G69" s="29"/>
       <c r="H69" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
@@ -6390,24 +6537,24 @@
     </row>
     <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F70" s="79"/>
       <c r="G70" s="29"/>
       <c r="H70" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
@@ -6417,24 +6564,24 @@
     </row>
     <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F71" s="79"/>
       <c r="G71" s="29"/>
       <c r="H71" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
@@ -6444,24 +6591,24 @@
     </row>
     <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F72" s="79"/>
       <c r="G72" s="29"/>
       <c r="H72" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
@@ -6471,24 +6618,24 @@
     </row>
     <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
       <c r="E73" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F73" s="79"/>
       <c r="G73" s="29"/>
       <c r="H73" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
@@ -6498,24 +6645,24 @@
     </row>
     <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
       <c r="E74" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F74" s="79"/>
       <c r="G74" s="29"/>
       <c r="H74" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
@@ -6525,24 +6672,24 @@
     </row>
     <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
       <c r="E75" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F75" s="79"/>
       <c r="G75" s="29"/>
       <c r="H75" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
@@ -6552,24 +6699,24 @@
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
       <c r="E76" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F76" s="79"/>
       <c r="G76" s="29"/>
       <c r="H76" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
@@ -6579,24 +6726,24 @@
     </row>
     <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
       <c r="E77" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F77" s="79"/>
       <c r="G77" s="29"/>
       <c r="H77" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
@@ -6606,24 +6753,24 @@
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
       <c r="E78" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="29"/>
       <c r="H78" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
@@ -6633,24 +6780,24 @@
     </row>
     <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
       <c r="E79" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F79" s="79"/>
       <c r="G79" s="29"/>
       <c r="H79" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
@@ -6660,24 +6807,24 @@
     </row>
     <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F80" s="79"/>
       <c r="G80" s="29"/>
       <c r="H80" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
@@ -6687,24 +6834,24 @@
     </row>
     <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F81" s="79"/>
       <c r="G81" s="29"/>
       <c r="H81" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
@@ -6714,24 +6861,24 @@
     </row>
     <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F82" s="79"/>
       <c r="G82" s="29"/>
       <c r="H82" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
@@ -6741,24 +6888,24 @@
     </row>
     <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F83" s="79"/>
       <c r="G83" s="29"/>
       <c r="H83" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
@@ -6768,24 +6915,24 @@
     </row>
     <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F84" s="79"/>
       <c r="G84" s="29"/>
       <c r="H84" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
@@ -6815,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
@@ -6825,7 +6972,7 @@
       </c>
       <c r="G86" s="32"/>
       <c r="H86" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
@@ -6840,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
@@ -6848,7 +6995,7 @@
       <c r="F87" s="37"/>
       <c r="G87" s="32"/>
       <c r="H87" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
@@ -6863,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
@@ -6871,7 +7018,7 @@
       <c r="F88" s="37"/>
       <c r="G88" s="32"/>
       <c r="H88" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
@@ -6886,7 +7033,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
@@ -6894,7 +7041,7 @@
       <c r="F89" s="37"/>
       <c r="G89" s="32"/>
       <c r="H89" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
@@ -6909,7 +7056,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
@@ -6919,7 +7066,7 @@
       </c>
       <c r="G90" s="32"/>
       <c r="H90" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
@@ -6934,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
@@ -6942,7 +7089,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="32"/>
       <c r="H91" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
@@ -6957,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
@@ -6965,7 +7112,7 @@
       <c r="F92" s="37"/>
       <c r="G92" s="32"/>
       <c r="H92" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -6980,7 +7127,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
@@ -6988,7 +7135,7 @@
       <c r="F93" s="37"/>
       <c r="G93" s="32"/>
       <c r="H93" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
@@ -7003,7 +7150,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
@@ -7013,7 +7160,7 @@
       </c>
       <c r="G94" s="32"/>
       <c r="H94" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
@@ -7028,7 +7175,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
@@ -7036,7 +7183,7 @@
       <c r="F95" s="37"/>
       <c r="G95" s="32"/>
       <c r="H95" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
@@ -7051,7 +7198,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
@@ -7059,7 +7206,7 @@
       <c r="F96" s="37"/>
       <c r="G96" s="32"/>
       <c r="H96" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="32"/>
@@ -7074,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
@@ -7082,7 +7229,7 @@
       <c r="F97" s="37"/>
       <c r="G97" s="32"/>
       <c r="H97" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
@@ -7097,7 +7244,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
@@ -7105,7 +7252,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="32"/>
       <c r="H98" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -7120,7 +7267,7 @@
         <v>14</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
@@ -7128,7 +7275,7 @@
       <c r="F99" s="37"/>
       <c r="G99" s="32"/>
       <c r="H99" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
@@ -7143,7 +7290,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
@@ -7153,7 +7300,7 @@
       </c>
       <c r="G100" s="32"/>
       <c r="H100" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
@@ -7168,7 +7315,7 @@
         <v>16</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
@@ -7176,7 +7323,7 @@
       <c r="F101" s="37"/>
       <c r="G101" s="32"/>
       <c r="H101" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
@@ -7191,7 +7338,7 @@
         <v>17</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
@@ -7199,7 +7346,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="32"/>
       <c r="H102" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
@@ -7214,7 +7361,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
@@ -7222,7 +7369,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="32"/>
       <c r="H103" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
@@ -7237,7 +7384,7 @@
         <v>19</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
@@ -7245,7 +7392,7 @@
       <c r="F104" s="37"/>
       <c r="G104" s="32"/>
       <c r="H104" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
@@ -7260,7 +7407,7 @@
         <v>20</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
@@ -7268,7 +7415,7 @@
       <c r="F105" s="37"/>
       <c r="G105" s="32"/>
       <c r="H105" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
@@ -7283,7 +7430,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
@@ -7293,7 +7440,7 @@
       </c>
       <c r="G106" s="32"/>
       <c r="H106" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
@@ -7308,7 +7455,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
@@ -7316,7 +7463,7 @@
       <c r="F107" s="37"/>
       <c r="G107" s="32"/>
       <c r="H107" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
@@ -7331,7 +7478,7 @@
         <v>23</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
@@ -7339,7 +7486,7 @@
       <c r="F108" s="37"/>
       <c r="G108" s="32"/>
       <c r="H108" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
@@ -7354,7 +7501,7 @@
         <v>24</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
@@ -7362,7 +7509,7 @@
       <c r="F109" s="37"/>
       <c r="G109" s="32"/>
       <c r="H109" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
@@ -7377,7 +7524,7 @@
         <v>25</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
@@ -7387,7 +7534,7 @@
       </c>
       <c r="G110" s="32"/>
       <c r="H110" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
@@ -7402,7 +7549,7 @@
         <v>26</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
@@ -7410,7 +7557,7 @@
       <c r="F111" s="37"/>
       <c r="G111" s="32"/>
       <c r="H111" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
@@ -7425,7 +7572,7 @@
         <v>27</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
@@ -7433,7 +7580,7 @@
       <c r="F112" s="37"/>
       <c r="G112" s="32"/>
       <c r="H112" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
@@ -7448,7 +7595,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
@@ -7458,7 +7605,7 @@
       </c>
       <c r="G113" s="32"/>
       <c r="H113" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
@@ -7473,7 +7620,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
@@ -7481,7 +7628,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="32"/>
       <c r="H114" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
@@ -7496,7 +7643,7 @@
         <v>30</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
@@ -7504,7 +7651,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="32"/>
       <c r="H115" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I115" s="32"/>
       <c r="J115" s="32"/>
@@ -7519,7 +7666,7 @@
         <v>31</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
@@ -7529,7 +7676,7 @@
       </c>
       <c r="G116" s="32"/>
       <c r="H116" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
@@ -7544,7 +7691,7 @@
         <v>32</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
@@ -7552,7 +7699,7 @@
       <c r="F117" s="37"/>
       <c r="G117" s="32"/>
       <c r="H117" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
@@ -7567,7 +7714,7 @@
         <v>33</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
@@ -7575,7 +7722,7 @@
       <c r="F118" s="37"/>
       <c r="G118" s="32"/>
       <c r="H118" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="32"/>
@@ -7590,7 +7737,7 @@
         <v>34</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -7598,7 +7745,7 @@
       <c r="F119" s="37"/>
       <c r="G119" s="32"/>
       <c r="H119" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
@@ -7613,7 +7760,7 @@
         <v>35</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
@@ -7621,7 +7768,7 @@
       <c r="F120" s="37"/>
       <c r="G120" s="32"/>
       <c r="H120" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
@@ -7636,7 +7783,7 @@
         <v>36</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
@@ -7644,7 +7791,7 @@
       <c r="F121" s="37"/>
       <c r="G121" s="32"/>
       <c r="H121" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="32"/>
@@ -7659,7 +7806,7 @@
         <v>37</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C122" s="32"/>
       <c r="D122" s="32"/>
@@ -7669,7 +7816,7 @@
       </c>
       <c r="G122" s="32"/>
       <c r="H122" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
@@ -7684,7 +7831,7 @@
         <v>38</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
@@ -7692,7 +7839,7 @@
       <c r="F123" s="37"/>
       <c r="G123" s="32"/>
       <c r="H123" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="32"/>
@@ -7707,7 +7854,7 @@
         <v>39</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
@@ -7715,7 +7862,7 @@
       <c r="F124" s="37"/>
       <c r="G124" s="32"/>
       <c r="H124" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
@@ -7730,7 +7877,7 @@
         <v>40</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
@@ -7738,7 +7885,7 @@
       <c r="F125" s="37"/>
       <c r="G125" s="32"/>
       <c r="H125" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
@@ -7753,7 +7900,7 @@
         <v>41</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
@@ -7763,7 +7910,7 @@
       </c>
       <c r="G126" s="32"/>
       <c r="H126" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
@@ -7778,7 +7925,7 @@
         <v>42</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
@@ -7786,7 +7933,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="32"/>
       <c r="H127" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
@@ -7801,7 +7948,7 @@
         <v>43</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
@@ -7809,7 +7956,7 @@
       <c r="F128" s="37"/>
       <c r="G128" s="32"/>
       <c r="H128" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
@@ -7824,7 +7971,7 @@
         <v>44</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
@@ -7832,7 +7979,7 @@
       <c r="F129" s="37"/>
       <c r="G129" s="32"/>
       <c r="H129" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
@@ -7847,7 +7994,7 @@
         <v>45</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
@@ -7857,7 +8004,7 @@
       </c>
       <c r="G130" s="32"/>
       <c r="H130" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
@@ -7872,7 +8019,7 @@
         <v>46</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
@@ -7880,7 +8027,7 @@
       <c r="F131" s="37"/>
       <c r="G131" s="32"/>
       <c r="H131" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
@@ -7904,7 +8051,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7919,19 +8066,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7940,13 +8087,13 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D2" s="29">
         <v>250</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7955,13 +8102,13 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="29">
         <v>75</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -7970,39 +8117,39 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D4" s="32">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="G7" s="26" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -8010,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -8019,10 +8166,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8030,7 +8177,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -8039,10 +8186,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8050,7 +8197,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -8059,10 +8206,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8070,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -8079,10 +8226,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -8090,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -8099,10 +8246,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -8110,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -8119,10 +8266,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -8130,7 +8277,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -8139,10 +8286,10 @@
         <v>25</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -8156,10 +8303,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE9A99-0F75-6C49-A0AA-F3F1DED00D9C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8169,159 +8316,137 @@
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
       <c r="E1" s="64"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="70"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>395</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>396</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>397</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>402</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>403</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>406</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>427</v>
-      </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8329,10 +8454,9 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8341,8 +8465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8361,7 +8485,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -8392,7 +8516,7 @@
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -8432,278 +8556,278 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="G14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
         <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -8726,83 +8850,83 @@
         <v>2</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="49" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="50">
         <v>5</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="51">
         <v>4</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="52">
         <v>3</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="42">
         <v>1</v>
@@ -8812,26 +8936,26 @@
         <v>2</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G42" s="42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="54">
         <v>1</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G43" s="39"/>
     </row>
@@ -8844,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G44" s="39"/>
     </row>
@@ -8868,13 +8992,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="46"/>
@@ -8883,51 +9007,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="44"/>
       <c r="H48" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="I48" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K48" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="20" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="44"/>
       <c r="H49">
@@ -8936,20 +9060,20 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" s="44"/>
       <c r="H50">
@@ -8958,17 +9082,17 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="44" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
@@ -8978,13 +9102,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="44"/>
@@ -8996,13 +9120,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="44"/>
@@ -9014,13 +9138,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="44"/>
@@ -9032,13 +9156,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="44"/>
@@ -9047,66 +9171,66 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="58" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F57" s="57"/>
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="60" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F58" s="61"/>
       <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="44"/>
@@ -9115,17 +9239,21 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="E60" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>9</v>
+      </c>
       <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -9133,8 +9261,12 @@
       <c r="B61" s="44"/>
       <c r="C61" s="45"/>
       <c r="D61" s="44"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44"/>
+      <c r="E61" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -9142,7 +9274,9 @@
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="39" t="s">
+        <v>468</v>
+      </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
@@ -9243,7 +9377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54803C22-3C90-498D-8461-4B0C2D6C7505}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -9255,7 +9389,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -9305,106 +9439,106 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9420,17 +9554,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -9498,146 +9632,151 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -9674,7 +9813,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -9717,146 +9856,146 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9884,7 +10023,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -9995,8 +10134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DAFF4-7C0C-41D8-B4DC-E34F2EEE47B6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10013,7 +10152,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -10050,330 +10189,322 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>55</v>
+        <v>487</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>20</v>
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>60</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10403,7 +10534,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -10611,7 +10742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E477509-D44B-43BE-9C52-BD956702792C}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -10637,76 +10768,76 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" s="9">
         <v>21440</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -10721,23 +10852,23 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F3" s="9">
         <v>21530</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -10752,23 +10883,23 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -10783,23 +10914,23 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -10814,23 +10945,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -10845,23 +10976,23 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -10876,23 +11007,23 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -10907,23 +11038,23 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -10938,23 +11069,23 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -10969,23 +11100,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -11000,23 +11131,23 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -11031,23 +11162,23 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -11062,23 +11193,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -11093,23 +11224,23 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -11124,23 +11255,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -11155,23 +11286,23 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -11186,23 +11317,23 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -11217,23 +11348,23 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -11248,23 +11379,23 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -11279,23 +11410,23 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -11310,23 +11441,23 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -11341,23 +11472,23 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -11372,23 +11503,23 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -11403,23 +11534,23 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -11434,23 +11565,23 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -11465,23 +11596,23 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -11496,23 +11627,23 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -11527,23 +11658,23 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -11558,23 +11689,23 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -11589,23 +11720,23 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -11620,23 +11751,23 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -11651,23 +11782,23 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -11682,23 +11813,23 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -11713,23 +11844,23 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -11744,23 +11875,23 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -11775,23 +11906,23 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -11806,23 +11937,23 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -11837,23 +11968,23 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -11868,23 +11999,23 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -11899,23 +12030,23 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -11930,23 +12061,23 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -11961,23 +12092,23 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -11992,23 +12123,23 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -12023,23 +12154,23 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -12054,23 +12185,23 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -12085,23 +12216,23 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -12122,23 +12253,23 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -12153,23 +12284,23 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -12184,23 +12315,23 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -12215,23 +12346,23 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -12246,23 +12377,23 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -12277,21 +12408,21 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -12306,21 +12437,21 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -12335,21 +12466,21 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -12364,21 +12495,21 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -12393,21 +12524,21 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -12422,21 +12553,21 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -12451,21 +12582,21 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -12480,21 +12611,21 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -12509,21 +12640,21 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -12538,21 +12669,21 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -12567,21 +12698,21 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -12596,21 +12727,21 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -12625,21 +12756,21 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -12654,21 +12785,21 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -12683,21 +12814,21 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -12712,21 +12843,21 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -12741,21 +12872,21 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -12770,21 +12901,21 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -12799,21 +12930,21 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -12828,21 +12959,21 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -12857,21 +12988,21 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -12886,21 +13017,21 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -12915,21 +13046,21 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -12944,21 +13075,21 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -12973,21 +13104,21 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -13002,21 +13133,21 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -13031,21 +13162,21 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -13060,21 +13191,21 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -13089,21 +13220,21 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -13118,21 +13249,21 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -13147,21 +13278,21 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -13176,19 +13307,19 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="9"/>
       <c r="G84" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -13203,19 +13334,19 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="9"/>
       <c r="G85" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -13230,19 +13361,19 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="9"/>
       <c r="G86" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D38EAE-C40E-E241-AA0E-1CED06F55934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F73DDC-07B7-894B-BFF5-B8BC41FCBE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="481">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1728,6 +1728,21 @@
   </si>
   <si>
     <t>Birdie</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2319,6 +2334,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2370,34 +2386,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2966,6 +2963,28 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3974,47 +3993,47 @@
     <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="32"/>
     <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4483,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
@@ -4564,7 +4583,7 @@
       <c r="E2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="26"/>
       <c r="H2" s="36" t="s">
         <v>299</v>
@@ -4591,7 +4610,7 @@
       <c r="E3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="29"/>
       <c r="H3" s="36" t="s">
         <v>299</v>
@@ -4618,7 +4637,7 @@
       <c r="E4" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="29"/>
       <c r="H4" s="36" t="s">
         <v>299</v>
@@ -4645,7 +4664,7 @@
       <c r="E5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="79"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="29"/>
       <c r="H5" s="36" t="s">
         <v>299</v>
@@ -4672,7 +4691,7 @@
       <c r="E6" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="29"/>
       <c r="H6" s="36" t="s">
         <v>299</v>
@@ -4699,7 +4718,7 @@
       <c r="E7" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="29"/>
       <c r="H7" s="36" t="s">
         <v>299</v>
@@ -4726,7 +4745,7 @@
       <c r="E8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29"/>
       <c r="H8" s="36" t="s">
         <v>299</v>
@@ -4753,7 +4772,7 @@
       <c r="E9" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="29"/>
       <c r="H9" s="36" t="s">
         <v>299</v>
@@ -4780,7 +4799,7 @@
       <c r="E10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="29"/>
       <c r="H10" s="36" t="s">
         <v>299</v>
@@ -4807,7 +4826,7 @@
       <c r="E11" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="79"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="29"/>
       <c r="H11" s="36" t="s">
         <v>299</v>
@@ -4834,7 +4853,7 @@
       <c r="E12" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="79"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="29"/>
       <c r="H12" s="36" t="s">
         <v>299</v>
@@ -4861,7 +4880,7 @@
       <c r="E13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="29"/>
       <c r="H13" s="36" t="s">
         <v>299</v>
@@ -4888,7 +4907,7 @@
       <c r="E14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="79"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="29"/>
       <c r="H14" s="36" t="s">
         <v>299</v>
@@ -4915,7 +4934,7 @@
       <c r="E15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="29"/>
       <c r="H15" s="36" t="s">
         <v>299</v>
@@ -4942,7 +4961,7 @@
       <c r="E16" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="79"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="29"/>
       <c r="H16" s="36" t="s">
         <v>299</v>
@@ -4969,7 +4988,7 @@
       <c r="E17" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="29"/>
       <c r="H17" s="36" t="s">
         <v>299</v>
@@ -4996,7 +5015,7 @@
       <c r="E18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="79"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="29"/>
       <c r="H18" s="36" t="s">
         <v>299</v>
@@ -5023,7 +5042,7 @@
       <c r="E19" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="29"/>
       <c r="H19" s="36" t="s">
         <v>299</v>
@@ -5050,7 +5069,7 @@
       <c r="E20" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="79"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="29"/>
       <c r="H20" s="36" t="s">
         <v>299</v>
@@ -5077,7 +5096,7 @@
       <c r="E21" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="79"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="29"/>
       <c r="H21" s="36" t="s">
         <v>299</v>
@@ -5104,7 +5123,7 @@
       <c r="E22" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="29"/>
       <c r="H22" s="36" t="s">
         <v>299</v>
@@ -5131,7 +5150,7 @@
       <c r="E23" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="79"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="29"/>
       <c r="H23" s="36" t="s">
         <v>299</v>
@@ -5158,7 +5177,7 @@
       <c r="E24" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="79"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="29"/>
       <c r="H24" s="36" t="s">
         <v>299</v>
@@ -5185,7 +5204,7 @@
       <c r="E25" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="29"/>
       <c r="H25" s="36" t="s">
         <v>299</v>
@@ -5212,7 +5231,7 @@
       <c r="E26" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="29"/>
       <c r="H26" s="36" t="s">
         <v>299</v>
@@ -5239,7 +5258,7 @@
       <c r="E27" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="29"/>
       <c r="H27" s="36" t="s">
         <v>299</v>
@@ -5266,7 +5285,7 @@
       <c r="E28" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="29"/>
       <c r="H28" s="36" t="s">
         <v>299</v>
@@ -5293,7 +5312,7 @@
       <c r="E29" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="29"/>
       <c r="H29" s="36" t="s">
         <v>299</v>
@@ -5320,7 +5339,7 @@
       <c r="E30" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="29"/>
       <c r="H30" s="36" t="s">
         <v>299</v>
@@ -5347,7 +5366,7 @@
       <c r="E31" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29"/>
       <c r="H31" s="36" t="s">
         <v>299</v>
@@ -5374,7 +5393,7 @@
       <c r="E32" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F32" s="79"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29"/>
       <c r="H32" s="36" t="s">
         <v>299</v>
@@ -5401,7 +5420,7 @@
       <c r="E33" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29"/>
       <c r="H33" s="36" t="s">
         <v>299</v>
@@ -5428,7 +5447,7 @@
       <c r="E34" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="29"/>
       <c r="H34" s="36" t="s">
         <v>299</v>
@@ -5455,7 +5474,7 @@
       <c r="E35" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="79"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29"/>
       <c r="H35" s="36" t="s">
         <v>299</v>
@@ -5482,7 +5501,7 @@
       <c r="E36" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="29"/>
       <c r="H36" s="36" t="s">
         <v>299</v>
@@ -5509,7 +5528,7 @@
       <c r="E37" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29"/>
       <c r="H37" s="36" t="s">
         <v>299</v>
@@ -5536,7 +5555,7 @@
       <c r="E38" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29"/>
       <c r="H38" s="36" t="s">
         <v>299</v>
@@ -5563,7 +5582,7 @@
       <c r="E39" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F39" s="79"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29"/>
       <c r="H39" s="36" t="s">
         <v>299</v>
@@ -5590,7 +5609,7 @@
       <c r="E40" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="79"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29"/>
       <c r="H40" s="36" t="s">
         <v>299</v>
@@ -5617,7 +5636,7 @@
       <c r="E41" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="79"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29"/>
       <c r="H41" s="36" t="s">
         <v>299</v>
@@ -5644,7 +5663,7 @@
       <c r="E42" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F42" s="79"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29"/>
       <c r="H42" s="36" t="s">
         <v>299</v>
@@ -5671,7 +5690,7 @@
       <c r="E43" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F43" s="79"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29"/>
       <c r="H43" s="36" t="s">
         <v>299</v>
@@ -5698,7 +5717,7 @@
       <c r="E44" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="79"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="29"/>
       <c r="H44" s="36" t="s">
         <v>299</v>
@@ -5725,7 +5744,7 @@
       <c r="E45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="79"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29"/>
       <c r="H45" s="36" t="s">
         <v>299</v>
@@ -5752,7 +5771,7 @@
       <c r="E46" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="29"/>
       <c r="H46" s="36" t="s">
         <v>299</v>
@@ -5779,7 +5798,7 @@
       <c r="E47" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="79"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29"/>
       <c r="H47" s="36" t="s">
         <v>299</v>
@@ -5806,7 +5825,7 @@
       <c r="E48" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="79"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="29"/>
       <c r="H48" s="36" t="s">
         <v>299</v>
@@ -5833,7 +5852,7 @@
       <c r="E49" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="79"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="29"/>
       <c r="H49" s="36" t="s">
         <v>299</v>
@@ -5860,7 +5879,7 @@
       <c r="E50" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="79"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="29"/>
       <c r="H50" s="36" t="s">
         <v>299</v>
@@ -5887,7 +5906,7 @@
       <c r="E51" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="79"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="29"/>
       <c r="H51" s="36" t="s">
         <v>299</v>
@@ -5914,7 +5933,7 @@
       <c r="E52" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="79"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="29"/>
       <c r="H52" s="36" t="s">
         <v>299</v>
@@ -5941,7 +5960,7 @@
       <c r="E53" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="79"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29"/>
       <c r="H53" s="36" t="s">
         <v>299</v>
@@ -5968,7 +5987,7 @@
       <c r="E54" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="79"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="29"/>
       <c r="H54" s="36" t="s">
         <v>299</v>
@@ -5995,7 +6014,7 @@
       <c r="E55" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="79"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29"/>
       <c r="H55" s="36" t="s">
         <v>299</v>
@@ -6022,7 +6041,7 @@
       <c r="E56" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="79"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="29"/>
       <c r="H56" s="36" t="s">
         <v>299</v>
@@ -6049,7 +6068,7 @@
       <c r="E57" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="79"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="29"/>
       <c r="H57" s="36" t="s">
         <v>299</v>
@@ -6076,7 +6095,7 @@
       <c r="E58" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="79"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="29"/>
       <c r="H58" s="36" t="s">
         <v>299</v>
@@ -6103,7 +6122,7 @@
       <c r="E59" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F59" s="79"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="29"/>
       <c r="H59" s="36" t="s">
         <v>299</v>
@@ -6130,7 +6149,7 @@
       <c r="E60" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="79"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="29"/>
       <c r="H60" s="36" t="s">
         <v>299</v>
@@ -6157,7 +6176,7 @@
       <c r="E61" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="79"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29"/>
       <c r="H61" s="36" t="s">
         <v>299</v>
@@ -6184,7 +6203,7 @@
       <c r="E62" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="79"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29"/>
       <c r="H62" s="36" t="s">
         <v>299</v>
@@ -6211,7 +6230,7 @@
       <c r="E63" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="79"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29"/>
       <c r="H63" s="36" t="s">
         <v>299</v>
@@ -6238,7 +6257,7 @@
       <c r="E64" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="79"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29"/>
       <c r="H64" s="36" t="s">
         <v>299</v>
@@ -6265,7 +6284,7 @@
       <c r="E65" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="79"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="29"/>
       <c r="H65" s="36" t="s">
         <v>299</v>
@@ -6292,7 +6311,7 @@
       <c r="E66" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F66" s="79"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29"/>
       <c r="H66" s="36" t="s">
         <v>299</v>
@@ -6319,7 +6338,7 @@
       <c r="E67" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="79"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="29"/>
       <c r="H67" s="36" t="s">
         <v>299</v>
@@ -6346,7 +6365,7 @@
       <c r="E68" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="79"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29"/>
       <c r="H68" s="36" t="s">
         <v>299</v>
@@ -6373,7 +6392,7 @@
       <c r="E69" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="79"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29"/>
       <c r="H69" s="36" t="s">
         <v>299</v>
@@ -6400,7 +6419,7 @@
       <c r="E70" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="79"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29"/>
       <c r="H70" s="36" t="s">
         <v>299</v>
@@ -6427,7 +6446,7 @@
       <c r="E71" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="79"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29"/>
       <c r="H71" s="36" t="s">
         <v>299</v>
@@ -6454,7 +6473,7 @@
       <c r="E72" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="79"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29"/>
       <c r="H72" s="36" t="s">
         <v>299</v>
@@ -6481,7 +6500,7 @@
       <c r="E73" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="79"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29"/>
       <c r="H73" s="36" t="s">
         <v>299</v>
@@ -6508,7 +6527,7 @@
       <c r="E74" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F74" s="79"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29"/>
       <c r="H74" s="36" t="s">
         <v>299</v>
@@ -6535,7 +6554,7 @@
       <c r="E75" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="79"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29"/>
       <c r="H75" s="36" t="s">
         <v>299</v>
@@ -6562,7 +6581,7 @@
       <c r="E76" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F76" s="79"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="29"/>
       <c r="H76" s="36" t="s">
         <v>299</v>
@@ -6589,7 +6608,7 @@
       <c r="E77" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="79"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29"/>
       <c r="H77" s="36" t="s">
         <v>299</v>
@@ -6616,7 +6635,7 @@
       <c r="E78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="79"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="29"/>
       <c r="H78" s="36" t="s">
         <v>299</v>
@@ -6643,7 +6662,7 @@
       <c r="E79" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F79" s="79"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="29"/>
       <c r="H79" s="36" t="s">
         <v>299</v>
@@ -6670,7 +6689,7 @@
       <c r="E80" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F80" s="79"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29"/>
       <c r="H80" s="36" t="s">
         <v>299</v>
@@ -6697,7 +6716,7 @@
       <c r="E81" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="79"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29"/>
       <c r="H81" s="36" t="s">
         <v>299</v>
@@ -6724,7 +6743,7 @@
       <c r="E82" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F82" s="79"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29"/>
       <c r="H82" s="36" t="s">
         <v>299</v>
@@ -6751,7 +6770,7 @@
       <c r="E83" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F83" s="79"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29"/>
       <c r="H83" s="36" t="s">
         <v>299</v>
@@ -6778,7 +6797,7 @@
       <c r="E84" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="F84" s="79"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="29"/>
       <c r="H84" s="36" t="s">
         <v>299</v>
@@ -8170,27 +8189,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8360,72 +8379,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9254,46 +9273,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -9420,83 +9439,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -9518,8 +9537,14 @@
       <c r="I9" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
@@ -9538,8 +9563,14 @@
       <c r="H10" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>295</v>
       </c>
@@ -9558,8 +9589,14 @@
       <c r="H11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -9575,8 +9612,14 @@
       <c r="H12" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -9592,8 +9635,14 @@
       <c r="H13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -9609,8 +9658,14 @@
       <c r="H14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -9623,22 +9678,32 @@
       <c r="H15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9673,47 +9738,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9883,105 +9948,105 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10012,41 +10077,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10402,159 +10467,159 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5780843-5039-2641-BD6E-CE8CDDAEF910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AFC323-9ADF-B748-AF46-9B37B6686AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="500" windowWidth="21460" windowHeight="16080" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="SERVICES" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="506">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1795,6 +1794,30 @@
   </si>
   <si>
     <t>SERVICES TABLE</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>order_items</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>grand_total</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -2429,6 +2452,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2480,38 +2507,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="82">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3996,6 +4031,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EA9DB"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -4060,11 +4103,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="A1:B11" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
-    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="77"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4115,17 +4158,39 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="A21:B24" totalsRowShown="0" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="A21:B24" totalsRowShown="0" dataDxfId="65">
   <autoFilter ref="A21:B24" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{80794978-6A1F-45A4-9056-55F27912ADCA}" name="user_purchase_logs" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{A1443436-B803-4CBB-A73E-120A8B4EB798}" name="datatype" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}" name="Table29" displayName="Table29" ref="E22:F26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="E22:F26" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6CC08FD4-B6D1-084D-AFB7-4BD744507D6F}" name="orders"/>
+    <tableColumn id="2" xr3:uid="{3DC50735-1011-F848-BAB9-1909EE4D1061}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="H22:I26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="H22:I26" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8DE5C960-B09C-0541-8906-0BFE486C564F}" name="order_items"/>
+    <tableColumn id="2" xr3:uid="{EED8722B-4C86-5A4F-BE35-E088FB8C936D}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}" name="Table11" displayName="Table11" ref="A7:B15" totalsRowShown="0">
   <autoFilter ref="A7:B15" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}"/>
   <tableColumns count="2">
@@ -4136,7 +4201,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}" name="Table155" displayName="Table155" ref="D7:E12" totalsRowShown="0">
   <autoFilter ref="D7:E12" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}"/>
   <tableColumns count="2">
@@ -4147,34 +4212,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:H13" totalsRowShown="0">
   <autoFilter ref="G7:H13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5281FA9C-99EC-4D45-889C-8643F65C7BB9}" name="prod_sales"/>
     <tableColumn id="2" xr3:uid="{B556F5FC-DC14-4F40-B8DB-8BBDAC8FDFC1}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
-  <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product"/>
-    <tableColumn id="2" xr3:uid="{B5B00082-450C-4BC9-8030-E1C02C9744F1}" name="Datatype"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
-  <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39523F8C-90AB-4AEA-A3D2-20DFC202F1DC}" name="vendor_data"/>
-    <tableColumn id="2" xr3:uid="{03645BD0-2188-4258-BB3B-69E23F9F460D}" name="datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4192,6 +4235,28 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
+  <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product"/>
+    <tableColumn id="2" xr3:uid="{B5B00082-450C-4BC9-8030-E1C02C9744F1}" name="Datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
+  <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{39523F8C-90AB-4AEA-A3D2-20DFC202F1DC}" name="vendor_data"/>
+    <tableColumn id="2" xr3:uid="{03645BD0-2188-4258-BB3B-69E23F9F460D}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}" name="Table15" displayName="Table15" ref="G14:H19" totalsRowShown="0">
   <autoFilter ref="G14:H19" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}"/>
   <tableColumns count="2">
@@ -4202,7 +4267,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
   <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
   <tableColumns count="2">
@@ -4213,7 +4278,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}" name="Table10" displayName="Table10" ref="D21:E23" totalsRowShown="0">
   <autoFilter ref="D21:E23" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}"/>
   <tableColumns count="2">
@@ -4224,110 +4289,99 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="48"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="47"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="45"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="43"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
-  <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
-    <sortCondition ref="A1:A85"/>
-  </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="46"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="44"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="43"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
+    <sortCondition ref="A1:A85"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
-  <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39610124-41A7-CF49-BC49-78BA265D0EE9}" name="Membership "/>
-    <tableColumn id="2" xr3:uid="{3200C7BA-CF50-DB4C-A7CB-5979C542E7C1}" name="Datatype"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
-  <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
+  <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2EDC312-993E-404D-A78D-6FD2570A6CDE}" name="Classes"/>
-    <tableColumn id="2" xr3:uid="{594888AA-0D1B-2545-8CF0-9AB7F6A479A1}" name="Datatype"/>
+    <tableColumn id="1" xr3:uid="{39610124-41A7-CF49-BC49-78BA265D0EE9}" name="Membership "/>
+    <tableColumn id="2" xr3:uid="{3200C7BA-CF50-DB4C-A7CB-5979C542E7C1}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4339,6 +4393,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D4677797-729C-4C55-8C85-5893E569693E}" name="user_data"/>
     <tableColumn id="2" xr3:uid="{D0BD2337-3162-4857-AD85-961C0281D5BD}" name="datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
+  <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C2EDC312-993E-404D-A78D-6FD2570A6CDE}" name="Classes"/>
+    <tableColumn id="2" xr3:uid="{594888AA-0D1B-2545-8CF0-9AB7F6A479A1}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4389,22 +4454,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <autoFilter ref="E56:F58" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H48:I61" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H48:I61" totalsRowShown="0" dataDxfId="68">
   <autoFilter ref="H48:I61" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4743,7 +4808,7 @@
       <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="75" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4754,7 +4819,7 @@
       <c r="B4" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="76" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4765,7 +4830,7 @@
       <c r="B5" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="77" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4776,7 +4841,7 @@
       <c r="B6" s="68" t="s">
         <v>488</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="78" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8523,27 +8588,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8690,72 +8755,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9594,46 +9659,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -9760,78 +9825,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
     </row>
     <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -10035,6 +10101,18 @@
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
+      <c r="E22" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
@@ -10043,6 +10121,18 @@
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="E23" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
@@ -10050,6 +10140,46 @@
       </c>
       <c r="B24" s="20" t="s">
         <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>502</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>504</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>505</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10057,11 +10187,13 @@
     <mergeCell ref="A1:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10086,47 +10218,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10293,105 +10425,105 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10405,7 +10537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DAFF4-7C0C-41D8-B4DC-E34F2EEE47B6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10422,41 +10554,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10812,159 +10944,159 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="88"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\Database Tables Outlines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AFC323-9ADF-B748-AF46-9B37B6686AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE42E23-B4B4-491D-94B6-74F7AE7EE5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="517">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1558,9 +1558,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>uname</t>
-  </si>
-  <si>
     <t>varchar(25)</t>
   </si>
   <si>
@@ -1570,9 +1567,6 @@
     <t>fname</t>
   </si>
   <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
     <t>mname</t>
   </si>
   <si>
@@ -1592,9 +1586,6 @@
   </si>
   <si>
     <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>employee</t>
   </si>
   <si>
     <t>position</t>
@@ -1652,18 +1643,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">premium </t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>registered</t>
-  </si>
-  <si>
-    <t>not_registered</t>
-  </si>
-  <si>
     <t>roles</t>
   </si>
   <si>
@@ -1818,6 +1797,83 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>freeMember</t>
+  </si>
+  <si>
+    <t>paidMember</t>
+  </si>
+  <si>
+    <t>financalStaff</t>
+  </si>
+  <si>
+    <t>generalStaff</t>
+  </si>
+  <si>
+    <t>notMember</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>user_address</t>
+  </si>
+  <si>
+    <r>
+      <t>USER_ADD (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>USER_ADD</t>
+  </si>
+  <si>
+    <t>int (12)</t>
+  </si>
+  <si>
+    <t>int  (12)</t>
+  </si>
+  <si>
+    <t>int (1)</t>
+  </si>
+  <si>
+    <t>addressX</t>
+  </si>
+  <si>
+    <t>cityX</t>
+  </si>
+  <si>
+    <t>stateX</t>
+  </si>
+  <si>
+    <t>zipX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Table? </t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2077,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2402,14 +2476,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2433,17 +2502,13 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2507,47 +2572,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="82">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3784,6 +3817,42 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
     </dxf>
     <dxf>
@@ -4169,7 +4238,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}" name="Table29" displayName="Table29" ref="E22:F26" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}" name="Table29" displayName="Table29" ref="E22:F26" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="E22:F26" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6CC08FD4-B6D1-084D-AFB7-4BD744507D6F}" name="orders"/>
@@ -4180,7 +4249,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="H22:I26" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="H22:I26" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="H22:I26" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8DE5C960-B09C-0541-8906-0BFE486C564F}" name="order_items"/>
@@ -4290,87 +4359,87 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="44"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="43"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="41"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
     <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4778,14 +4847,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4793,99 +4862,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="75" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="D3" s="68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>488</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
-        <v>489</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="33"/>
     </row>
@@ -4905,25 +4974,25 @@
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>294</v>
       </c>
@@ -4970,7 +5039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>339</v>
       </c>
@@ -4982,7 +5051,7 @@
       <c r="E2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="26"/>
       <c r="H2" s="36" t="s">
         <v>297</v>
@@ -4997,7 +5066,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>331</v>
       </c>
@@ -5009,7 +5078,7 @@
       <c r="E3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="29"/>
       <c r="H3" s="36" t="s">
         <v>297</v>
@@ -5024,7 +5093,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>332</v>
       </c>
@@ -5036,7 +5105,7 @@
       <c r="E4" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="29"/>
       <c r="H4" s="36" t="s">
         <v>297</v>
@@ -5051,7 +5120,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>333</v>
       </c>
@@ -5063,7 +5132,7 @@
       <c r="E5" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="29"/>
       <c r="H5" s="36" t="s">
         <v>297</v>
@@ -5078,7 +5147,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>334</v>
       </c>
@@ -5090,7 +5159,7 @@
       <c r="E6" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="29"/>
       <c r="H6" s="36" t="s">
         <v>297</v>
@@ -5105,7 +5174,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>335</v>
       </c>
@@ -5117,7 +5186,7 @@
       <c r="E7" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="29"/>
       <c r="H7" s="36" t="s">
         <v>297</v>
@@ -5132,7 +5201,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>336</v>
       </c>
@@ -5144,7 +5213,7 @@
       <c r="E8" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="29"/>
       <c r="H8" s="36" t="s">
         <v>297</v>
@@ -5159,7 +5228,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>337</v>
       </c>
@@ -5171,7 +5240,7 @@
       <c r="E9" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="29"/>
       <c r="H9" s="36" t="s">
         <v>297</v>
@@ -5186,7 +5255,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>338</v>
       </c>
@@ -5198,7 +5267,7 @@
       <c r="E10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="29"/>
       <c r="H10" s="36" t="s">
         <v>297</v>
@@ -5213,7 +5282,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>351</v>
       </c>
@@ -5225,7 +5294,7 @@
       <c r="E11" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="29"/>
       <c r="H11" s="36" t="s">
         <v>297</v>
@@ -5240,7 +5309,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>356</v>
       </c>
@@ -5252,7 +5321,7 @@
       <c r="E12" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="29"/>
       <c r="H12" s="36" t="s">
         <v>297</v>
@@ -5267,7 +5336,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>302</v>
       </c>
@@ -5279,7 +5348,7 @@
       <c r="E13" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="29"/>
       <c r="H13" s="36" t="s">
         <v>297</v>
@@ -5294,7 +5363,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>354</v>
       </c>
@@ -5306,7 +5375,7 @@
       <c r="E14" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="29"/>
       <c r="H14" s="36" t="s">
         <v>297</v>
@@ -5321,7 +5390,7 @@
       <c r="N14" s="29"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>355</v>
       </c>
@@ -5333,7 +5402,7 @@
       <c r="E15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="29"/>
       <c r="H15" s="36" t="s">
         <v>297</v>
@@ -5348,7 +5417,7 @@
       <c r="N15" s="29"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>303</v>
       </c>
@@ -5360,7 +5429,7 @@
       <c r="E16" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="29"/>
       <c r="H16" s="36" t="s">
         <v>297</v>
@@ -5375,7 +5444,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>353</v>
       </c>
@@ -5387,7 +5456,7 @@
       <c r="E17" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="29"/>
       <c r="H17" s="36" t="s">
         <v>297</v>
@@ -5402,7 +5471,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>340</v>
       </c>
@@ -5414,7 +5483,7 @@
       <c r="E18" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="29"/>
       <c r="H18" s="36" t="s">
         <v>297</v>
@@ -5429,7 +5498,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>357</v>
       </c>
@@ -5441,7 +5510,7 @@
       <c r="E19" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="29"/>
       <c r="H19" s="36" t="s">
         <v>297</v>
@@ -5456,7 +5525,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>358</v>
       </c>
@@ -5468,7 +5537,7 @@
       <c r="E20" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="29"/>
       <c r="H20" s="36" t="s">
         <v>297</v>
@@ -5483,7 +5552,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>349</v>
       </c>
@@ -5495,7 +5564,7 @@
       <c r="E21" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="29"/>
       <c r="H21" s="36" t="s">
         <v>297</v>
@@ -5510,7 +5579,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>348</v>
       </c>
@@ -5522,7 +5591,7 @@
       <c r="E22" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="29"/>
       <c r="H22" s="36" t="s">
         <v>297</v>
@@ -5537,7 +5606,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>350</v>
       </c>
@@ -5549,7 +5618,7 @@
       <c r="E23" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="29"/>
       <c r="H23" s="36" t="s">
         <v>297</v>
@@ -5564,7 +5633,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>360</v>
       </c>
@@ -5576,7 +5645,7 @@
       <c r="E24" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="29"/>
       <c r="H24" s="36" t="s">
         <v>297</v>
@@ -5591,7 +5660,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>361</v>
       </c>
@@ -5603,7 +5672,7 @@
       <c r="E25" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="29"/>
       <c r="H25" s="36" t="s">
         <v>297</v>
@@ -5618,7 +5687,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>352</v>
       </c>
@@ -5630,7 +5699,7 @@
       <c r="E26" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="29"/>
       <c r="H26" s="36" t="s">
         <v>297</v>
@@ -5645,7 +5714,7 @@
       <c r="N26" s="29"/>
       <c r="O26" s="30"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>359</v>
       </c>
@@ -5657,7 +5726,7 @@
       <c r="E27" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="29"/>
       <c r="H27" s="36" t="s">
         <v>297</v>
@@ -5672,7 +5741,7 @@
       <c r="N27" s="29"/>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>362</v>
       </c>
@@ -5684,7 +5753,7 @@
       <c r="E28" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="29"/>
       <c r="H28" s="36" t="s">
         <v>297</v>
@@ -5699,7 +5768,7 @@
       <c r="N28" s="29"/>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>363</v>
       </c>
@@ -5711,7 +5780,7 @@
       <c r="E29" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="29"/>
       <c r="H29" s="36" t="s">
         <v>297</v>
@@ -5726,7 +5795,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>369</v>
       </c>
@@ -5738,7 +5807,7 @@
       <c r="E30" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="29"/>
       <c r="H30" s="36" t="s">
         <v>297</v>
@@ -5753,7 +5822,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>370</v>
       </c>
@@ -5765,7 +5834,7 @@
       <c r="E31" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="29"/>
       <c r="H31" s="36" t="s">
         <v>297</v>
@@ -5780,7 +5849,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="30"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>371</v>
       </c>
@@ -5792,7 +5861,7 @@
       <c r="E32" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="29"/>
       <c r="H32" s="36" t="s">
         <v>297</v>
@@ -5807,7 +5876,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>372</v>
       </c>
@@ -5819,7 +5888,7 @@
       <c r="E33" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="29"/>
       <c r="H33" s="36" t="s">
         <v>297</v>
@@ -5834,7 +5903,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>373</v>
       </c>
@@ -5846,7 +5915,7 @@
       <c r="E34" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="29"/>
       <c r="H34" s="36" t="s">
         <v>297</v>
@@ -5861,7 +5930,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>374</v>
       </c>
@@ -5873,7 +5942,7 @@
       <c r="E35" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="29"/>
       <c r="H35" s="36" t="s">
         <v>297</v>
@@ -5888,7 +5957,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>375</v>
       </c>
@@ -5900,7 +5969,7 @@
       <c r="E36" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="29"/>
       <c r="H36" s="36" t="s">
         <v>297</v>
@@ -5915,7 +5984,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>364</v>
       </c>
@@ -5927,7 +5996,7 @@
       <c r="E37" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="29"/>
       <c r="H37" s="36" t="s">
         <v>297</v>
@@ -5942,7 +6011,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>365</v>
       </c>
@@ -5954,7 +6023,7 @@
       <c r="E38" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="29"/>
       <c r="H38" s="36" t="s">
         <v>297</v>
@@ -5969,7 +6038,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>366</v>
       </c>
@@ -5981,7 +6050,7 @@
       <c r="E39" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="29"/>
       <c r="H39" s="36" t="s">
         <v>297</v>
@@ -5996,7 +6065,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>367</v>
       </c>
@@ -6008,7 +6077,7 @@
       <c r="E40" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="29"/>
       <c r="H40" s="36" t="s">
         <v>297</v>
@@ -6023,7 +6092,7 @@
       <c r="N40" s="29"/>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>377</v>
       </c>
@@ -6035,7 +6104,7 @@
       <c r="E41" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="29"/>
       <c r="H41" s="36" t="s">
         <v>297</v>
@@ -6050,7 +6119,7 @@
       <c r="N41" s="29"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>376</v>
       </c>
@@ -6062,7 +6131,7 @@
       <c r="E42" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="29"/>
       <c r="H42" s="36" t="s">
         <v>297</v>
@@ -6077,7 +6146,7 @@
       <c r="N42" s="29"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>378</v>
       </c>
@@ -6089,7 +6158,7 @@
       <c r="E43" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="29"/>
       <c r="H43" s="36" t="s">
         <v>297</v>
@@ -6104,7 +6173,7 @@
       <c r="N43" s="29"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>323</v>
       </c>
@@ -6116,7 +6185,7 @@
       <c r="E44" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="29"/>
       <c r="H44" s="36" t="s">
         <v>297</v>
@@ -6131,7 +6200,7 @@
       <c r="N44" s="29"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>322</v>
       </c>
@@ -6143,7 +6212,7 @@
       <c r="E45" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="29"/>
       <c r="H45" s="36" t="s">
         <v>297</v>
@@ -6158,7 +6227,7 @@
       <c r="N45" s="29"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>306</v>
       </c>
@@ -6170,7 +6239,7 @@
       <c r="E46" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="62"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="29"/>
       <c r="H46" s="36" t="s">
         <v>297</v>
@@ -6185,7 +6254,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>307</v>
       </c>
@@ -6197,7 +6266,7 @@
       <c r="E47" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="62"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="29"/>
       <c r="H47" s="36" t="s">
         <v>297</v>
@@ -6212,7 +6281,7 @@
       <c r="N47" s="29"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>325</v>
       </c>
@@ -6224,7 +6293,7 @@
       <c r="E48" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="29"/>
       <c r="H48" s="36" t="s">
         <v>297</v>
@@ -6239,7 +6308,7 @@
       <c r="N48" s="29"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
@@ -6251,7 +6320,7 @@
       <c r="E49" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="29"/>
       <c r="H49" s="36" t="s">
         <v>297</v>
@@ -6266,7 +6335,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>313</v>
       </c>
@@ -6278,7 +6347,7 @@
       <c r="E50" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="29"/>
       <c r="H50" s="36" t="s">
         <v>297</v>
@@ -6293,7 +6362,7 @@
       <c r="N50" s="29"/>
       <c r="O50" s="30"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>298</v>
       </c>
@@ -6305,7 +6374,7 @@
       <c r="E51" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="29"/>
       <c r="H51" s="36" t="s">
         <v>297</v>
@@ -6320,7 +6389,7 @@
       <c r="N51" s="29"/>
       <c r="O51" s="30"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>301</v>
       </c>
@@ -6332,7 +6401,7 @@
       <c r="E52" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="29"/>
       <c r="H52" s="36" t="s">
         <v>297</v>
@@ -6347,7 +6416,7 @@
       <c r="N52" s="29"/>
       <c r="O52" s="30"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>324</v>
       </c>
@@ -6359,7 +6428,7 @@
       <c r="E53" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="62"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="29"/>
       <c r="H53" s="36" t="s">
         <v>297</v>
@@ -6374,7 +6443,7 @@
       <c r="N53" s="29"/>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>315</v>
       </c>
@@ -6386,7 +6455,7 @@
       <c r="E54" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="62"/>
+      <c r="F54" s="59"/>
       <c r="G54" s="29"/>
       <c r="H54" s="36" t="s">
         <v>297</v>
@@ -6401,7 +6470,7 @@
       <c r="N54" s="29"/>
       <c r="O54" s="30"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>342</v>
       </c>
@@ -6413,7 +6482,7 @@
       <c r="E55" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="29"/>
       <c r="H55" s="36" t="s">
         <v>297</v>
@@ -6428,7 +6497,7 @@
       <c r="N55" s="29"/>
       <c r="O55" s="30"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>343</v>
       </c>
@@ -6440,7 +6509,7 @@
       <c r="E56" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="62"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="29"/>
       <c r="H56" s="36" t="s">
         <v>297</v>
@@ -6455,7 +6524,7 @@
       <c r="N56" s="29"/>
       <c r="O56" s="30"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>344</v>
       </c>
@@ -6467,7 +6536,7 @@
       <c r="E57" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="62"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="29"/>
       <c r="H57" s="36" t="s">
         <v>297</v>
@@ -6482,7 +6551,7 @@
       <c r="N57" s="29"/>
       <c r="O57" s="30"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>345</v>
       </c>
@@ -6494,7 +6563,7 @@
       <c r="E58" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="62"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="29"/>
       <c r="H58" s="36" t="s">
         <v>297</v>
@@ -6509,7 +6578,7 @@
       <c r="N58" s="29"/>
       <c r="O58" s="30"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>346</v>
       </c>
@@ -6521,7 +6590,7 @@
       <c r="E59" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="62"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="29"/>
       <c r="H59" s="36" t="s">
         <v>297</v>
@@ -6536,7 +6605,7 @@
       <c r="N59" s="29"/>
       <c r="O59" s="30"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>347</v>
       </c>
@@ -6548,7 +6617,7 @@
       <c r="E60" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="62"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="29"/>
       <c r="H60" s="36" t="s">
         <v>297</v>
@@ -6563,7 +6632,7 @@
       <c r="N60" s="29"/>
       <c r="O60" s="30"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>326</v>
       </c>
@@ -6575,7 +6644,7 @@
       <c r="E61" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="62"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="29"/>
       <c r="H61" s="36" t="s">
         <v>297</v>
@@ -6590,7 +6659,7 @@
       <c r="N61" s="29"/>
       <c r="O61" s="30"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>327</v>
       </c>
@@ -6602,7 +6671,7 @@
       <c r="E62" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="62"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="29"/>
       <c r="H62" s="36" t="s">
         <v>297</v>
@@ -6617,7 +6686,7 @@
       <c r="N62" s="29"/>
       <c r="O62" s="30"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>328</v>
       </c>
@@ -6629,7 +6698,7 @@
       <c r="E63" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="62"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="29"/>
       <c r="H63" s="36" t="s">
         <v>297</v>
@@ -6644,7 +6713,7 @@
       <c r="N63" s="29"/>
       <c r="O63" s="30"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>329</v>
       </c>
@@ -6656,7 +6725,7 @@
       <c r="E64" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="62"/>
+      <c r="F64" s="59"/>
       <c r="G64" s="29"/>
       <c r="H64" s="36" t="s">
         <v>297</v>
@@ -6671,7 +6740,7 @@
       <c r="N64" s="29"/>
       <c r="O64" s="30"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>330</v>
       </c>
@@ -6683,7 +6752,7 @@
       <c r="E65" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="62"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="29"/>
       <c r="H65" s="36" t="s">
         <v>297</v>
@@ -6698,7 +6767,7 @@
       <c r="N65" s="29"/>
       <c r="O65" s="30"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>308</v>
       </c>
@@ -6710,7 +6779,7 @@
       <c r="E66" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="62"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="29"/>
       <c r="H66" s="36" t="s">
         <v>297</v>
@@ -6725,7 +6794,7 @@
       <c r="N66" s="29"/>
       <c r="O66" s="30"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
         <v>321</v>
       </c>
@@ -6737,7 +6806,7 @@
       <c r="E67" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="62"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="29"/>
       <c r="H67" s="36" t="s">
         <v>297</v>
@@ -6752,7 +6821,7 @@
       <c r="N67" s="29"/>
       <c r="O67" s="30"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>320</v>
       </c>
@@ -6764,7 +6833,7 @@
       <c r="E68" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="62"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="29"/>
       <c r="H68" s="36" t="s">
         <v>297</v>
@@ -6779,7 +6848,7 @@
       <c r="N68" s="29"/>
       <c r="O68" s="30"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>311</v>
       </c>
@@ -6791,7 +6860,7 @@
       <c r="E69" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="62"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="29"/>
       <c r="H69" s="36" t="s">
         <v>297</v>
@@ -6806,7 +6875,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="30"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>311</v>
       </c>
@@ -6818,7 +6887,7 @@
       <c r="E70" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="62"/>
+      <c r="F70" s="59"/>
       <c r="G70" s="29"/>
       <c r="H70" s="36" t="s">
         <v>297</v>
@@ -6833,7 +6902,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>317</v>
       </c>
@@ -6845,7 +6914,7 @@
       <c r="E71" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="62"/>
+      <c r="F71" s="59"/>
       <c r="G71" s="29"/>
       <c r="H71" s="36" t="s">
         <v>297</v>
@@ -6860,7 +6929,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="30"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>299</v>
       </c>
@@ -6872,7 +6941,7 @@
       <c r="E72" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="62"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="29"/>
       <c r="H72" s="36" t="s">
         <v>297</v>
@@ -6887,7 +6956,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="30"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>300</v>
       </c>
@@ -6899,7 +6968,7 @@
       <c r="E73" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="62"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="29"/>
       <c r="H73" s="36" t="s">
         <v>297</v>
@@ -6914,7 +6983,7 @@
       <c r="N73" s="29"/>
       <c r="O73" s="30"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>319</v>
       </c>
@@ -6926,7 +6995,7 @@
       <c r="E74" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="62"/>
+      <c r="F74" s="59"/>
       <c r="G74" s="29"/>
       <c r="H74" s="36" t="s">
         <v>297</v>
@@ -6941,7 +7010,7 @@
       <c r="N74" s="29"/>
       <c r="O74" s="30"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>304</v>
       </c>
@@ -6953,7 +7022,7 @@
       <c r="E75" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="62"/>
+      <c r="F75" s="59"/>
       <c r="G75" s="29"/>
       <c r="H75" s="36" t="s">
         <v>297</v>
@@ -6968,7 +7037,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="30"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>304</v>
       </c>
@@ -6980,7 +7049,7 @@
       <c r="E76" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="62"/>
+      <c r="F76" s="59"/>
       <c r="G76" s="29"/>
       <c r="H76" s="36" t="s">
         <v>297</v>
@@ -6995,7 +7064,7 @@
       <c r="N76" s="29"/>
       <c r="O76" s="30"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>305</v>
       </c>
@@ -7007,7 +7076,7 @@
       <c r="E77" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="62"/>
+      <c r="F77" s="59"/>
       <c r="G77" s="29"/>
       <c r="H77" s="36" t="s">
         <v>297</v>
@@ -7022,7 +7091,7 @@
       <c r="N77" s="29"/>
       <c r="O77" s="30"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
         <v>316</v>
       </c>
@@ -7034,7 +7103,7 @@
       <c r="E78" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="62"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="29"/>
       <c r="H78" s="36" t="s">
         <v>297</v>
@@ -7049,7 +7118,7 @@
       <c r="N78" s="29"/>
       <c r="O78" s="30"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
         <v>312</v>
       </c>
@@ -7061,7 +7130,7 @@
       <c r="E79" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F79" s="62"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="29"/>
       <c r="H79" s="36" t="s">
         <v>297</v>
@@ -7076,7 +7145,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="30"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
         <v>310</v>
       </c>
@@ -7088,7 +7157,7 @@
       <c r="E80" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="62"/>
+      <c r="F80" s="59"/>
       <c r="G80" s="29"/>
       <c r="H80" s="36" t="s">
         <v>297</v>
@@ -7103,7 +7172,7 @@
       <c r="N80" s="29"/>
       <c r="O80" s="30"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>314</v>
       </c>
@@ -7115,7 +7184,7 @@
       <c r="E81" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="59"/>
       <c r="G81" s="29"/>
       <c r="H81" s="36" t="s">
         <v>297</v>
@@ -7130,7 +7199,7 @@
       <c r="N81" s="29"/>
       <c r="O81" s="30"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
         <v>379</v>
       </c>
@@ -7142,7 +7211,7 @@
       <c r="E82" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="62"/>
+      <c r="F82" s="59"/>
       <c r="G82" s="29"/>
       <c r="H82" s="36" t="s">
         <v>297</v>
@@ -7157,7 +7226,7 @@
       <c r="N82" s="29"/>
       <c r="O82" s="30"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>380</v>
       </c>
@@ -7169,7 +7238,7 @@
       <c r="E83" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="F83" s="62"/>
+      <c r="F83" s="59"/>
       <c r="G83" s="29"/>
       <c r="H83" s="36" t="s">
         <v>297</v>
@@ -7184,7 +7253,7 @@
       <c r="N83" s="29"/>
       <c r="O83" s="30"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>381</v>
       </c>
@@ -7196,7 +7265,7 @@
       <c r="E84" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="59"/>
       <c r="G84" s="29"/>
       <c r="H84" s="36" t="s">
         <v>297</v>
@@ -7211,7 +7280,7 @@
       <c r="N84" s="29"/>
       <c r="O84" s="30"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -7228,7 +7297,7 @@
       <c r="N85" s="32"/>
       <c r="O85" s="33"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="31">
         <v>1</v>
       </c>
@@ -7253,7 +7322,7 @@
       <c r="N86" s="32"/>
       <c r="O86" s="33"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="31">
         <v>2</v>
       </c>
@@ -7276,7 +7345,7 @@
       <c r="N87" s="32"/>
       <c r="O87" s="33"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="31">
         <v>3</v>
       </c>
@@ -7299,7 +7368,7 @@
       <c r="N88" s="32"/>
       <c r="O88" s="33"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="31">
         <v>4</v>
       </c>
@@ -7322,12 +7391,12 @@
       <c r="N89" s="32"/>
       <c r="O89" s="33"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="31">
         <v>5</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
@@ -7347,12 +7416,12 @@
       <c r="N90" s="32"/>
       <c r="O90" s="33"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="31">
         <v>6</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
@@ -7370,12 +7439,12 @@
       <c r="N91" s="32"/>
       <c r="O91" s="33"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="31">
         <v>7</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
@@ -7393,12 +7462,12 @@
       <c r="N92" s="32"/>
       <c r="O92" s="33"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="31">
         <v>8</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
@@ -7416,7 +7485,7 @@
       <c r="N93" s="32"/>
       <c r="O93" s="33"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="31">
         <v>9</v>
       </c>
@@ -7441,7 +7510,7 @@
       <c r="N94" s="32"/>
       <c r="O94" s="33"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="31">
         <v>10</v>
       </c>
@@ -7464,7 +7533,7 @@
       <c r="N95" s="32"/>
       <c r="O95" s="33"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
         <v>11</v>
       </c>
@@ -7487,7 +7556,7 @@
       <c r="N96" s="32"/>
       <c r="O96" s="33"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="31">
         <v>12</v>
       </c>
@@ -7510,7 +7579,7 @@
       <c r="N97" s="32"/>
       <c r="O97" s="33"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="31">
         <v>13</v>
       </c>
@@ -7533,7 +7602,7 @@
       <c r="N98" s="32"/>
       <c r="O98" s="33"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="31">
         <v>14</v>
       </c>
@@ -7556,7 +7625,7 @@
       <c r="N99" s="32"/>
       <c r="O99" s="33"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="31">
         <v>15</v>
       </c>
@@ -7581,7 +7650,7 @@
       <c r="N100" s="32"/>
       <c r="O100" s="33"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="31">
         <v>16</v>
       </c>
@@ -7604,7 +7673,7 @@
       <c r="N101" s="32"/>
       <c r="O101" s="33"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="31">
         <v>17</v>
       </c>
@@ -7627,7 +7696,7 @@
       <c r="N102" s="32"/>
       <c r="O102" s="33"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
         <v>18</v>
       </c>
@@ -7650,7 +7719,7 @@
       <c r="N103" s="32"/>
       <c r="O103" s="33"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
         <v>19</v>
       </c>
@@ -7673,7 +7742,7 @@
       <c r="N104" s="32"/>
       <c r="O104" s="33"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
         <v>20</v>
       </c>
@@ -7696,7 +7765,7 @@
       <c r="N105" s="32"/>
       <c r="O105" s="33"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
         <v>21</v>
       </c>
@@ -7721,7 +7790,7 @@
       <c r="N106" s="32"/>
       <c r="O106" s="33"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
         <v>22</v>
       </c>
@@ -7744,7 +7813,7 @@
       <c r="N107" s="32"/>
       <c r="O107" s="33"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
         <v>23</v>
       </c>
@@ -7767,7 +7836,7 @@
       <c r="N108" s="32"/>
       <c r="O108" s="33"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
         <v>24</v>
       </c>
@@ -7790,7 +7859,7 @@
       <c r="N109" s="32"/>
       <c r="O109" s="33"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <v>25</v>
       </c>
@@ -7815,7 +7884,7 @@
       <c r="N110" s="32"/>
       <c r="O110" s="33"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>26</v>
       </c>
@@ -7838,7 +7907,7 @@
       <c r="N111" s="32"/>
       <c r="O111" s="33"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <v>27</v>
       </c>
@@ -7861,7 +7930,7 @@
       <c r="N112" s="32"/>
       <c r="O112" s="33"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <v>28</v>
       </c>
@@ -7886,7 +7955,7 @@
       <c r="N113" s="32"/>
       <c r="O113" s="33"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <v>29</v>
       </c>
@@ -7909,7 +7978,7 @@
       <c r="N114" s="32"/>
       <c r="O114" s="33"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>30</v>
       </c>
@@ -7932,7 +8001,7 @@
       <c r="N115" s="32"/>
       <c r="O115" s="33"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>31</v>
       </c>
@@ -7957,7 +8026,7 @@
       <c r="N116" s="32"/>
       <c r="O116" s="33"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>32</v>
       </c>
@@ -7980,7 +8049,7 @@
       <c r="N117" s="32"/>
       <c r="O117" s="33"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <v>33</v>
       </c>
@@ -8003,7 +8072,7 @@
       <c r="N118" s="32"/>
       <c r="O118" s="33"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <v>34</v>
       </c>
@@ -8026,7 +8095,7 @@
       <c r="N119" s="32"/>
       <c r="O119" s="33"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <v>35</v>
       </c>
@@ -8049,7 +8118,7 @@
       <c r="N120" s="32"/>
       <c r="O120" s="33"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <v>36</v>
       </c>
@@ -8072,7 +8141,7 @@
       <c r="N121" s="32"/>
       <c r="O121" s="33"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
         <v>37</v>
       </c>
@@ -8097,7 +8166,7 @@
       <c r="N122" s="32"/>
       <c r="O122" s="33"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
         <v>38</v>
       </c>
@@ -8120,7 +8189,7 @@
       <c r="N123" s="32"/>
       <c r="O123" s="33"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <v>39</v>
       </c>
@@ -8143,7 +8212,7 @@
       <c r="N124" s="32"/>
       <c r="O124" s="33"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <v>40</v>
       </c>
@@ -8166,7 +8235,7 @@
       <c r="N125" s="32"/>
       <c r="O125" s="33"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <v>41</v>
       </c>
@@ -8191,7 +8260,7 @@
       <c r="N126" s="32"/>
       <c r="O126" s="33"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <v>42</v>
       </c>
@@ -8214,7 +8283,7 @@
       <c r="N127" s="32"/>
       <c r="O127" s="33"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
         <v>43</v>
       </c>
@@ -8237,7 +8306,7 @@
       <c r="N128" s="32"/>
       <c r="O128" s="33"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>44</v>
       </c>
@@ -8260,7 +8329,7 @@
       <c r="N129" s="32"/>
       <c r="O129" s="33"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>45</v>
       </c>
@@ -8285,7 +8354,7 @@
       <c r="N130" s="32"/>
       <c r="O130" s="33"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
         <v>46</v>
       </c>
@@ -8325,17 +8394,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>395</v>
       </c>
@@ -8352,7 +8421,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -8367,7 +8436,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -8382,7 +8451,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -8397,7 +8466,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>399</v>
       </c>
@@ -8423,7 +8492,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -8443,7 +8512,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2</v>
       </c>
@@ -8463,7 +8532,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -8483,7 +8552,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>4</v>
       </c>
@@ -8503,7 +8572,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -8523,7 +8592,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -8543,7 +8612,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>7</v>
       </c>
@@ -8580,37 +8649,37 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>393</v>
       </c>
@@ -8624,7 +8693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>395</v>
       </c>
@@ -8640,7 +8709,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
@@ -8654,7 +8723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>398</v>
       </c>
@@ -8668,7 +8737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>396</v>
       </c>
@@ -8682,7 +8751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>397</v>
       </c>
@@ -8696,7 +8765,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>404</v>
       </c>
@@ -8704,7 +8773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>419</v>
       </c>
@@ -8712,7 +8781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>420</v>
       </c>
@@ -8736,93 +8805,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8836,7 +8905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
@@ -8850,7 +8919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -8864,7 +8933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8878,7 +8947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -8892,7 +8961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8906,7 +8975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -8914,7 +8983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -8928,7 +8997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
@@ -8942,7 +9011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -8956,7 +9025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8970,7 +9039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -8984,7 +9053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -8992,7 +9061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -9006,7 +9075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
@@ -9014,7 +9083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
@@ -9028,7 +9097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -9042,7 +9111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -9056,7 +9125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -9064,7 +9133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
@@ -9072,7 +9141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>431</v>
       </c>
@@ -9083,7 +9152,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -9092,7 +9161,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>2</v>
       </c>
@@ -9103,123 +9172,123 @@
         <v>432</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="G38" s="46"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>433</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="50">
+      <c r="E39" s="47">
         <v>5</v>
       </c>
-      <c r="F39" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="39" t="s">
         <v>434</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>435</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>433</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="51">
+      <c r="E40" s="48">
         <v>4</v>
       </c>
-      <c r="F40" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F40" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>433</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="52">
+      <c r="E41" s="49">
         <v>3</v>
       </c>
-      <c r="F41" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>17</v>
+        <v>510</v>
       </c>
       <c r="C42" s="42">
         <v>1</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="53">
+      <c r="E42" s="50">
         <v>2</v>
       </c>
-      <c r="F42" s="53" t="s">
-        <v>451</v>
+      <c r="F42" s="50" t="s">
+        <v>500</v>
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="90" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="90" t="s">
         <v>433</v>
       </c>
       <c r="D43" s="39"/>
-      <c r="E43" s="54">
+      <c r="E43" s="51">
         <v>1</v>
       </c>
-      <c r="F43" s="54" t="s">
-        <v>452</v>
+      <c r="F43" s="51" t="s">
+        <v>499</v>
       </c>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="55">
+      <c r="E44" s="52">
         <v>0</v>
       </c>
-      <c r="F44" s="55" t="s">
-        <v>453</v>
+      <c r="F44" s="52" t="s">
+        <v>503</v>
       </c>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -9228,7 +9297,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -9237,7 +9306,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>8</v>
       </c>
@@ -9248,378 +9317,369 @@
         <v>432</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>14</v>
+        <v>508</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>433</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="44"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="I48" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>17</v>
+        <v>508</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>433</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="44"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="39" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C50" s="41" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>433</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="44"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>516</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>433</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D56" s="39"/>
+      <c r="E56" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="F56" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="92" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="54"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="I50" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C51" s="39" t="s">
+      <c r="I57" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="F58" s="58"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="C59" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C52" s="41" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="B60" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C53" s="39" t="s">
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C61" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C54" s="41" t="s">
+      <c r="D61" s="39"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="B62" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="F56" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="60" t="s">
-        <v>457</v>
-      </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="39" t="s">
-        <v>480</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="47"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>433</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="47"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="39"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="47"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D65" s="39"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="47"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D67" s="39"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="47"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="47"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="G69" s="39"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="G70" s="39"/>
     </row>
@@ -9652,55 +9712,55 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -9708,7 +9768,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9716,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>42</v>
       </c>
@@ -9724,7 +9784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -9732,7 +9792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9740,7 +9800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9748,7 +9808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -9756,7 +9816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -9764,7 +9824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -9772,7 +9832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9780,7 +9840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -9788,7 +9848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -9796,7 +9856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -9804,7 +9864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -9827,79 +9887,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-    </row>
-    <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -9919,13 +9979,13 @@
         <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -9945,13 +10005,13 @@
         <v>15</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>293</v>
       </c>
@@ -9971,13 +10031,13 @@
         <v>58</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -9993,14 +10053,14 @@
       <c r="H12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="K12" s="66" t="s">
+      <c r="J12" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -10016,14 +10076,14 @@
       <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -10039,14 +10099,14 @@
       <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -10059,34 +10119,34 @@
       <c r="H15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="63" t="s">
-        <v>465</v>
-      </c>
-      <c r="K15" s="64" t="s">
+      <c r="J15" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -10094,27 +10154,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
@@ -10122,19 +10182,19 @@
         <v>18</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
@@ -10142,21 +10202,21 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="I24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F25" t="s">
         <v>73</v>
@@ -10168,15 +10228,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I26" t="s">
         <v>58</v>
@@ -10206,10 +10266,10 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -10217,50 +10277,50 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -10280,7 +10340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
@@ -10300,7 +10360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>293</v>
       </c>
@@ -10320,7 +10380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -10337,7 +10397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -10354,7 +10414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -10371,7 +10431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -10385,7 +10445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -10393,7 +10453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -10422,108 +10482,108 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10541,56 +10601,56 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10610,7 +10670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>55</v>
       </c>
@@ -10630,7 +10690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -10650,7 +10710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -10670,7 +10730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -10690,7 +10750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -10710,7 +10770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -10724,7 +10784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -10744,7 +10804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -10764,7 +10824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -10784,7 +10844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -10804,7 +10864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -10824,7 +10884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
@@ -10844,7 +10904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -10858,7 +10918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
@@ -10872,7 +10932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -10886,7 +10946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>84</v>
       </c>
@@ -10894,7 +10954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -10902,7 +10962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -10910,7 +10970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -10941,165 +11001,165 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="92"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -11113,7 +11173,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -11127,7 +11187,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -11157,27 +11217,27 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
@@ -11230,7 +11290,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -11261,7 +11321,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>117</v>
       </c>
@@ -11292,7 +11352,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -11323,7 +11383,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
@@ -11354,7 +11414,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>124</v>
       </c>
@@ -11385,7 +11445,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>127</v>
       </c>
@@ -11416,7 +11476,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>128</v>
       </c>
@@ -11447,7 +11507,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>131</v>
       </c>
@@ -11478,7 +11538,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>132</v>
       </c>
@@ -11509,7 +11569,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>135</v>
       </c>
@@ -11540,7 +11600,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>136</v>
       </c>
@@ -11571,7 +11631,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>139</v>
       </c>
@@ -11602,7 +11662,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
@@ -11633,7 +11693,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>145</v>
       </c>
@@ -11664,7 +11724,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>148</v>
       </c>
@@ -11695,7 +11755,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>151</v>
       </c>
@@ -11726,7 +11786,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
@@ -11757,7 +11817,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>157</v>
       </c>
@@ -11788,7 +11848,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>160</v>
       </c>
@@ -11819,7 +11879,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>163</v>
       </c>
@@ -11850,7 +11910,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>166</v>
       </c>
@@ -11881,7 +11941,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>169</v>
       </c>
@@ -11912,7 +11972,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>172</v>
       </c>
@@ -11943,7 +12003,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
@@ -11974,7 +12034,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
@@ -12005,7 +12065,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>181</v>
       </c>
@@ -12036,7 +12096,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>184</v>
       </c>
@@ -12067,7 +12127,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>187</v>
       </c>
@@ -12098,7 +12158,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>190</v>
       </c>
@@ -12129,7 +12189,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>193</v>
       </c>
@@ -12160,7 +12220,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>196</v>
       </c>
@@ -12191,7 +12251,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>197</v>
       </c>
@@ -12222,7 +12282,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>198</v>
       </c>
@@ -12253,7 +12313,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>199</v>
       </c>
@@ -12284,7 +12344,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>200</v>
       </c>
@@ -12315,7 +12375,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
@@ -12346,7 +12406,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>205</v>
       </c>
@@ -12377,7 +12437,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>206</v>
       </c>
@@ -12408,7 +12468,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>207</v>
       </c>
@@ -12439,7 +12499,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>208</v>
       </c>
@@ -12470,7 +12530,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>209</v>
       </c>
@@ -12501,7 +12561,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>212</v>
       </c>
@@ -12532,7 +12592,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>214</v>
       </c>
@@ -12563,7 +12623,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>215</v>
       </c>
@@ -12594,7 +12654,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>217</v>
       </c>
@@ -12625,7 +12685,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>220</v>
       </c>
@@ -12662,7 +12722,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>223</v>
       </c>
@@ -12693,7 +12753,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>225</v>
       </c>
@@ -12724,7 +12784,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>227</v>
       </c>
@@ -12755,7 +12815,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>229</v>
       </c>
@@ -12786,7 +12846,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>231</v>
       </c>
@@ -12817,7 +12877,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>233</v>
       </c>
@@ -12846,7 +12906,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>235</v>
       </c>
@@ -12875,7 +12935,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>236</v>
       </c>
@@ -12904,7 +12964,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>237</v>
       </c>
@@ -12933,7 +12993,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>239</v>
       </c>
@@ -12962,7 +13022,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>241</v>
       </c>
@@ -12991,7 +13051,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -13020,7 +13080,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>243</v>
       </c>
@@ -13049,7 +13109,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>245</v>
       </c>
@@ -13078,7 +13138,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>247</v>
       </c>
@@ -13107,7 +13167,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>248</v>
       </c>
@@ -13136,7 +13196,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>249</v>
       </c>
@@ -13165,7 +13225,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>250</v>
       </c>
@@ -13194,7 +13254,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>252</v>
       </c>
@@ -13223,7 +13283,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>254</v>
       </c>
@@ -13252,7 +13312,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>255</v>
       </c>
@@ -13281,7 +13341,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>257</v>
       </c>
@@ -13310,7 +13370,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>258</v>
       </c>
@@ -13339,7 +13399,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>259</v>
       </c>
@@ -13368,7 +13428,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>260</v>
       </c>
@@ -13397,7 +13457,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -13426,7 +13486,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>264</v>
       </c>
@@ -13455,7 +13515,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>266</v>
       </c>
@@ -13484,7 +13544,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>267</v>
       </c>
@@ -13513,7 +13573,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>268</v>
       </c>
@@ -13542,7 +13602,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>269</v>
       </c>
@@ -13571,7 +13631,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>270</v>
       </c>
@@ -13600,7 +13660,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>272</v>
       </c>
@@ -13629,7 +13689,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>274</v>
       </c>
@@ -13658,7 +13718,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>275</v>
       </c>
@@ -13687,7 +13747,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>276</v>
       </c>
@@ -13716,7 +13776,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>278</v>
       </c>
@@ -13743,7 +13803,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>281</v>
       </c>
@@ -13770,7 +13830,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>282</v>
       </c>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\Database Tables Outlines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE42E23-B4B4-491D-94B6-74F7AE7EE5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D720EAF-2305-674A-B650-A6B131731451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32020" yWindow="640" windowWidth="23260" windowHeight="16400" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="513">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1781,22 +1781,7 @@
     <t>order_items</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
     <t>grand_total</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>freeMember</t>
@@ -1858,22 +1843,25 @@
     <t>int (1)</t>
   </si>
   <si>
-    <t>addressX</t>
-  </si>
-  <si>
-    <t>cityX</t>
-  </si>
-  <si>
-    <t>stateX</t>
-  </si>
-  <si>
-    <t>zipX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dynamic Table? </t>
   </si>
   <si>
     <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>add_type</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>date_order_created</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_ID</t>
+  </si>
+  <si>
+    <t>item_quantity</t>
   </si>
 </sst>
 </file>
@@ -2521,6 +2509,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2572,15 +2564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="84">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3882,6 +3870,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E1F2"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4169,20 +4205,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81" totalsRowBorderDxfId="80">
   <autoFilter ref="A1:B11" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
-    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="77"/>
+    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="79"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E5BB3037-7153-5844-91B0-1BDAF0038909}" name="Table31" displayName="Table31" ref="A58:C65" totalsRowShown="0" headerRowDxfId="67">
+  <autoFilter ref="A58:C65" xr:uid="{E5BB3037-7153-5844-91B0-1BDAF0038909}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CC87142B-1B78-7746-A13F-410D76BF8E9D}" name="user_address" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{91157C00-D157-884D-8188-CC6499B86009}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{BA2FABE6-E119-8C4A-9FFB-70F00E17123A}" name="Default"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}" name="Table3" displayName="Table3" ref="A7:B19" totalsRowShown="0">
   <autoFilter ref="A7:B19" xr:uid="{997934BE-F5A7-412E-BED2-FACE27F4E0B1}"/>
   <tableColumns count="2">
@@ -4193,7 +4241,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}" name="Table1119" displayName="Table1119" ref="A9:B17" totalsRowShown="0">
   <autoFilter ref="A9:B17" xr:uid="{6B7CF076-FA24-B54D-9592-AF69387A5344}"/>
   <tableColumns count="2">
@@ -4204,7 +4252,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}" name="Table15526" displayName="Table15526" ref="D9:E14" totalsRowShown="0">
   <autoFilter ref="D9:E14" xr:uid="{DFF8B94E-191D-9C40-BBAF-0B8A40F97BF0}"/>
   <tableColumns count="2">
@@ -4215,7 +4263,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}" name="Table91527" displayName="Table91527" ref="G9:H15" totalsRowShown="0">
   <autoFilter ref="G9:H15" xr:uid="{1F308ECC-2FA6-2148-A0F9-C72181D4B135}"/>
   <tableColumns count="2">
@@ -4226,7 +4274,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}" name="Table12" displayName="Table12" ref="A21:B24" totalsRowShown="0" dataDxfId="65">
   <autoFilter ref="A21:B24" xr:uid="{8213AA14-6896-425B-9292-BAF12732578C}"/>
   <tableColumns count="2">
@@ -4237,7 +4285,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}" name="Table29" displayName="Table29" ref="E22:F26" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="E22:F26" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}"/>
   <tableColumns count="2">
@@ -4248,9 +4296,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="H22:I26" totalsRowShown="0" headerRowDxfId="61">
-  <autoFilter ref="H22:I26" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}"/>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="H22:I27" totalsRowShown="0" headerRowDxfId="61">
+  <autoFilter ref="H22:I27" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8DE5C960-B09C-0541-8906-0BFE486C564F}" name="order_items"/>
     <tableColumn id="2" xr3:uid="{EED8722B-4C86-5A4F-BE35-E088FB8C936D}" name="datatype"/>
@@ -4259,7 +4307,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}" name="Table11" displayName="Table11" ref="A7:B15" totalsRowShown="0">
   <autoFilter ref="A7:B15" xr:uid="{EEE9A7FF-A6ED-4209-A1C4-CC197F0AC95C}"/>
   <tableColumns count="2">
@@ -4270,23 +4318,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}" name="Table155" displayName="Table155" ref="D7:E12" totalsRowShown="0">
   <autoFilter ref="D7:E12" xr:uid="{15B03442-C8BD-9645-8390-80E2FF8FDE57}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{762C94A4-1A6F-FF49-9598-60BDBF8667BD}" name="sales_details"/>
     <tableColumn id="2" xr3:uid="{E44F4903-FA0A-CF4A-B3C7-033B4DB25F43}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:H13" totalsRowShown="0">
-  <autoFilter ref="G7:H13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5281FA9C-99EC-4D45-889C-8643F65C7BB9}" name="prod_sales"/>
-    <tableColumn id="2" xr3:uid="{B556F5FC-DC14-4F40-B8DB-8BBDAC8FDFC1}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4304,6 +4341,17 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}" name="Table915" displayName="Table915" ref="G7:H13" totalsRowShown="0">
+  <autoFilter ref="G7:H13" xr:uid="{C2E51D9C-415E-A840-96CF-42A4AD54C811}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5281FA9C-99EC-4D45-889C-8643F65C7BB9}" name="prod_sales"/>
+    <tableColumn id="2" xr3:uid="{B556F5FC-DC14-4F40-B8DB-8BBDAC8FDFC1}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
   <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
   <tableColumns count="2">
@@ -4314,7 +4362,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
   <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
   <tableColumns count="2">
@@ -4325,7 +4373,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}" name="Table15" displayName="Table15" ref="G14:H19" totalsRowShown="0">
   <autoFilter ref="G14:H19" xr:uid="{EEE1974C-DD2B-4FC1-8231-7E927BDEBBB3}"/>
   <tableColumns count="2">
@@ -4336,7 +4384,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
   <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
   <tableColumns count="2">
@@ -4347,7 +4395,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}" name="Table10" displayName="Table10" ref="D21:E23" totalsRowShown="0">
   <autoFilter ref="D21:E23" xr:uid="{955D6FB2-5E71-4F0C-A5B7-63958174CCBB}"/>
   <tableColumns count="2">
@@ -4358,7 +4406,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
@@ -4387,7 +4435,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
@@ -4414,7 +4462,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
   <tableColumns count="5">
@@ -4428,7 +4476,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
   <tableColumns count="8">
@@ -4440,17 +4488,6 @@
     <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
-  <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39610124-41A7-CF49-BC49-78BA265D0EE9}" name="Membership "/>
-    <tableColumn id="2" xr3:uid="{3200C7BA-CF50-DB4C-A7CB-5979C542E7C1}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4468,6 +4505,17 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
+  <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{39610124-41A7-CF49-BC49-78BA265D0EE9}" name="Membership "/>
+    <tableColumn id="2" xr3:uid="{3200C7BA-CF50-DB4C-A7CB-5979C542E7C1}" name="Datatype"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
   <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
   <tableColumns count="2">
@@ -4523,22 +4571,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E56:F58" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="E56:F58" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H48:I61" totalsRowShown="0" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H48:I61" totalsRowShown="0" dataDxfId="70">
   <autoFilter ref="H48:I61" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4847,14 +4895,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
@@ -4870,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
@@ -4881,7 +4929,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>447</v>
       </c>
@@ -4892,7 +4940,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>475</v>
       </c>
@@ -4903,7 +4951,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
         <v>476</v>
       </c>
@@ -4914,7 +4962,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
         <v>482</v>
       </c>
@@ -4930,7 +4978,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
         <v>51</v>
       </c>
@@ -4938,7 +4986,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>477</v>
       </c>
@@ -4946,7 +4994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>478</v>
       </c>
@@ -4954,7 +5002,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="33"/>
     </row>
@@ -4970,29 +5018,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>294</v>
       </c>
@@ -5039,7 +5087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>339</v>
       </c>
@@ -5066,7 +5114,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>331</v>
       </c>
@@ -5093,7 +5141,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>332</v>
       </c>
@@ -5120,7 +5168,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>333</v>
       </c>
@@ -5147,7 +5195,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>334</v>
       </c>
@@ -5174,7 +5222,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>335</v>
       </c>
@@ -5201,7 +5249,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>336</v>
       </c>
@@ -5228,7 +5276,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>337</v>
       </c>
@@ -5255,7 +5303,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>338</v>
       </c>
@@ -5282,7 +5330,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>351</v>
       </c>
@@ -5309,7 +5357,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>356</v>
       </c>
@@ -5336,7 +5384,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>302</v>
       </c>
@@ -5363,7 +5411,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>354</v>
       </c>
@@ -5390,7 +5438,7 @@
       <c r="N14" s="29"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>355</v>
       </c>
@@ -5417,7 +5465,7 @@
       <c r="N15" s="29"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>303</v>
       </c>
@@ -5444,7 +5492,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>353</v>
       </c>
@@ -5471,7 +5519,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>340</v>
       </c>
@@ -5498,7 +5546,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>357</v>
       </c>
@@ -5525,7 +5573,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>358</v>
       </c>
@@ -5552,7 +5600,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>349</v>
       </c>
@@ -5579,7 +5627,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>348</v>
       </c>
@@ -5606,7 +5654,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>350</v>
       </c>
@@ -5633,7 +5681,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>360</v>
       </c>
@@ -5660,7 +5708,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>361</v>
       </c>
@@ -5687,7 +5735,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>352</v>
       </c>
@@ -5714,7 +5762,7 @@
       <c r="N26" s="29"/>
       <c r="O26" s="30"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>359</v>
       </c>
@@ -5741,7 +5789,7 @@
       <c r="N27" s="29"/>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>362</v>
       </c>
@@ -5768,7 +5816,7 @@
       <c r="N28" s="29"/>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>363</v>
       </c>
@@ -5795,7 +5843,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>369</v>
       </c>
@@ -5822,7 +5870,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>370</v>
       </c>
@@ -5849,7 +5897,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="30"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>371</v>
       </c>
@@ -5876,7 +5924,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>372</v>
       </c>
@@ -5903,7 +5951,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>373</v>
       </c>
@@ -5930,7 +5978,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>374</v>
       </c>
@@ -5957,7 +6005,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>375</v>
       </c>
@@ -5984,7 +6032,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>364</v>
       </c>
@@ -6011,7 +6059,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>365</v>
       </c>
@@ -6038,7 +6086,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>366</v>
       </c>
@@ -6065,7 +6113,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>367</v>
       </c>
@@ -6092,7 +6140,7 @@
       <c r="N40" s="29"/>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>377</v>
       </c>
@@ -6119,7 +6167,7 @@
       <c r="N41" s="29"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>376</v>
       </c>
@@ -6146,7 +6194,7 @@
       <c r="N42" s="29"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>378</v>
       </c>
@@ -6173,7 +6221,7 @@
       <c r="N43" s="29"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>323</v>
       </c>
@@ -6200,7 +6248,7 @@
       <c r="N44" s="29"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>322</v>
       </c>
@@ -6227,7 +6275,7 @@
       <c r="N45" s="29"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>306</v>
       </c>
@@ -6254,7 +6302,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>307</v>
       </c>
@@ -6281,7 +6329,7 @@
       <c r="N47" s="29"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>325</v>
       </c>
@@ -6308,7 +6356,7 @@
       <c r="N48" s="29"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
@@ -6335,7 +6383,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>313</v>
       </c>
@@ -6362,7 +6410,7 @@
       <c r="N50" s="29"/>
       <c r="O50" s="30"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>298</v>
       </c>
@@ -6389,7 +6437,7 @@
       <c r="N51" s="29"/>
       <c r="O51" s="30"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>301</v>
       </c>
@@ -6416,7 +6464,7 @@
       <c r="N52" s="29"/>
       <c r="O52" s="30"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>324</v>
       </c>
@@ -6443,7 +6491,7 @@
       <c r="N53" s="29"/>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>315</v>
       </c>
@@ -6470,7 +6518,7 @@
       <c r="N54" s="29"/>
       <c r="O54" s="30"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>342</v>
       </c>
@@ -6497,7 +6545,7 @@
       <c r="N55" s="29"/>
       <c r="O55" s="30"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>343</v>
       </c>
@@ -6524,7 +6572,7 @@
       <c r="N56" s="29"/>
       <c r="O56" s="30"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>344</v>
       </c>
@@ -6551,7 +6599,7 @@
       <c r="N57" s="29"/>
       <c r="O57" s="30"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>345</v>
       </c>
@@ -6578,7 +6626,7 @@
       <c r="N58" s="29"/>
       <c r="O58" s="30"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>346</v>
       </c>
@@ -6605,7 +6653,7 @@
       <c r="N59" s="29"/>
       <c r="O59" s="30"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>347</v>
       </c>
@@ -6632,7 +6680,7 @@
       <c r="N60" s="29"/>
       <c r="O60" s="30"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>326</v>
       </c>
@@ -6659,7 +6707,7 @@
       <c r="N61" s="29"/>
       <c r="O61" s="30"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>327</v>
       </c>
@@ -6686,7 +6734,7 @@
       <c r="N62" s="29"/>
       <c r="O62" s="30"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>328</v>
       </c>
@@ -6713,7 +6761,7 @@
       <c r="N63" s="29"/>
       <c r="O63" s="30"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>329</v>
       </c>
@@ -6740,7 +6788,7 @@
       <c r="N64" s="29"/>
       <c r="O64" s="30"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>330</v>
       </c>
@@ -6767,7 +6815,7 @@
       <c r="N65" s="29"/>
       <c r="O65" s="30"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>308</v>
       </c>
@@ -6794,7 +6842,7 @@
       <c r="N66" s="29"/>
       <c r="O66" s="30"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>321</v>
       </c>
@@ -6821,7 +6869,7 @@
       <c r="N67" s="29"/>
       <c r="O67" s="30"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>320</v>
       </c>
@@ -6848,7 +6896,7 @@
       <c r="N68" s="29"/>
       <c r="O68" s="30"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>311</v>
       </c>
@@ -6875,7 +6923,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="30"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>311</v>
       </c>
@@ -6902,7 +6950,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>317</v>
       </c>
@@ -6929,7 +6977,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="30"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>299</v>
       </c>
@@ -6956,7 +7004,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="30"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>300</v>
       </c>
@@ -6983,7 +7031,7 @@
       <c r="N73" s="29"/>
       <c r="O73" s="30"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>319</v>
       </c>
@@ -7010,7 +7058,7 @@
       <c r="N74" s="29"/>
       <c r="O74" s="30"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>304</v>
       </c>
@@ -7037,7 +7085,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="30"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>304</v>
       </c>
@@ -7064,7 +7112,7 @@
       <c r="N76" s="29"/>
       <c r="O76" s="30"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>305</v>
       </c>
@@ -7091,7 +7139,7 @@
       <c r="N77" s="29"/>
       <c r="O77" s="30"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>316</v>
       </c>
@@ -7118,7 +7166,7 @@
       <c r="N78" s="29"/>
       <c r="O78" s="30"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>312</v>
       </c>
@@ -7145,7 +7193,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="30"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>310</v>
       </c>
@@ -7172,7 +7220,7 @@
       <c r="N80" s="29"/>
       <c r="O80" s="30"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>314</v>
       </c>
@@ -7199,7 +7247,7 @@
       <c r="N81" s="29"/>
       <c r="O81" s="30"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>379</v>
       </c>
@@ -7226,7 +7274,7 @@
       <c r="N82" s="29"/>
       <c r="O82" s="30"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>380</v>
       </c>
@@ -7253,7 +7301,7 @@
       <c r="N83" s="29"/>
       <c r="O83" s="30"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>381</v>
       </c>
@@ -7280,7 +7328,7 @@
       <c r="N84" s="29"/>
       <c r="O84" s="30"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -7297,7 +7345,7 @@
       <c r="N85" s="32"/>
       <c r="O85" s="33"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="31">
         <v>1</v>
       </c>
@@ -7322,7 +7370,7 @@
       <c r="N86" s="32"/>
       <c r="O86" s="33"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="31">
         <v>2</v>
       </c>
@@ -7345,7 +7393,7 @@
       <c r="N87" s="32"/>
       <c r="O87" s="33"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="31">
         <v>3</v>
       </c>
@@ -7368,7 +7416,7 @@
       <c r="N88" s="32"/>
       <c r="O88" s="33"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="31">
         <v>4</v>
       </c>
@@ -7391,7 +7439,7 @@
       <c r="N89" s="32"/>
       <c r="O89" s="33"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="31">
         <v>5</v>
       </c>
@@ -7416,7 +7464,7 @@
       <c r="N90" s="32"/>
       <c r="O90" s="33"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="31">
         <v>6</v>
       </c>
@@ -7439,7 +7487,7 @@
       <c r="N91" s="32"/>
       <c r="O91" s="33"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="31">
         <v>7</v>
       </c>
@@ -7462,7 +7510,7 @@
       <c r="N92" s="32"/>
       <c r="O92" s="33"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="31">
         <v>8</v>
       </c>
@@ -7485,7 +7533,7 @@
       <c r="N93" s="32"/>
       <c r="O93" s="33"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="31">
         <v>9</v>
       </c>
@@ -7510,7 +7558,7 @@
       <c r="N94" s="32"/>
       <c r="O94" s="33"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="31">
         <v>10</v>
       </c>
@@ -7533,7 +7581,7 @@
       <c r="N95" s="32"/>
       <c r="O95" s="33"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="31">
         <v>11</v>
       </c>
@@ -7556,7 +7604,7 @@
       <c r="N96" s="32"/>
       <c r="O96" s="33"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="31">
         <v>12</v>
       </c>
@@ -7579,7 +7627,7 @@
       <c r="N97" s="32"/>
       <c r="O97" s="33"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="31">
         <v>13</v>
       </c>
@@ -7602,7 +7650,7 @@
       <c r="N98" s="32"/>
       <c r="O98" s="33"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="31">
         <v>14</v>
       </c>
@@ -7625,7 +7673,7 @@
       <c r="N99" s="32"/>
       <c r="O99" s="33"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="31">
         <v>15</v>
       </c>
@@ -7650,7 +7698,7 @@
       <c r="N100" s="32"/>
       <c r="O100" s="33"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="31">
         <v>16</v>
       </c>
@@ -7673,7 +7721,7 @@
       <c r="N101" s="32"/>
       <c r="O101" s="33"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>17</v>
       </c>
@@ -7696,7 +7744,7 @@
       <c r="N102" s="32"/>
       <c r="O102" s="33"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>18</v>
       </c>
@@ -7719,7 +7767,7 @@
       <c r="N103" s="32"/>
       <c r="O103" s="33"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="31">
         <v>19</v>
       </c>
@@ -7742,7 +7790,7 @@
       <c r="N104" s="32"/>
       <c r="O104" s="33"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
         <v>20</v>
       </c>
@@ -7765,7 +7813,7 @@
       <c r="N105" s="32"/>
       <c r="O105" s="33"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
         <v>21</v>
       </c>
@@ -7790,7 +7838,7 @@
       <c r="N106" s="32"/>
       <c r="O106" s="33"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="31">
         <v>22</v>
       </c>
@@ -7813,7 +7861,7 @@
       <c r="N107" s="32"/>
       <c r="O107" s="33"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="31">
         <v>23</v>
       </c>
@@ -7836,7 +7884,7 @@
       <c r="N108" s="32"/>
       <c r="O108" s="33"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="31">
         <v>24</v>
       </c>
@@ -7859,7 +7907,7 @@
       <c r="N109" s="32"/>
       <c r="O109" s="33"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="31">
         <v>25</v>
       </c>
@@ -7884,7 +7932,7 @@
       <c r="N110" s="32"/>
       <c r="O110" s="33"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="31">
         <v>26</v>
       </c>
@@ -7907,7 +7955,7 @@
       <c r="N111" s="32"/>
       <c r="O111" s="33"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="31">
         <v>27</v>
       </c>
@@ -7930,7 +7978,7 @@
       <c r="N112" s="32"/>
       <c r="O112" s="33"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="31">
         <v>28</v>
       </c>
@@ -7955,7 +8003,7 @@
       <c r="N113" s="32"/>
       <c r="O113" s="33"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="31">
         <v>29</v>
       </c>
@@ -7978,7 +8026,7 @@
       <c r="N114" s="32"/>
       <c r="O114" s="33"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="31">
         <v>30</v>
       </c>
@@ -8001,7 +8049,7 @@
       <c r="N115" s="32"/>
       <c r="O115" s="33"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="31">
         <v>31</v>
       </c>
@@ -8026,7 +8074,7 @@
       <c r="N116" s="32"/>
       <c r="O116" s="33"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="31">
         <v>32</v>
       </c>
@@ -8049,7 +8097,7 @@
       <c r="N117" s="32"/>
       <c r="O117" s="33"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="31">
         <v>33</v>
       </c>
@@ -8072,7 +8120,7 @@
       <c r="N118" s="32"/>
       <c r="O118" s="33"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="31">
         <v>34</v>
       </c>
@@ -8095,7 +8143,7 @@
       <c r="N119" s="32"/>
       <c r="O119" s="33"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="31">
         <v>35</v>
       </c>
@@ -8118,7 +8166,7 @@
       <c r="N120" s="32"/>
       <c r="O120" s="33"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="31">
         <v>36</v>
       </c>
@@ -8141,7 +8189,7 @@
       <c r="N121" s="32"/>
       <c r="O121" s="33"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="31">
         <v>37</v>
       </c>
@@ -8166,7 +8214,7 @@
       <c r="N122" s="32"/>
       <c r="O122" s="33"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="31">
         <v>38</v>
       </c>
@@ -8189,7 +8237,7 @@
       <c r="N123" s="32"/>
       <c r="O123" s="33"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="31">
         <v>39</v>
       </c>
@@ -8212,7 +8260,7 @@
       <c r="N124" s="32"/>
       <c r="O124" s="33"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="31">
         <v>40</v>
       </c>
@@ -8235,7 +8283,7 @@
       <c r="N125" s="32"/>
       <c r="O125" s="33"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="31">
         <v>41</v>
       </c>
@@ -8260,7 +8308,7 @@
       <c r="N126" s="32"/>
       <c r="O126" s="33"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="31">
         <v>42</v>
       </c>
@@ -8283,7 +8331,7 @@
       <c r="N127" s="32"/>
       <c r="O127" s="33"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="31">
         <v>43</v>
       </c>
@@ -8306,7 +8354,7 @@
       <c r="N128" s="32"/>
       <c r="O128" s="33"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="31">
         <v>44</v>
       </c>
@@ -8329,7 +8377,7 @@
       <c r="N129" s="32"/>
       <c r="O129" s="33"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="31">
         <v>45</v>
       </c>
@@ -8354,7 +8402,7 @@
       <c r="N130" s="32"/>
       <c r="O130" s="33"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="31">
         <v>46</v>
       </c>
@@ -8394,17 +8442,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>395</v>
       </c>
@@ -8421,7 +8469,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -8436,7 +8484,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -8451,7 +8499,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -8466,7 +8514,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>399</v>
       </c>
@@ -8492,7 +8540,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -8512,7 +8560,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>2</v>
       </c>
@@ -8532,7 +8580,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -8552,7 +8600,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>4</v>
       </c>
@@ -8572,7 +8620,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -8592,7 +8640,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -8612,7 +8660,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>7</v>
       </c>
@@ -8645,41 +8693,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE9A99-0F75-6C49-A0AA-F3F1DED00D9C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>393</v>
       </c>
@@ -8693,7 +8741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>395</v>
       </c>
@@ -8709,7 +8757,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
@@ -8723,7 +8771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>398</v>
       </c>
@@ -8737,7 +8785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>396</v>
       </c>
@@ -8751,7 +8799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>397</v>
       </c>
@@ -8765,7 +8813,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>404</v>
       </c>
@@ -8773,7 +8821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>419</v>
       </c>
@@ -8781,7 +8829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>420</v>
       </c>
@@ -8805,93 +8853,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8905,7 +8954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
@@ -8919,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -8933,7 +8982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8947,7 +8996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -8961,7 +9010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8975,7 +9024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -8983,7 +9032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -8997,7 +9046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
@@ -9011,7 +9060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9025,7 +9074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9039,7 +9088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -9053,7 +9102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -9061,7 +9110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -9075,7 +9124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
@@ -9083,7 +9132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
@@ -9097,7 +9146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -9111,7 +9160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -9125,7 +9174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -9133,7 +9182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
@@ -9141,7 +9190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>431</v>
       </c>
@@ -9152,7 +9201,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -9161,7 +9210,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>2</v>
       </c>
@@ -9180,12 +9229,12 @@
       </c>
       <c r="G38" s="44"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>445</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>433</v>
@@ -9199,7 +9248,7 @@
       </c>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>35</v>
       </c>
@@ -9214,11 +9263,11 @@
         <v>4</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
         <v>435</v>
       </c>
@@ -9233,16 +9282,16 @@
         <v>3</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>444</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C42" s="42">
         <v>1</v>
@@ -9252,18 +9301,18 @@
         <v>2</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="90" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="73" t="s">
         <v>433</v>
       </c>
       <c r="D43" s="39"/>
@@ -9271,11 +9320,11 @@
         <v>1</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -9284,11 +9333,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -9297,7 +9346,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -9306,7 +9355,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>8</v>
       </c>
@@ -9321,12 +9370,12 @@
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
         <v>446</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>433</v>
@@ -9346,12 +9395,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>433</v>
@@ -9371,12 +9420,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C50" s="39" t="s">
         <v>433</v>
@@ -9396,12 +9445,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
         <v>436</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>433</v>
@@ -9419,12 +9468,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="B52" s="89" t="s">
-        <v>504</v>
+      <c r="B52" s="72" t="s">
+        <v>499</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>433</v>
@@ -9440,12 +9489,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
         <v>438</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>433</v>
@@ -9461,14 +9510,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="91" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="B54" s="91" t="s">
-        <v>516</v>
-      </c>
-      <c r="C54" s="91" t="s">
+      <c r="B54" s="74" t="s">
+        <v>507</v>
+      </c>
+      <c r="C54" s="74" t="s">
         <v>433</v>
       </c>
       <c r="D54" s="39"/>
@@ -9482,14 +9531,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="90" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="90" t="s">
-        <v>516</v>
-      </c>
-      <c r="C55" s="90" t="s">
+      <c r="B55" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="C55" s="73" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="39"/>
@@ -9503,7 +9552,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D56" s="39"/>
       <c r="E56" s="55" t="s">
         <v>451</v>
@@ -9519,9 +9568,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="92" t="s">
-        <v>515</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="75" t="s">
+        <v>506</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="53" t="s">
@@ -9536,9 +9585,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B58" s="40" t="s">
         <v>7</v>
@@ -9559,12 +9608,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>433</v>
@@ -9580,12 +9629,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="B60" s="89" t="s">
-        <v>504</v>
+        <v>458</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>499</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>433</v>
@@ -9601,12 +9650,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
-        <v>512</v>
+        <v>31</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>433</v>
@@ -9620,12 +9669,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="B62" s="89" t="s">
-        <v>504</v>
+        <v>32</v>
+      </c>
+      <c r="B62" s="72" t="s">
+        <v>499</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>433</v>
@@ -9633,12 +9682,12 @@
       <c r="D62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>514</v>
+        <v>33</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>433</v>
@@ -9646,37 +9695,42 @@
       <c r="D63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="89"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="72"/>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="41" t="s">
+        <v>508</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D67" s="39"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="G69" s="39"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -9691,7 +9745,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -9700,6 +9754,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9712,55 +9767,55 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -9768,7 +9823,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9776,7 +9831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>42</v>
       </c>
@@ -9784,7 +9839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -9792,7 +9847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9800,7 +9855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9808,7 +9863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -9816,7 +9871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -9824,7 +9879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -9832,7 +9887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9840,7 +9895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -9848,7 +9903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -9856,7 +9911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -9864,7 +9919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -9885,81 +9940,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -9985,7 +10041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -10011,7 +10067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>293</v>
       </c>
@@ -10037,7 +10093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -10060,7 +10116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -10083,7 +10139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -10106,7 +10162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -10126,7 +10182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -10136,7 +10192,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -10146,7 +10202,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -10154,7 +10210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>474</v>
       </c>
@@ -10174,7 +10230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
@@ -10182,19 +10238,19 @@
         <v>18</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
@@ -10202,21 +10258,21 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>494</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="I24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
         <v>73</v>
@@ -10228,18 +10284,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="I26" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10266,10 +10327,10 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -10277,50 +10338,50 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -10340,7 +10401,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
@@ -10360,7 +10421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>293</v>
       </c>
@@ -10380,7 +10441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -10397,7 +10458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -10414,7 +10475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -10431,7 +10492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -10445,7 +10506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -10453,7 +10514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -10482,108 +10543,108 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10601,56 +10662,56 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10670,7 +10731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>55</v>
       </c>
@@ -10690,7 +10751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -10710,7 +10771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -10730,7 +10791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -10750,7 +10811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -10770,7 +10831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -10784,7 +10845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -10804,7 +10865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -10824,7 +10885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -10844,7 +10905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -10864,7 +10925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -10884,7 +10945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
@@ -10904,7 +10965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -10918,7 +10979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
@@ -10932,7 +10993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -10946,7 +11007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>84</v>
       </c>
@@ -10954,7 +11015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -10962,7 +11023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -10970,7 +11031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -11001,165 +11062,165 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -11173,7 +11234,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -11187,7 +11248,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -11217,27 +11278,27 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
@@ -11290,7 +11351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -11321,7 +11382,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>117</v>
       </c>
@@ -11352,7 +11413,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -11383,7 +11444,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
@@ -11414,7 +11475,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>124</v>
       </c>
@@ -11445,7 +11506,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>127</v>
       </c>
@@ -11476,7 +11537,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>128</v>
       </c>
@@ -11507,7 +11568,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>131</v>
       </c>
@@ -11538,7 +11599,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>132</v>
       </c>
@@ -11569,7 +11630,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>135</v>
       </c>
@@ -11600,7 +11661,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>136</v>
       </c>
@@ -11631,7 +11692,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>139</v>
       </c>
@@ -11662,7 +11723,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
@@ -11693,7 +11754,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>145</v>
       </c>
@@ -11724,7 +11785,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>148</v>
       </c>
@@ -11755,7 +11816,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>151</v>
       </c>
@@ -11786,7 +11847,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
@@ -11817,7 +11878,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>157</v>
       </c>
@@ -11848,7 +11909,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>160</v>
       </c>
@@ -11879,7 +11940,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>163</v>
       </c>
@@ -11910,7 +11971,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>166</v>
       </c>
@@ -11941,7 +12002,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>169</v>
       </c>
@@ -11972,7 +12033,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>172</v>
       </c>
@@ -12003,7 +12064,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
@@ -12034,7 +12095,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
@@ -12065,7 +12126,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>181</v>
       </c>
@@ -12096,7 +12157,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>184</v>
       </c>
@@ -12127,7 +12188,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>187</v>
       </c>
@@ -12158,7 +12219,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>190</v>
       </c>
@@ -12189,7 +12250,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>193</v>
       </c>
@@ -12220,7 +12281,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>196</v>
       </c>
@@ -12251,7 +12312,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>197</v>
       </c>
@@ -12282,7 +12343,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>198</v>
       </c>
@@ -12313,7 +12374,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>199</v>
       </c>
@@ -12344,7 +12405,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>200</v>
       </c>
@@ -12375,7 +12436,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
@@ -12406,7 +12467,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>205</v>
       </c>
@@ -12437,7 +12498,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>206</v>
       </c>
@@ -12468,7 +12529,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>207</v>
       </c>
@@ -12499,7 +12560,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>208</v>
       </c>
@@ -12530,7 +12591,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>209</v>
       </c>
@@ -12561,7 +12622,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>212</v>
       </c>
@@ -12592,7 +12653,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>214</v>
       </c>
@@ -12623,7 +12684,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>215</v>
       </c>
@@ -12654,7 +12715,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>217</v>
       </c>
@@ -12685,7 +12746,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>220</v>
       </c>
@@ -12722,7 +12783,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>223</v>
       </c>
@@ -12753,7 +12814,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>225</v>
       </c>
@@ -12784,7 +12845,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>227</v>
       </c>
@@ -12815,7 +12876,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>229</v>
       </c>
@@ -12846,7 +12907,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>231</v>
       </c>
@@ -12877,7 +12938,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>233</v>
       </c>
@@ -12906,7 +12967,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>235</v>
       </c>
@@ -12935,7 +12996,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>236</v>
       </c>
@@ -12964,7 +13025,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>237</v>
       </c>
@@ -12993,7 +13054,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>239</v>
       </c>
@@ -13022,7 +13083,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>241</v>
       </c>
@@ -13051,7 +13112,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -13080,7 +13141,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>243</v>
       </c>
@@ -13109,7 +13170,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>245</v>
       </c>
@@ -13138,7 +13199,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>247</v>
       </c>
@@ -13167,7 +13228,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>248</v>
       </c>
@@ -13196,7 +13257,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>249</v>
       </c>
@@ -13225,7 +13286,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>250</v>
       </c>
@@ -13254,7 +13315,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>252</v>
       </c>
@@ -13283,7 +13344,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>254</v>
       </c>
@@ -13312,7 +13373,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>255</v>
       </c>
@@ -13341,7 +13402,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>257</v>
       </c>
@@ -13370,7 +13431,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>258</v>
       </c>
@@ -13399,7 +13460,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>259</v>
       </c>
@@ -13428,7 +13489,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>260</v>
       </c>
@@ -13457,7 +13518,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -13486,7 +13547,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>264</v>
       </c>
@@ -13515,7 +13576,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>266</v>
       </c>
@@ -13544,7 +13605,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>267</v>
       </c>
@@ -13573,7 +13634,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>268</v>
       </c>
@@ -13602,7 +13663,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>269</v>
       </c>
@@ -13631,7 +13692,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>270</v>
       </c>
@@ -13660,7 +13721,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>272</v>
       </c>
@@ -13689,7 +13750,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>274</v>
       </c>
@@ -13718,7 +13779,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>275</v>
       </c>
@@ -13747,7 +13808,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>276</v>
       </c>
@@ -13776,7 +13837,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>278</v>
       </c>
@@ -13803,7 +13864,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>281</v>
       </c>
@@ -13830,7 +13891,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>282</v>
       </c>

--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\Database Tables Outlines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D720EAF-2305-674A-B650-A6B131731451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13700929-FE31-43C4-8E34-0EB31A1BD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32020" yWindow="640" windowWidth="23260" windowHeight="16400" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
     <sheet name="USERS" sheetId="1" r:id="rId2"/>
-    <sheet name="VENDORS" sheetId="2" r:id="rId3"/>
-    <sheet name="SHOPPING CART" sheetId="9" r:id="rId4"/>
-    <sheet name="TRANSACTIONS" sheetId="5" r:id="rId5"/>
-    <sheet name="SECURITY" sheetId="11" r:id="rId6"/>
-    <sheet name="PRODUCTS" sheetId="7" r:id="rId7"/>
-    <sheet name="REPORTS" sheetId="4" r:id="rId8"/>
-    <sheet name="INVENTORY-WITH DATA" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="INVENTORY-WITH DATA1" sheetId="12" r:id="rId10"/>
-    <sheet name="SERVICES-WITH DATA" sheetId="13" r:id="rId11"/>
-    <sheet name="SERVICES" sheetId="10" r:id="rId12"/>
+    <sheet name="SESSIONS" sheetId="14" r:id="rId3"/>
+    <sheet name="VENDORS" sheetId="2" r:id="rId4"/>
+    <sheet name="SHOPPING CART" sheetId="9" r:id="rId5"/>
+    <sheet name="TRANSACTIONS" sheetId="5" r:id="rId6"/>
+    <sheet name="SECURITY" sheetId="11" r:id="rId7"/>
+    <sheet name="PRODUCTS" sheetId="7" r:id="rId8"/>
+    <sheet name="REPORTS" sheetId="4" r:id="rId9"/>
+    <sheet name="INVENTORY-WITH DATA" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="INVENTORY-WITH DATA1" sheetId="12" r:id="rId11"/>
+    <sheet name="SERVICES-WITH DATA" sheetId="13" r:id="rId12"/>
+    <sheet name="SERVICES" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="521">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -1862,6 +1863,122 @@
   </si>
   <si>
     <t>item_quantity</t>
+  </si>
+  <si>
+    <r>
+      <t>SESSION_ID (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>int(12)</t>
+  </si>
+  <si>
+    <t>session_table</t>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//shopping cart (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//registered classes (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sessions table will contain all foreign keys to data that will be required by the session.</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2509,7 +2626,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4895,14 +5011,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4910,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
@@ -4918,7 +5034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
@@ -4929,7 +5045,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>447</v>
       </c>
@@ -4940,7 +5056,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>475</v>
       </c>
@@ -4951,7 +5067,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>476</v>
       </c>
@@ -4962,7 +5078,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>5</v>
       </c>
@@ -4970,7 +5086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>482</v>
       </c>
@@ -4978,7 +5094,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>51</v>
       </c>
@@ -4986,7 +5102,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>477</v>
       </c>
@@ -4994,7 +5110,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
         <v>478</v>
       </c>
@@ -5002,7 +5118,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="33"/>
     </row>
@@ -5015,6 +5131,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E477509-D44B-43BE-9C52-BD956702792C}">
+  <dimension ref="A1:Q86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9">
+        <v>21440</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="9">
+        <v>21530</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="8"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="8"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="8"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="8"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="8"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="8"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="8"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="8"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="8"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="8"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="8"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="8"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40455DF4-3F31-4947-BCA7-1853A71C76DD}">
   <dimension ref="A1:O131"/>
   <sheetViews>
@@ -5022,25 +7794,25 @@
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>294</v>
       </c>
@@ -5087,7 +7859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>339</v>
       </c>
@@ -5114,7 +7886,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>331</v>
       </c>
@@ -5141,7 +7913,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>332</v>
       </c>
@@ -5168,7 +7940,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>333</v>
       </c>
@@ -5195,7 +7967,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>334</v>
       </c>
@@ -5222,7 +7994,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>335</v>
       </c>
@@ -5249,7 +8021,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>336</v>
       </c>
@@ -5276,7 +8048,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>337</v>
       </c>
@@ -5303,7 +8075,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>338</v>
       </c>
@@ -5330,7 +8102,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>351</v>
       </c>
@@ -5357,7 +8129,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>356</v>
       </c>
@@ -5384,7 +8156,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>302</v>
       </c>
@@ -5411,7 +8183,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>354</v>
       </c>
@@ -5438,7 +8210,7 @@
       <c r="N14" s="29"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>355</v>
       </c>
@@ -5465,7 +8237,7 @@
       <c r="N15" s="29"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>303</v>
       </c>
@@ -5492,7 +8264,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>353</v>
       </c>
@@ -5519,7 +8291,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>340</v>
       </c>
@@ -5546,7 +8318,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>357</v>
       </c>
@@ -5573,7 +8345,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>358</v>
       </c>
@@ -5600,7 +8372,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>349</v>
       </c>
@@ -5627,7 +8399,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>348</v>
       </c>
@@ -5654,7 +8426,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>350</v>
       </c>
@@ -5681,7 +8453,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>360</v>
       </c>
@@ -5708,7 +8480,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>361</v>
       </c>
@@ -5735,7 +8507,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>352</v>
       </c>
@@ -5762,7 +8534,7 @@
       <c r="N26" s="29"/>
       <c r="O26" s="30"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>359</v>
       </c>
@@ -5789,7 +8561,7 @@
       <c r="N27" s="29"/>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>362</v>
       </c>
@@ -5816,7 +8588,7 @@
       <c r="N28" s="29"/>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>363</v>
       </c>
@@ -5843,7 +8615,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>369</v>
       </c>
@@ -5870,7 +8642,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>370</v>
       </c>
@@ -5897,7 +8669,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="30"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>371</v>
       </c>
@@ -5924,7 +8696,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>372</v>
       </c>
@@ -5951,7 +8723,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>373</v>
       </c>
@@ -5978,7 +8750,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>374</v>
       </c>
@@ -6005,7 +8777,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>375</v>
       </c>
@@ -6032,7 +8804,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>364</v>
       </c>
@@ -6059,7 +8831,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>365</v>
       </c>
@@ -6086,7 +8858,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>366</v>
       </c>
@@ -6113,7 +8885,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>367</v>
       </c>
@@ -6140,7 +8912,7 @@
       <c r="N40" s="29"/>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>377</v>
       </c>
@@ -6167,7 +8939,7 @@
       <c r="N41" s="29"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>376</v>
       </c>
@@ -6194,7 +8966,7 @@
       <c r="N42" s="29"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>378</v>
       </c>
@@ -6221,7 +8993,7 @@
       <c r="N43" s="29"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>323</v>
       </c>
@@ -6248,7 +9020,7 @@
       <c r="N44" s="29"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>322</v>
       </c>
@@ -6275,7 +9047,7 @@
       <c r="N45" s="29"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>306</v>
       </c>
@@ -6302,7 +9074,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>307</v>
       </c>
@@ -6329,7 +9101,7 @@
       <c r="N47" s="29"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>325</v>
       </c>
@@ -6356,7 +9128,7 @@
       <c r="N48" s="29"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>309</v>
       </c>
@@ -6383,7 +9155,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>313</v>
       </c>
@@ -6410,7 +9182,7 @@
       <c r="N50" s="29"/>
       <c r="O50" s="30"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>298</v>
       </c>
@@ -6437,7 +9209,7 @@
       <c r="N51" s="29"/>
       <c r="O51" s="30"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>301</v>
       </c>
@@ -6464,7 +9236,7 @@
       <c r="N52" s="29"/>
       <c r="O52" s="30"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>324</v>
       </c>
@@ -6491,7 +9263,7 @@
       <c r="N53" s="29"/>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>315</v>
       </c>
@@ -6518,7 +9290,7 @@
       <c r="N54" s="29"/>
       <c r="O54" s="30"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>342</v>
       </c>
@@ -6545,7 +9317,7 @@
       <c r="N55" s="29"/>
       <c r="O55" s="30"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>343</v>
       </c>
@@ -6572,7 +9344,7 @@
       <c r="N56" s="29"/>
       <c r="O56" s="30"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>344</v>
       </c>
@@ -6599,7 +9371,7 @@
       <c r="N57" s="29"/>
       <c r="O57" s="30"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>345</v>
       </c>
@@ -6626,7 +9398,7 @@
       <c r="N58" s="29"/>
       <c r="O58" s="30"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>346</v>
       </c>
@@ -6653,7 +9425,7 @@
       <c r="N59" s="29"/>
       <c r="O59" s="30"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>347</v>
       </c>
@@ -6680,7 +9452,7 @@
       <c r="N60" s="29"/>
       <c r="O60" s="30"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>326</v>
       </c>
@@ -6707,7 +9479,7 @@
       <c r="N61" s="29"/>
       <c r="O61" s="30"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>327</v>
       </c>
@@ -6734,7 +9506,7 @@
       <c r="N62" s="29"/>
       <c r="O62" s="30"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>328</v>
       </c>
@@ -6761,7 +9533,7 @@
       <c r="N63" s="29"/>
       <c r="O63" s="30"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>329</v>
       </c>
@@ -6788,7 +9560,7 @@
       <c r="N64" s="29"/>
       <c r="O64" s="30"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>330</v>
       </c>
@@ -6815,7 +9587,7 @@
       <c r="N65" s="29"/>
       <c r="O65" s="30"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>308</v>
       </c>
@@ -6842,7 +9614,7 @@
       <c r="N66" s="29"/>
       <c r="O66" s="30"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
         <v>321</v>
       </c>
@@ -6869,7 +9641,7 @@
       <c r="N67" s="29"/>
       <c r="O67" s="30"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>320</v>
       </c>
@@ -6896,7 +9668,7 @@
       <c r="N68" s="29"/>
       <c r="O68" s="30"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
         <v>311</v>
       </c>
@@ -6923,7 +9695,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="30"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
         <v>311</v>
       </c>
@@ -6950,7 +9722,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>317</v>
       </c>
@@ -6977,7 +9749,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="30"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>299</v>
       </c>
@@ -7004,7 +9776,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="30"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
         <v>300</v>
       </c>
@@ -7031,7 +9803,7 @@
       <c r="N73" s="29"/>
       <c r="O73" s="30"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>319</v>
       </c>
@@ -7058,7 +9830,7 @@
       <c r="N74" s="29"/>
       <c r="O74" s="30"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
         <v>304</v>
       </c>
@@ -7085,7 +9857,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="30"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>304</v>
       </c>
@@ -7112,7 +9884,7 @@
       <c r="N76" s="29"/>
       <c r="O76" s="30"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
         <v>305</v>
       </c>
@@ -7139,7 +9911,7 @@
       <c r="N77" s="29"/>
       <c r="O77" s="30"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
         <v>316</v>
       </c>
@@ -7166,7 +9938,7 @@
       <c r="N78" s="29"/>
       <c r="O78" s="30"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
         <v>312</v>
       </c>
@@ -7193,7 +9965,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="30"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
         <v>310</v>
       </c>
@@ -7220,7 +9992,7 @@
       <c r="N80" s="29"/>
       <c r="O80" s="30"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
         <v>314</v>
       </c>
@@ -7247,7 +10019,7 @@
       <c r="N81" s="29"/>
       <c r="O81" s="30"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
         <v>379</v>
       </c>
@@ -7274,7 +10046,7 @@
       <c r="N82" s="29"/>
       <c r="O82" s="30"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>380</v>
       </c>
@@ -7301,7 +10073,7 @@
       <c r="N83" s="29"/>
       <c r="O83" s="30"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
         <v>381</v>
       </c>
@@ -7328,7 +10100,7 @@
       <c r="N84" s="29"/>
       <c r="O84" s="30"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -7345,7 +10117,7 @@
       <c r="N85" s="32"/>
       <c r="O85" s="33"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="31">
         <v>1</v>
       </c>
@@ -7370,7 +10142,7 @@
       <c r="N86" s="32"/>
       <c r="O86" s="33"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="31">
         <v>2</v>
       </c>
@@ -7393,7 +10165,7 @@
       <c r="N87" s="32"/>
       <c r="O87" s="33"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="31">
         <v>3</v>
       </c>
@@ -7416,7 +10188,7 @@
       <c r="N88" s="32"/>
       <c r="O88" s="33"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="31">
         <v>4</v>
       </c>
@@ -7439,7 +10211,7 @@
       <c r="N89" s="32"/>
       <c r="O89" s="33"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="31">
         <v>5</v>
       </c>
@@ -7464,7 +10236,7 @@
       <c r="N90" s="32"/>
       <c r="O90" s="33"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="31">
         <v>6</v>
       </c>
@@ -7487,7 +10259,7 @@
       <c r="N91" s="32"/>
       <c r="O91" s="33"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="31">
         <v>7</v>
       </c>
@@ -7510,7 +10282,7 @@
       <c r="N92" s="32"/>
       <c r="O92" s="33"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="31">
         <v>8</v>
       </c>
@@ -7533,7 +10305,7 @@
       <c r="N93" s="32"/>
       <c r="O93" s="33"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="31">
         <v>9</v>
       </c>
@@ -7558,7 +10330,7 @@
       <c r="N94" s="32"/>
       <c r="O94" s="33"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="31">
         <v>10</v>
       </c>
@@ -7581,7 +10353,7 @@
       <c r="N95" s="32"/>
       <c r="O95" s="33"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
         <v>11</v>
       </c>
@@ -7604,7 +10376,7 @@
       <c r="N96" s="32"/>
       <c r="O96" s="33"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="31">
         <v>12</v>
       </c>
@@ -7627,7 +10399,7 @@
       <c r="N97" s="32"/>
       <c r="O97" s="33"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="31">
         <v>13</v>
       </c>
@@ -7650,7 +10422,7 @@
       <c r="N98" s="32"/>
       <c r="O98" s="33"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="31">
         <v>14</v>
       </c>
@@ -7673,7 +10445,7 @@
       <c r="N99" s="32"/>
       <c r="O99" s="33"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="31">
         <v>15</v>
       </c>
@@ -7698,7 +10470,7 @@
       <c r="N100" s="32"/>
       <c r="O100" s="33"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="31">
         <v>16</v>
       </c>
@@ -7721,7 +10493,7 @@
       <c r="N101" s="32"/>
       <c r="O101" s="33"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="31">
         <v>17</v>
       </c>
@@ -7744,7 +10516,7 @@
       <c r="N102" s="32"/>
       <c r="O102" s="33"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
         <v>18</v>
       </c>
@@ -7767,7 +10539,7 @@
       <c r="N103" s="32"/>
       <c r="O103" s="33"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
         <v>19</v>
       </c>
@@ -7790,7 +10562,7 @@
       <c r="N104" s="32"/>
       <c r="O104" s="33"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
         <v>20</v>
       </c>
@@ -7813,7 +10585,7 @@
       <c r="N105" s="32"/>
       <c r="O105" s="33"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
         <v>21</v>
       </c>
@@ -7838,7 +10610,7 @@
       <c r="N106" s="32"/>
       <c r="O106" s="33"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
         <v>22</v>
       </c>
@@ -7861,7 +10633,7 @@
       <c r="N107" s="32"/>
       <c r="O107" s="33"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
         <v>23</v>
       </c>
@@ -7884,7 +10656,7 @@
       <c r="N108" s="32"/>
       <c r="O108" s="33"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
         <v>24</v>
       </c>
@@ -7907,7 +10679,7 @@
       <c r="N109" s="32"/>
       <c r="O109" s="33"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <v>25</v>
       </c>
@@ -7932,7 +10704,7 @@
       <c r="N110" s="32"/>
       <c r="O110" s="33"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>26</v>
       </c>
@@ -7955,7 +10727,7 @@
       <c r="N111" s="32"/>
       <c r="O111" s="33"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <v>27</v>
       </c>
@@ -7978,7 +10750,7 @@
       <c r="N112" s="32"/>
       <c r="O112" s="33"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <v>28</v>
       </c>
@@ -8003,7 +10775,7 @@
       <c r="N113" s="32"/>
       <c r="O113" s="33"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <v>29</v>
       </c>
@@ -8026,7 +10798,7 @@
       <c r="N114" s="32"/>
       <c r="O114" s="33"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>30</v>
       </c>
@@ -8049,7 +10821,7 @@
       <c r="N115" s="32"/>
       <c r="O115" s="33"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>31</v>
       </c>
@@ -8074,7 +10846,7 @@
       <c r="N116" s="32"/>
       <c r="O116" s="33"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>32</v>
       </c>
@@ -8097,7 +10869,7 @@
       <c r="N117" s="32"/>
       <c r="O117" s="33"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <v>33</v>
       </c>
@@ -8120,7 +10892,7 @@
       <c r="N118" s="32"/>
       <c r="O118" s="33"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <v>34</v>
       </c>
@@ -8143,7 +10915,7 @@
       <c r="N119" s="32"/>
       <c r="O119" s="33"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <v>35</v>
       </c>
@@ -8166,7 +10938,7 @@
       <c r="N120" s="32"/>
       <c r="O120" s="33"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <v>36</v>
       </c>
@@ -8189,7 +10961,7 @@
       <c r="N121" s="32"/>
       <c r="O121" s="33"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
         <v>37</v>
       </c>
@@ -8214,7 +10986,7 @@
       <c r="N122" s="32"/>
       <c r="O122" s="33"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
         <v>38</v>
       </c>
@@ -8237,7 +11009,7 @@
       <c r="N123" s="32"/>
       <c r="O123" s="33"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <v>39</v>
       </c>
@@ -8260,7 +11032,7 @@
       <c r="N124" s="32"/>
       <c r="O124" s="33"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <v>40</v>
       </c>
@@ -8283,7 +11055,7 @@
       <c r="N125" s="32"/>
       <c r="O125" s="33"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <v>41</v>
       </c>
@@ -8308,7 +11080,7 @@
       <c r="N126" s="32"/>
       <c r="O126" s="33"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <v>42</v>
       </c>
@@ -8331,7 +11103,7 @@
       <c r="N127" s="32"/>
       <c r="O127" s="33"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
         <v>43</v>
       </c>
@@ -8354,7 +11126,7 @@
       <c r="N128" s="32"/>
       <c r="O128" s="33"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>44</v>
       </c>
@@ -8377,7 +11149,7 @@
       <c r="N129" s="32"/>
       <c r="O129" s="33"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>45</v>
       </c>
@@ -8402,7 +11174,7 @@
       <c r="N130" s="32"/>
       <c r="O130" s="33"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
         <v>46</v>
       </c>
@@ -8434,7 +11206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5D5B9F-2597-CF42-8C19-65CB837D3270}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8442,17 +11214,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>395</v>
       </c>
@@ -8469,7 +11241,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -8484,7 +11256,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -8499,7 +11271,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -8514,7 +11286,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>399</v>
       </c>
@@ -8540,7 +11312,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -8560,7 +11332,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2</v>
       </c>
@@ -8580,7 +11352,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -8600,7 +11372,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>4</v>
       </c>
@@ -8620,7 +11392,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -8640,7 +11412,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -8660,7 +11432,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>7</v>
       </c>
@@ -8689,45 +11461,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE9A99-0F75-6C49-A0AA-F3F1DED00D9C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>393</v>
       </c>
@@ -8741,7 +11513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>395</v>
       </c>
@@ -8757,7 +11529,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
@@ -8771,7 +11543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>398</v>
       </c>
@@ -8785,7 +11557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>396</v>
       </c>
@@ -8799,7 +11571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>397</v>
       </c>
@@ -8813,7 +11585,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>404</v>
       </c>
@@ -8821,7 +11593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>419</v>
       </c>
@@ -8829,7 +11601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>420</v>
       </c>
@@ -8854,93 +11626,93 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A38" sqref="A38:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -8954,7 +11726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
@@ -8968,7 +11740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -8982,7 +11754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8996,7 +11768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -9010,7 +11782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9024,7 +11796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -9032,7 +11804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -9046,7 +11818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
@@ -9060,7 +11832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9074,7 +11846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9088,7 +11860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -9102,7 +11874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>34</v>
       </c>
@@ -9110,7 +11882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -9124,7 +11896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
@@ -9132,7 +11904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
@@ -9146,7 +11918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -9160,7 +11932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -9174,7 +11946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -9182,7 +11954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
@@ -9190,7 +11962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>431</v>
       </c>
@@ -9201,7 +11973,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -9210,7 +11982,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>2</v>
       </c>
@@ -9229,7 +12001,7 @@
       </c>
       <c r="G38" s="44"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>445</v>
       </c>
@@ -9248,7 +12020,7 @@
       </c>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>35</v>
       </c>
@@ -9267,7 +12039,7 @@
       </c>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>435</v>
       </c>
@@ -9286,7 +12058,7 @@
       </c>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>444</v>
       </c>
@@ -9305,14 +12077,14 @@
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="73" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="72" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="72" t="s">
         <v>433</v>
       </c>
       <c r="D43" s="39"/>
@@ -9324,7 +12096,7 @@
       </c>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -9337,7 +12109,7 @@
       </c>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -9346,7 +12118,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -9355,7 +12127,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>8</v>
       </c>
@@ -9370,7 +12142,7 @@
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>446</v>
       </c>
@@ -9395,7 +12167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>84</v>
       </c>
@@ -9420,7 +12192,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>502</v>
       </c>
@@ -9445,7 +12217,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>436</v>
       </c>
@@ -9468,11 +12240,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="39" t="s">
         <v>499</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -9489,7 +12261,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>438</v>
       </c>
@@ -9510,14 +12282,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="74" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="73" t="s">
         <v>433</v>
       </c>
       <c r="D54" s="39"/>
@@ -9531,14 +12303,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="73" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="72" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="39"/>
@@ -9552,7 +12324,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D56" s="39"/>
       <c r="E56" s="55" t="s">
         <v>451</v>
@@ -9568,8 +12340,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="75" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="74" t="s">
         <v>506</v>
       </c>
       <c r="D57" s="39"/>
@@ -9585,7 +12357,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>500</v>
       </c>
@@ -9608,7 +12380,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>501</v>
       </c>
@@ -9629,11 +12401,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="39" t="s">
         <v>499</v>
       </c>
       <c r="C60" s="39" t="s">
@@ -9650,7 +12422,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>31</v>
       </c>
@@ -9669,11 +12441,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="39" t="s">
         <v>499</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -9682,7 +12454,7 @@
       <c r="D62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>33</v>
       </c>
@@ -9695,42 +12467,42 @@
       <c r="D63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="72"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>508</v>
       </c>
       <c r="D65" s="39"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D67" s="39"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="G69" s="39"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -9760,6 +12532,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9B7F4A-BC82-4692-8DF4-40A86E927FB2}">
+  <dimension ref="B4:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54803C22-3C90-498D-8461-4B0C2D6C7505}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -9767,55 +12630,55 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -9823,7 +12686,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9831,7 +12694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>42</v>
       </c>
@@ -9839,7 +12702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -9847,7 +12710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9855,7 +12718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9863,7 +12726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -9871,7 +12734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -9879,7 +12742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -9887,7 +12750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9895,7 +12758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -9903,7 +12766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -9911,7 +12774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -9919,7 +12782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -9938,84 +12801,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FAEA09-6CEA-024D-AB54-2470DDA2FDE1}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -10041,7 +12906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -10067,7 +12932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>293</v>
       </c>
@@ -10093,7 +12958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -10116,7 +12981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -10139,7 +13004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -10162,7 +13027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -10182,7 +13047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -10192,7 +13057,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -10202,7 +13067,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -10210,7 +13075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>474</v>
       </c>
@@ -10230,7 +13095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
@@ -10250,7 +13115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
@@ -10270,7 +13135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>493</v>
       </c>
@@ -10284,7 +13149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>510</v>
       </c>
@@ -10298,7 +13163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>78</v>
       </c>
@@ -10319,7 +13184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A01C55C-4E51-4874-BC12-52D39A06ACCB}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -10327,10 +13192,10 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -10338,50 +13203,50 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -10401,7 +13266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
@@ -10421,7 +13286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>293</v>
       </c>
@@ -10441,7 +13306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -10458,7 +13323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -10475,7 +13340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -10492,7 +13357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -10506,7 +13371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -10514,7 +13379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -10535,7 +13400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02875902-8367-8C46-BD77-E65EA7D0F11A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -10543,108 +13408,108 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10654,7 +13519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DAFF4-7C0C-41D8-B4DC-E34F2EEE47B6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10662,56 +13527,56 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10731,7 +13596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>55</v>
       </c>
@@ -10751,7 +13616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -10771,7 +13636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -10791,7 +13656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -10811,7 +13676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -10831,7 +13696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -10845,7 +13710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -10865,7 +13730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -10885,7 +13750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -10905,7 +13770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -10925,7 +13790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -10945,7 +13810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
@@ -10965,7 +13830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -10979,7 +13844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
@@ -10993,7 +13858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -11007,7 +13872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>84</v>
       </c>
@@ -11015,7 +13880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -11023,7 +13888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -11031,7 +13896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -11054,7 +13919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071FAA28-1D33-4321-8B97-55A52AA504C6}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -11062,165 +13927,165 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -11234,7 +14099,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -11248,7 +14113,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -11268,2660 +14133,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E477509-D44B-43BE-9C52-BD956702792C}">
-  <dimension ref="A1:Q86"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="9">
-        <v>21440</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="9">
-        <v>21530</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="8"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="8"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/docs/Database Tables Outlines/POS - Database Tracker.xlsx
+++ b/docs/Database Tables Outlines/POS - Database Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/Database Tables Outlines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48130F-BB7F-934B-8B51-3B0677884FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C86966-5024-3B42-BB33-60FCD2C2A021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="476">
   <si>
     <t xml:space="preserve">table name </t>
   </si>
@@ -76,12 +76,6 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>user_purchase_logs</t>
-  </si>
-  <si>
-    <t>USER_DATA</t>
-  </si>
-  <si>
     <t>int (P)</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>int(I)</t>
   </si>
   <si>
-    <t>INVOICE_ID</t>
-  </si>
-  <si>
     <t>elogs</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>prod_retail_cost</t>
-  </si>
-  <si>
-    <t>line_total</t>
   </si>
   <si>
     <t>prod_sales</t>
@@ -1576,9 +1564,6 @@
     <t>cart_page</t>
   </si>
   <si>
-    <t>USER_PURCHASE_LOGID</t>
-  </si>
-  <si>
     <t>access_rules</t>
   </si>
   <si>
@@ -1625,15 +1610,6 @@
   </si>
   <si>
     <t>SERVICES TABLE</t>
-  </si>
-  <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>order_items</t>
-  </si>
-  <si>
-    <t>grand_total</t>
   </si>
   <si>
     <t>freeMember</t>
@@ -1707,15 +1683,6 @@
     <t>ORDER_ID</t>
   </si>
   <si>
-    <t>date_order_created</t>
-  </si>
-  <si>
-    <t>ORDER_DETAIL_ID</t>
-  </si>
-  <si>
-    <t>item_quantity</t>
-  </si>
-  <si>
     <r>
       <t>SESSION_ID (</t>
     </r>
@@ -1830,6 +1797,30 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>CART_ID</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>item_cost</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>grade_total</t>
+  </si>
+  <si>
+    <t>sting</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2516,238 +2507,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4333,31 +4097,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A1:B11" xr:uid="{ED510745-A816-2948-8B1D-29947C798F3A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
-    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="89"/>
+    <sortCondition sortBy="cellColor" ref="B1:B12" dxfId="74"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{1137DD7B-EAD0-0243-AC2D-114693436EC0}" name="table name " dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{92901D76-7C59-2442-9CEC-0036EA375C8C}" name="purpose" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
-  <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product"/>
-    <tableColumn id="2" xr3:uid="{B5B00082-450C-4BC9-8030-E1C02C9744F1}" name="Datatype"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}" name="Table314" displayName="Table314" ref="D7:E19" totalsRowShown="0">
   <autoFilter ref="D7:E19" xr:uid="{EA6E0763-6C65-46EC-8AB8-CB076FF2984B}"/>
   <tableColumns count="2">
@@ -4368,7 +4121,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}" name="Table9" displayName="Table9" ref="A21:B27" totalsRowShown="0">
   <autoFilter ref="A21:B27" xr:uid="{E3DDE1CB-D2EC-4895-A1DE-5DAE3B1FA4A0}"/>
   <tableColumns count="2">
@@ -4379,94 +4132,94 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}" name="Table7" displayName="Table7" ref="A1:Q86" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:Q86" xr:uid="{AC03ADBA-3354-4069-84CB-68F6242AE90F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q86">
     <sortCondition ref="F1:F86"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="60"/>
-    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="59"/>
-    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="58"/>
-    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="57"/>
-    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="56"/>
-    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{C66F7D25-6E6C-48E0-9667-3F13ED11E4BC}" name="ITID (P)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{8D71216B-4865-4721-BA22-8B0ECCA1A203}" name="Classification" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{FCD59CEC-114F-4086-8F99-A7EFC2D47E7B}" name="Item Name" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{183C150A-4537-4E95-90F2-B1C282618484}" name="VDID (I)" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3E40FA88-D3F9-4C84-933E-8FCF7C0E9A5D}" name="Brand" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{233404DD-D3DB-4C47-93DB-F77A581365D9}" name="Model" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{B0CD864D-1A2F-45E3-93EE-7832FC831C9A}" name="Category" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{EE402B43-8144-4032-9920-1AEF3A02D21F}" name="Unit Quantity" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{864AB040-1BAE-4CEC-8F67-2C680A2BED1F}" name="Items Per Unit" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{D32844B6-6D6F-4C84-8421-5293D5261E3E}" name="Total Quantity" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{180EF5FC-A3BD-465B-9EDA-2844BFD7A979}" name="Date Of Purchase" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{471193FA-A66C-4D22-9D17-DB2FD00D4A74}" name="Anticipated Use Life" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{D7B697BF-606D-46B7-AD41-94F3B946E4B4}" name="Sale Price" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{1D92AD69-3329-432A-AB36-F9CA5B162453}" name="Item Per Unit Cost" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{55457BE0-6CDC-4354-9E9E-DFDEA504EBBE}" name="Cost Of Purchase" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{5424D131-F581-47F3-A94E-E264C817407C}" name="Photo Link" dataDxfId="41"/>
+    <tableColumn id="24" xr3:uid="{4D009871-6537-442B-80F8-F1F5A15149AC}" name="Order Web Link" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
+    <sortCondition ref="A1:A85"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}" name="Table19" displayName="Table19" ref="A1:O131" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A1:O131" xr:uid="{6758D745-B4E1-4043-A8D2-8D4F7FDE8A08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O85">
-    <sortCondition ref="A1:A85"/>
-  </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0CD7AC72-49B3-7244-9D77-587168A8C29D}" name="PROD_ID" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{F669803A-1C2B-4F4F-9086-B9000CDA40FC}" name="prod_name" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{9F069C76-EAD1-3948-8AE5-0CF6C28955AB}" name="prod_description" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{2E613335-9BE1-0948-A582-1540033DE6C8}" name="prod_image" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{1104D79E-9A5A-714B-AF17-C62ED3207498}" name="Vendor Name (temp until we have the vendor ID Populated)" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{096071DB-C10F-F440-8999-1F42847DAA46}" name="prod_quantity" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{D5D64163-4784-BD4D-AAE1-2E1E9CE75F46}" name="VENDOR_ID" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{2A3F3825-722E-7C46-9D1A-5C1230676C9D}" name="Prod Category (temp until we have Category ID" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{25872DA6-C700-8343-9B2D-5AC26C6CF8F8}" name="PRODUCT_CATEGORY" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{568DF9DC-F623-E243-86FB-5FB51D02A417}" name="pr_brand" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{F86E5636-7B76-F84C-A4F4-AA76B3DD7EAA}" name="pr_model" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{535CC5DA-5633-1D4B-913C-584159C934AD}" name="prod_date_purchased" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{7F3480CA-2C56-CF4C-8CD8-6424C21705DA}" name="prod_purchase_cost" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{1502990D-7EF5-224C-B7E0-96F3D3F1B0E1}" name="prod_rental_cost" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{6CAF6211-E949-3547-9185-BEF0E1373142}" name="prod_retail_cost" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}" name="Table23" displayName="Table23" ref="A1:E4" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:E4" xr:uid="{B41F1D88-6BC9-7541-8EAA-179233B1D5E9}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4BE343A-ABA6-EA42-A6F4-73F5923DD7E1}" name="MEMBERSHIP_ID" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{AF8BB9C8-1D59-3244-8953-60FEDD92B512}" name="USER_ID" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{2F1F6E59-B988-BC43-BCF0-9ACE635AD7F3}" name="mem_type" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{E4E63878-CBB6-854E-A200-804EB41A984C}" name="mem_cost" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{CDCE100B-6B9F-4B4F-8B08-F44E7A548EC6}" name="mem_duration" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}" name="Table24" displayName="Table24" ref="A7:H14" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A7:H14" xr:uid="{E333897C-4734-8E49-9F1A-8F1B50120560}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{206B337B-A861-B940-B7D9-E9FB76B9F6BD}" name="CLASS_ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F8B76A29-B663-D94A-9110-027E02E2498D}" name="class_name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9A937EA6-E1CB-4941-BBAA-AD7C05972803}" name="EMPLOYEE_ID" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{52F747A5-59A0-D14E-A225-F7D289115DC7}" name="class_description" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{014BD5EC-4461-6A45-B6D4-36D61480B55E}" name="class_image" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{DA5B623B-8894-0649-B5B7-3A92B570CB76}" name="class_max_capacity" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{85BAB98E-E9E2-DE4A-ADAD-5038312C5D4E}" name="class_time" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0155195F-AA32-8941-8A1D-EE52717632FA}" name="class_day" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}" name="Table20" displayName="Table20" ref="A5:B10" totalsRowShown="0">
   <autoFilter ref="A5:B10" xr:uid="{32CD3382-E4B9-3F4E-A402-388178C48A05}"/>
   <tableColumns count="2">
@@ -4477,7 +4230,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}" name="Table21" displayName="Table21" ref="D5:E13" totalsRowShown="0">
   <autoFilter ref="D5:E13" xr:uid="{F6FFAADD-2B33-9E40-A7EA-CE1F33C8F6CA}"/>
   <tableColumns count="2">
@@ -4500,32 +4253,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E31:F33" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}" name="Table28" displayName="Table28" ref="E31:F33" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="E31:F33" xr:uid="{53122446-AB67-C247-824A-144B2DF4A7ED}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{0580BBEB-FD3B-3040-9E3C-071516BE4E6F}" name="keys table " dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{6D1E103D-9360-254A-BF8B-2A3BF8D7BFD2}" name="datatype " dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H13:I26" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}" name="Table22" displayName="Table22" ref="H13:I26" totalsRowShown="0" dataDxfId="65">
   <autoFilter ref="H13:I26" xr:uid="{09EBBE14-BF6D-1840-BBE2-AEFED7D39E58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{F05FC346-44B2-9849-9EBB-F7FA5D60B6DD}" name="access_rules " dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{EA7C83E9-9475-0944-9213-AB2A58CEB3E4}" name="datatype" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E5BB3037-7153-5844-91B0-1BDAF0038909}" name="Table31" displayName="Table31" ref="A33:C40" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E5BB3037-7153-5844-91B0-1BDAF0038909}" name="Table31" displayName="Table31" ref="A33:C40" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A33:C40" xr:uid="{E5BB3037-7153-5844-91B0-1BDAF0038909}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC87142B-1B78-7746-A13F-410D76BF8E9D}" name="user_address" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{CC87142B-1B78-7746-A13F-410D76BF8E9D}" name="user_address" dataDxfId="61"/>
     <tableColumn id="2" xr3:uid="{91157C00-D157-884D-8188-CC6499B86009}" name="Datatype"/>
     <tableColumn id="3" xr3:uid="{BA2FABE6-E119-8C4A-9FFB-70F00E17123A}" name="Default"/>
   </tableColumns>
@@ -4545,33 +4298,33 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}" name="Table29" displayName="Table29" ref="A9:B13" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A9:B13" xr:uid="{C2418F83-5A6A-C54E-9A56-ECF3240F39A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D433E19-85FE-904B-8BA0-8DD0BECB4A81}" name="Table2" displayName="Table2" ref="A18:B23" totalsRowShown="0">
+  <autoFilter ref="A18:B23" xr:uid="{5D433E19-85FE-904B-8BA0-8DD0BECB4A81}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6CC08FD4-B6D1-084D-AFB7-4BD744507D6F}" name="orders" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3DC50735-1011-F848-BAB9-1909EE4D1061}" name="datatype" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D7823C0A-7055-D843-AD4C-3A276E3C2581}" name="cart"/>
+    <tableColumn id="2" xr3:uid="{410AADE3-7624-234E-BF98-4FAC0583EB5B}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}" name="Table30" displayName="Table30" ref="D9:E14" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="D9:E14" xr:uid="{54252226-E27E-C44D-BFDB-9065BA64A7D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C26EB8A8-C617-474E-8B30-BD51F333FBD5}" name="Table4" displayName="Table4" ref="D18:E23" totalsRowShown="0">
+  <autoFilter ref="D18:E23" xr:uid="{C26EB8A8-C617-474E-8B30-BD51F333FBD5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DE5C960-B09C-0541-8906-0BFE486C564F}" name="order_items" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EED8722B-4C86-5A4F-BE35-E088FB8C936D}" name="datatype" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4F0C2348-9B28-5B40-AD3D-77CBB1EE4A4D}" name="order"/>
+    <tableColumn id="2" xr3:uid="{55B8C903-FA0D-324C-B3F4-727DDD5334B8}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8694853A-6D1A-DB42-BDC0-53BEDC037357}" name="Table122" displayName="Table122" ref="G9:H12" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="G9:H12" xr:uid="{8694853A-6D1A-DB42-BDC0-53BEDC037357}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}" name="Table8" displayName="Table8" ref="A7:B19" totalsRowShown="0">
+  <autoFilter ref="A7:B19" xr:uid="{B488AC21-3084-4E7E-AB5D-38898F649B2E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB7AD139-AF43-6F41-9E92-C50753F003AD}" name="user_purchase_logs" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FADC1554-DDF0-DE4C-A1A9-91E155E1E2CD}" name="datatype" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{581FADAC-E4C9-4E91-A4B7-99467AD98D1F}" name="product"/>
+    <tableColumn id="2" xr3:uid="{B5B00082-450C-4BC9-8030-E1C02C9744F1}" name="Datatype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4876,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C445BC9-7E32-414B-9C85-01A82BEB6FF4}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4911,40 +4664,40 @@
         <v>4</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>438</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>439</v>
-      </c>
       <c r="D6" s="69" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4957,34 +4710,34 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5027,71 +4780,71 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="O1" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="25"/>
       <c r="H2" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
@@ -5101,24 +4854,24 @@
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="28"/>
       <c r="H3" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
@@ -5128,24 +4881,24 @@
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="28"/>
       <c r="H4" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -5155,24 +4908,24 @@
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="28"/>
       <c r="H5" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -5182,24 +4935,24 @@
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="28"/>
       <c r="H6" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -5209,24 +4962,24 @@
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="28"/>
       <c r="H7" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -5236,24 +4989,24 @@
     </row>
     <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="28"/>
       <c r="H8" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -5263,24 +5016,24 @@
     </row>
     <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="28"/>
       <c r="H9" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -5290,24 +5043,24 @@
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="28"/>
       <c r="H10" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -5317,24 +5070,24 @@
     </row>
     <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="28"/>
       <c r="H11" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -5344,24 +5097,24 @@
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="28"/>
       <c r="H12" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -5371,24 +5124,24 @@
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="28"/>
       <c r="H13" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -5398,24 +5151,24 @@
     </row>
     <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="28"/>
       <c r="H14" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -5425,24 +5178,24 @@
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="28"/>
       <c r="H15" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -5452,24 +5205,24 @@
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="28"/>
       <c r="H16" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -5479,24 +5232,24 @@
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="28"/>
       <c r="H17" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -5506,24 +5259,24 @@
     </row>
     <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="28"/>
       <c r="H18" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -5533,24 +5286,24 @@
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="28"/>
       <c r="H19" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
@@ -5560,24 +5313,24 @@
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="28"/>
       <c r="H20" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
@@ -5587,24 +5340,24 @@
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="28"/>
       <c r="H21" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -5614,24 +5367,24 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="28"/>
       <c r="H22" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -5641,24 +5394,24 @@
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="28"/>
       <c r="H23" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -5668,24 +5421,24 @@
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="28"/>
       <c r="H24" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
@@ -5695,24 +5448,24 @@
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="28"/>
       <c r="H25" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
@@ -5722,24 +5475,24 @@
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="28"/>
       <c r="H26" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
@@ -5749,24 +5502,24 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="28"/>
       <c r="H27" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
@@ -5776,24 +5529,24 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="28"/>
       <c r="H28" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
@@ -5803,24 +5556,24 @@
     </row>
     <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="28"/>
       <c r="H29" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
@@ -5830,24 +5583,24 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="28"/>
       <c r="H30" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
@@ -5857,24 +5610,24 @@
     </row>
     <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="28"/>
       <c r="H31" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
@@ -5884,24 +5637,24 @@
     </row>
     <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="28"/>
       <c r="H32" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
@@ -5911,24 +5664,24 @@
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F33" s="57"/>
       <c r="G33" s="28"/>
       <c r="H33" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
@@ -5938,24 +5691,24 @@
     </row>
     <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="28"/>
       <c r="H34" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
@@ -5965,24 +5718,24 @@
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="28"/>
       <c r="H35" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
@@ -5992,24 +5745,24 @@
     </row>
     <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="28"/>
       <c r="H36" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
@@ -6019,24 +5772,24 @@
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="28"/>
       <c r="H37" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
@@ -6046,24 +5799,24 @@
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="28"/>
       <c r="H38" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
@@ -6073,24 +5826,24 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F39" s="57"/>
       <c r="G39" s="28"/>
       <c r="H39" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
@@ -6100,24 +5853,24 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="28"/>
       <c r="H40" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I40" s="28"/>
       <c r="J40" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
@@ -6127,24 +5880,24 @@
     </row>
     <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="28"/>
       <c r="H41" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I41" s="28"/>
       <c r="J41" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
@@ -6154,24 +5907,24 @@
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="28"/>
       <c r="H42" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I42" s="28"/>
       <c r="J42" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
@@ -6181,24 +5934,24 @@
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="28"/>
       <c r="H43" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
@@ -6208,24 +5961,24 @@
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="28"/>
       <c r="H44" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I44" s="28"/>
       <c r="J44" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
@@ -6235,24 +5988,24 @@
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F45" s="57"/>
       <c r="G45" s="28"/>
       <c r="H45" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
@@ -6262,24 +6015,24 @@
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" s="57"/>
       <c r="G46" s="28"/>
       <c r="H46" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
@@ -6289,24 +6042,24 @@
     </row>
     <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="28"/>
       <c r="H47" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
@@ -6316,24 +6069,24 @@
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="28"/>
       <c r="H48" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
@@ -6343,24 +6096,24 @@
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F49" s="57"/>
       <c r="G49" s="28"/>
       <c r="H49" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I49" s="28"/>
       <c r="J49" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
@@ -6370,24 +6123,24 @@
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="28"/>
       <c r="H50" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
@@ -6397,24 +6150,24 @@
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F51" s="57"/>
       <c r="G51" s="28"/>
       <c r="H51" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I51" s="28"/>
       <c r="J51" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K51" s="28"/>
       <c r="L51" s="28"/>
@@ -6424,24 +6177,24 @@
     </row>
     <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F52" s="57"/>
       <c r="G52" s="28"/>
       <c r="H52" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K52" s="28"/>
       <c r="L52" s="28"/>
@@ -6451,24 +6204,24 @@
     </row>
     <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F53" s="57"/>
       <c r="G53" s="28"/>
       <c r="H53" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I53" s="28"/>
       <c r="J53" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
@@ -6478,24 +6231,24 @@
     </row>
     <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F54" s="57"/>
       <c r="G54" s="28"/>
       <c r="H54" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I54" s="28"/>
       <c r="J54" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
@@ -6505,24 +6258,24 @@
     </row>
     <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F55" s="57"/>
       <c r="G55" s="28"/>
       <c r="H55" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
@@ -6532,24 +6285,24 @@
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F56" s="57"/>
       <c r="G56" s="28"/>
       <c r="H56" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
@@ -6559,24 +6312,24 @@
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F57" s="57"/>
       <c r="G57" s="28"/>
       <c r="H57" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K57" s="28"/>
       <c r="L57" s="28"/>
@@ -6586,24 +6339,24 @@
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="28"/>
       <c r="H58" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I58" s="28"/>
       <c r="J58" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
@@ -6613,24 +6366,24 @@
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="28"/>
       <c r="H59" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I59" s="28"/>
       <c r="J59" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K59" s="28"/>
       <c r="L59" s="28"/>
@@ -6640,24 +6393,24 @@
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="28"/>
       <c r="H60" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I60" s="28"/>
       <c r="J60" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K60" s="28"/>
       <c r="L60" s="28"/>
@@ -6667,24 +6420,24 @@
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="28"/>
       <c r="H61" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I61" s="28"/>
       <c r="J61" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K61" s="28"/>
       <c r="L61" s="28"/>
@@ -6694,24 +6447,24 @@
     </row>
     <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="28"/>
       <c r="H62" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="28"/>
@@ -6721,24 +6474,24 @@
     </row>
     <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="28"/>
       <c r="H63" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I63" s="28"/>
       <c r="J63" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
@@ -6748,24 +6501,24 @@
     </row>
     <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="28"/>
       <c r="H64" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I64" s="28"/>
       <c r="J64" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
@@ -6775,24 +6528,24 @@
     </row>
     <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="28"/>
       <c r="H65" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
@@ -6802,24 +6555,24 @@
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="28"/>
       <c r="H66" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I66" s="28"/>
       <c r="J66" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
@@ -6829,24 +6582,24 @@
     </row>
     <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="57"/>
       <c r="G67" s="28"/>
       <c r="H67" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I67" s="28"/>
       <c r="J67" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
@@ -6856,24 +6609,24 @@
     </row>
     <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="28"/>
       <c r="H68" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K68" s="28"/>
       <c r="L68" s="28"/>
@@ -6883,24 +6636,24 @@
     </row>
     <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="28"/>
       <c r="H69" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I69" s="28"/>
       <c r="J69" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K69" s="28"/>
       <c r="L69" s="28"/>
@@ -6910,24 +6663,24 @@
     </row>
     <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F70" s="57"/>
       <c r="G70" s="28"/>
       <c r="H70" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K70" s="28"/>
       <c r="L70" s="28"/>
@@ -6937,24 +6690,24 @@
     </row>
     <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F